--- a/!parsed_items_100/1299/1299_3199-3300.xlsx
+++ b/!parsed_items_100/1299/1299_3199-3300.xlsx
@@ -639,40 +639,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LA BLINQUE</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Трусы джоки из мелкой сеточки LXL</t>
+          <t>Кофе любви молотый ЖЕЛАНИЕ (29 г)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-26828-1299</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>50-52</t>
-        </is>
-      </c>
+          <t>id-23750-1299</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>99999</v>
@@ -682,38 +674,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23750/23750_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротичные мужские трусы джоки из мелкой сеточки. Ягодицы обрамляют две тонкие полоски, что смотрится очень сексуально. Трусы джоки из мелкой сеточки LXL.  Трусы джоки из мелкой сеточки LXL. Модель: lablin-80lxlb. Белье. Эротическое белье для мужчин &gt; Трусы, стринги, шорты. Цвет: черный. Батареек нет в комплекте. Бренд: LA BLINQUE. </t>
+          <t xml:space="preserve">О том, что Кофе - это напиток, который даёт заряд бодрости и помогает проснуться, знают все. Но кофе бренда Штучки-Дрючки, помогает не только в этом, он действует как сильный афродизиак: раскрепощает и усиливает желание, а входящая в состав продукта гуарана эффективно тонизирует и восстанавливает силы организма.Состав: арабика 50%, робуста 50%, гуарана. Кофе любви молотый ЖЕЛАНИЕ (29 г).  Кофе любви молотый ЖЕЛАНИЕ (29 г). Модель: shtuchki-699937. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Турция</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
+          <t>29 г</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>29 г</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -759,13 +759,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Возбуждающие препараты</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -775,12 +775,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Игра Возьми меня на работу</t>
+          <t>Кофе любви молотый ВОЗБУЖДЕНИЕ (29 г)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-15715-1299</t>
+          <t>id-23749-1299</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -794,15 +794,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23749/23749_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Игра Возьми меня на работу.  Игра Возьми меня на работу. Модель: las-1016020. Приколы. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">О том, что Кофе - это напиток, который даёт заряд бодрости и помогает проснуться, знают все. Но кофе бренда Штучки-Дрючки, помогает не только в этом, он действует как сильный афродизиак: раскрепощает и усиливает желание, а входящая в состав продукта муира пуама, эффективно снимает излишнее напряжение, помогает расслабиться и получать удовольствие от эротических игр.Состав: арабика 50%, робуста 50%, муира пуама. Кофе любви молотый ВОЗБУЖДЕНИЕ (29 г).  Кофе любви молотый ВОЗБУЖДЕНИЕ (29 г). Модель: shtuchki-699938. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -819,13 +823,17 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
+          <t>29 г</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>29 г</t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
@@ -851,7 +859,7 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>60 карточек с профессиями, 100 карточек с навыками, 18 карточек для голосования, правила</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -877,22 +885,22 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Игра для любой компании СЕКС ГОЛОДУХА</t>
+          <t>Ролевая игра в стиле БДСМ Накажи Меня</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-20853-1299</t>
+          <t>id-22653-1299</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -906,15 +914,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Игра для любой компании СЕКС ГОЛОДУХА (61 карточка).  Игра для любой компании СЕКС ГОЛОДУХА (61 карточка). Модель: las-1055087. Фанты. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Материал: картон. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Мини-версия игры Накажи меня нежно - то, что нужно, если ты давно поглядываешь в сторону БДСМ, но стесняешься. Если хочется добавить огня в секс, но не хватет идей, а все твои фантазии сводятся к костюму супергероя или кошечки. Внутри коробки ты найдешь карточки со сценариями, которые пом</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -929,7 +941,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>картон</t>
+          <t>эластичный TPE</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
@@ -944,17 +956,33 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.93</v>
+      </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+      <c r="AB4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.9</v>
+      </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>универсальный (растягивается)</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>универсальный (растягивается)</t>
+        </is>
+      </c>
       <c r="AH4" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -967,7 +995,7 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>61 карточка, 5 карточек для подсчета очков, маркер, правила игры</t>
+          <t>карточки со сценариями для него, карточки со сценариями для нее, эрекционное кольцо</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -993,7 +1021,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1003,12 +1031,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Игра для компании ОТКРОВЕННО ГОВОРЯ</t>
+          <t>Шоколадный мини-пенис со вкусом</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-21172-1299</t>
+          <t>id-24804-1299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -1022,15 +1050,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24804/24804_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24804/24804_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Игра для компании ОТКРОВЕННО ГОВОРЯ (3-16 игроков).  Игра для компании ОТКРОВЕННО ГОВОРЯ (3-16 игроков). Модель: las-1062356. Фанты. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Материал: картон, бумага, пластик. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">.Шоколадный мини-пенис со вкусом апельсина.  Шоколадный мини-пенис со вкусом апельсина. Модель: shtuchki-699968. Приколы. Эротические сувениры &gt; Сувениры. Цвет: коричневый. Материал: молочный шоколад. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1045,7 +1077,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>картон, бумага, пластик</t>
+          <t>молочный шоколад</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
@@ -1060,11 +1092,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.025</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8</v>
+      </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
@@ -1076,14 +1118,24 @@
           <t xml:space="preserve">. </t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
+      <c r="AI5" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>19</v>
+      </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>правила игры, игровое поле, фишка для счета, 8 фишек игроков, 16 фишек плюс и минус, 200 карточек</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1103,13 +1155,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1119,12 +1171,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Игра с карточками Секс Бум 95</t>
+          <t>Массажное масло Excitation Импульс.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-15713-1299</t>
+          <t>id-15883-1299</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1138,38 +1190,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15883/15883_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Игра с карточками Секс Бум (95 карточек).  Игра с карточками Секс Бум (95 карточек). Модель: las-110362. Приколы. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Массажное масло Shunga Excitation Massage Oil с ароматом Апельсина.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками. Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки.Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Массажное масло Excitation Импульс. Апельсин (250 мл).  Массажное масло Excitation Импульс. Апельсин (250 мл). Модель: shunga-1003sg. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr"/>
+          <t>250 мл</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>250 мл</t>
         </is>
       </c>
       <c r="W6" t="inlineStr"/>
@@ -1195,7 +1255,7 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>95 карточек, игровое поле, песочные часы, фишки, правила</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1215,28 +1275,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Игра с карточками Вертится на языке</t>
+          <t>Съедобный массажный крем для тела</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-14166-1299</t>
+          <t>id-16579-1299</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1250,38 +1310,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16579/16579_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Игра с карточками Вертится на языке.  Игра с карточками Вертится на языке. Модель: las-1107304. Приколы. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Эта линейка кремов создана Shunga Erotic art специально для оральных удовольствий.Помимо великолепных чувственных ароматов, крема этой линейки имеют отличный вкус, в буквальном смысле этого слова, крема съедобны!Крема изготавливаются только из натуральных компонентов.Оральный секс, с использованием этого продукта, принесёт ещё большее, ни с чем несравнимое удовольствие!Крем шелковистой текстуры, который даже во время интенсивной близости, сохраняет на коже восхитительный вкусЭтот маслянистый массажный крем обеспечивает нежное скольжение между телами, поднимая сексуальную энергию до самых вершин.- Легко и долго скользит- Не оставляет жирных следов- Съедобен- Оставляет на коже чувство свежести- Восхитительный вкус- Гладкий шелковистый- Состоит только их натуральных ингредиентов.Съедобный массажный крем для тела Massage Cream с ароматом МАЛИНЫ (200 мл).  Съедобный массажный крем для тела Massage Cream с ароматом МАЛИНЫ (200 мл). Модель: shunga-1010. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W7" t="inlineStr"/>
@@ -1327,28 +1395,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Горячие фанты УРОКИ ФЛИРТА (2 игрока)</t>
+          <t>Масло массажное для тела Shunga</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-20851-1299</t>
+          <t>id-20510-1299</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1362,38 +1430,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20510/20510_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Горячие фанты УРОКИ ФЛИРТА (2 игрока).  Горячие фанты УРОКИ ФЛИРТА (2 игрока). Модель: las-1198876. Фанты. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Массажное масло Shunga Kissable Massage Oil с ароматом Азиатские нотки - это аромат, который Eau Zone Oils and Fragrances искал много лет. Смесь азиатских фруктов, которые выпускают специальный аромат. Вы больше нигде не найдете. Это как наш собственный рецепт.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками.Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки. Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Масло массажное для тела Shunga Irresistible Азиатские нотки (250 мл).  Масло массажное для тела Shunga Irresistible Азиатские нотки (250 мл). Модель: shunga-10184. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr"/>
+          <t>250 мл</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>250 мл</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -1419,7 +1495,7 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>правила, Мужской флирт (15 карт), Женский флирт (15 карт), Чего хотят мужчины (10 карт)</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -1439,13 +1515,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1455,12 +1531,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Фанты А знаешь ли ты?</t>
+          <t>Съедобный массажный крем для тела</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-15718-1299</t>
+          <t>id-16580-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1474,38 +1550,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16580/16580_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Фанты А знаешь ли ты?.  Фанты А знаешь ли ты?. Модель: las-1203188. Фанты. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Эта линейка кремов создана Shunga Erotic art специально для оральных удовольствий.Помимо великолепных чувственных ароматов, крема этой линейки имеют отличный вкус, в буквальном смысле этого слова, крема съедобны!Крема изготавливаются только из натуральных компонентов.Оральный секс, с использованием этого продукта, принесёт ещё большее, ни с чем несравнимое удовольствие!Крем шелковистой текстуры, который даже во время интенсивной близости, сохраняет на коже восхитительный вкусЭтот маслянистый массажный крем обеспечивает нежное скольжение между телами, поднимая сексуальную энергию до самых вершин.- Легко и долго скользит- Не оставляет жирных следов- Съедобен- Оставляет на коже чувство свежести- Восхитительный вкус- Гладкий шелковистый- Состоит только их натуральных ингредиентов.Съедобный массажный крем для тела Massage Cream (шоколад) 200 мл.  Съедобный массажный крем для тела Massage Cream (шоколад) 200 мл. Модель: shunga-1096. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -1531,7 +1615,7 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>20 карточек</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -1551,13 +1635,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1567,12 +1651,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Игра для веселой компании ОТВЕТЬ ЗА 6</t>
+          <t>Натуральное возбуждающее массажное</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-21171-1299</t>
+          <t>id-9464-1299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1586,42 +1670,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/9464/9464_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Игра для веселой компании ОТВЕТЬ ЗА 6 СЕКУНД (от 2 игроков).  Игра для веселой компании ОТВЕТЬ ЗА 6 СЕКУНД (от 2 игроков). Модель: las-1203194-1. Фанты. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Материал: картон, бумага. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Массажное масло Shunga EUPHORIA Massage Oil.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками. Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки.Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Натуральное возбуждающее массажное масло EUPHORIA (250 мл).  Натуральное возбуждающее массажное масло EUPHORIA (250 мл). Модель: shunga-1104. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>картон, бумага</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr"/>
+          <t>250 мл</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>250 мл</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -1667,13 +1755,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1683,12 +1771,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Карты фантазийные Камасутра</t>
+          <t>Натуральное съедобное массажное масло</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-20838-1299</t>
+          <t>id-15881-1299</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1702,38 +1790,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15881/15881_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Карты фантазийные Камасутра.  Карты фантазийные Камасутра. Модель: las-123017. Фанты. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Чувственное удовольствие прикосновения и невероятно волнующий аромат Пьянящего шоколада накаляют вашу близость с этим сочным маслом Shunga Kissable Massage Oil, которое скользит по коже, как шелк. - Смесь сертифицированных органических растительных масел,- Натуральная добавка шоколад,- Натуральное и съедобное.Усильте удовольствие и ощущения эрогенных зон вашего партнера. Кроме того, оно абсолютно безопасно, благодаря натуральным компонентам, входящим в его состав!Применение: Нанести необходимое количество на кожу или половые органы и втирать массажными движениями. Полностью отсутствует химический процесс, используется исключительно в процессе роста растения, а не в процессе переработки. Примечание: Иногда появление масла может сопровождаться прозрачным или размытым эффектом. Это связано с естественным процессом, который зависит от атмосферных условий во время роста растений. Благодаря ингредиентам, входящим в состав, масло на 100% съедобно. Натуральное съедобное массажное масло Пьянящий шоколад 250 мл.  Натуральное съедобное массажное масло Пьянящий шоколад 250 мл. Модель: shunga-1109sg. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr"/>
+          <t>250 мл</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>250 мл</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -1759,7 +1855,7 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>колода 36 карт</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -1779,13 +1875,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1795,12 +1891,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Две игры для компании ТЕСНАЯ СВЯЗЬ от</t>
+          <t>Съедобный массажный крем для тела</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-22519-1299</t>
+          <t>id-16581-1299</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1814,42 +1910,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16581/16581_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Играем на вечеринке!Узнайте, с кем из гостей вечеринки у вас самая тесная связь! Вам предстоит искать пары пикантных картинок на время. Готовы? Поехали!Читаем мысли соперников!Внутри вы найдёте сразу два варианта игры: первый - быстрый и азартный, второй - для тех, кто любит стратегии!Выбирайте один из них и играйте в большой компании!А принцип игр прост:    Выкладываем картинки.    Находим пары.    Успеваем уложиться в срок! На столе будет 11 карточек. Каждый из вас должен составить пары по своим ассоциациям. Например закат - небо или. ковбой - плётка!Цель - заработать баллы! Если ваша ассоциация совпадёт с другими игроками, вы получите больше победных очков. Так что думать здесь нужно не за себя, а за других!.Две игры для компании ТЕСНАЯ СВЯЗЬ (от 3 игроков до бесконечности).  Две игры для компании ТЕСНАЯ СВЯЗЬ (от 3 игроков до бесконечности). Модель: las-1235404. Фанты. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Материал: картон. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Эта линейка кремов создана Shunga Erotic art специально для оральных удовольствий.Помимо великолепных чувственных ароматов, крема этой линейки имеют отличный вкус, в буквальном смысле этого слова, крема съедобны!Крема изготавливаются только из натуральных компонентов.Оральный секс, с использованием этого продукта, принесёт ещё большее, ни с чем несравнимое удовольствие!Крем шелковистой текстуры, который даже во время интенсивной близости, сохраняет на коже восхитительный вкусЭтот маслянистый массажный крем обеспечивает нежное скольжение между телами, поднимая сексуальную энергию до самых вершин.- Легко и долго скользит- Не оставляет жирных следов- Съедобен- Оставляет на коже чувство свежести- Восхитительный вкус- Гладкий шелковистый- Состоит только их натуральных ингредиентов.Съедобный массажный крем для тела Massage Cream (груша и зеленый чай) 200 мл.  Съедобный массажный крем для тела Massage Cream (груша и зеленый чай) 200 мл. Модель: shunga-1119. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>картон</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -1875,7 +1975,7 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>125 карточек, песочные часы, правила игры</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -1895,28 +1995,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Романтическая игра 100 способов</t>
+          <t>Съедобное натуральное массажное масло</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-23645-1299</t>
+          <t>id-20507-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1930,42 +2030,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20507/20507_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Я тебя люблю - эти слова счастлив услышать каждый! Перед вами игра, которая подарит вам целых 100 способов провести время вместе. Для этого вам понадобится только ваше сильное чувство любви. Мужчина сможет удивить свою девушку, воспользовавшись колодой для нее, а девушка - колодой для него.Вытягивайте карточки, вдохновляйтесь идеями и воплощайте их в реальность. Внутри вы найдете открытки - напишите на них самые теплые признания в любви и подарите друг другу!.Романтическая игра 100 способов признаться в любви (50 карточек).  Романтическая игра 100 способов признаться в любви (50 карточек). Модель: las-1532964. Фанты. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Материал: картон. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Чувственное удовольствие прикосновения и невероятно волнующий аромат Кленового сиропа накаляют вашу близость с этим сочным маслом Shunga Kissable Massage Oil, которое скользит по коже, как шелк. 100% сертифицированные органические ингредиенты100% натуральные масла холодного отжимаНежирныйНе забивает порыНе содержит минерального или животного маслаВлейте небольшое количество в ладонь и протрите руки, чтобы разогреть масло до температуры тела. При желании вы можете нагреть масло в горячей воде,чтобы касания были еще жарче. Съедобное натуральное массажное масло Shunga ORGANIKA Maple Delight (кленовое наслаждение, 240 мл).  Съедобное натуральное массажное масло Shunga ORGANIKA Maple Delight (кленовое наслаждение, 240 мл). Модель: shunga-11204. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>картон</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr"/>
+          <t>240 мл</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>240 мл</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -1991,7 +2095,7 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>50 карточек, 2 открытки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2011,28 +2115,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Игра для двоих СЛАДКИЙ ПОЦЕЛУЙ 28</t>
+          <t>Возбуждающее массажное масло Shunga</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-22056-1299</t>
+          <t>id-24900-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -2046,38 +2150,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24900/24900_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Французский, японский, фруктовый. . Хотите узнать какие еще бывают поцелуи? Тогда вам обязательно нужно сыграть в эту игру! Все очень просто. Собирайте парные картинки, а победитель будет награжден самым изысканным поцелуем. Удовольствие от игры гарантированно!.Игра для двоих СЛАДКИЙ ПОЦЕЛУЙ (28 карточек).  Игра для двоих СЛАДКИЙ ПОЦЕЛУЙ (28 карточек). Модель: las-167243. Фанты. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Массажное масло Shunga Erotic Massage Oil с ароматом Кокосовое волнение.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками.Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки. Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Возбуждающее массажное масло Shunga ADORABLE с ароматом кокоса (240 мл).  Возбуждающее массажное масло Shunga ADORABLE с ароматом кокоса (240 мл). Модель: shunga-1210. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr"/>
+          <t>240 мл</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>240 мл</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -2103,7 +2215,7 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>картон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -2123,28 +2235,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Игра для двоих Ахи Вздохи  64</t>
+          <t>Натуральное возбуждающее массажное</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-23643-1299</t>
+          <t>id-24901-1299</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -2158,55 +2270,53 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24901/24901_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">АХИ-ВЗДОХИ - отличная игра для пары, которая хочет освежить свои отношения и погрузиться, как в первый раз, в пучину необузданных страстей. Игра для двоих Ахи Вздохи  (64 карточки).  Игра для двоих Ахи Вздохи  (64 карточки). Модель: las-230387. Фанты. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Массажное масло Shunga Erotic Massage Oil с ароматом Моной.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками. Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки.Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Натуральное возбуждающее массажное масло Shunga SERENITY с ароматом моной (240 мл).  Натуральное возбуждающее массажное масло Shunga SERENITY с ароматом моной (240 мл). Модель: shunga-1213. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr"/>
+          <t>240 мл</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W15" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X15" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>9.199999999999999</v>
-      </c>
+          <t>240 мл</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
@@ -2225,7 +2335,7 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>64 карточки, правила игры</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -2245,28 +2355,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Игра для двоих ПРАВДА или ВЫЗОВ 30</t>
+          <t>Натуральное массажное масло для тела</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-22058-1299</t>
+          <t>id-24287-1299</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -2280,42 +2390,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24287/24287_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Откройтесь своей второй половинке с новой стороны. В этой игре нет никаких запретов: выбирайте правда или вызов, отвечайте на пикантные вопросы и выполняйте провокационные действия. Игра для двоих ПРАВДА или ВЫЗОВ (30 карточек).  Игра для двоих ПРАВДА или ВЫЗОВ (30 карточек). Модель: las-2828730. Фанты. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Материал: картон. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Массажное масло Shunga Erotic Massage Oil с ароматом Азиатские нотки - это аромат, который Eau Zone Oils and Fragrances искал много лет. Смесь азиатских фруктов, которые выпускают специальный аромат. Вы больше нигде не найдете. Это как наш собственный рецепт.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками.Это на 100% натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки. Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Натуральное массажное масло для тела Shunga IRRESISTIBLE (азиатские нотки, 240мл).  Натуральное массажное масло для тела Shunga IRRESISTIBLE (азиатские нотки, 240мл). Модель: shunga-1218. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>картон</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr"/>
+          <t>240 мл</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>240 мл</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -2341,7 +2455,7 @@
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>15 карточек для нее, 15 карточек для него, правила игры</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
@@ -2361,13 +2475,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2377,12 +2491,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Секс игра ПРАВДА ИЛИ ВЫЗОВ?</t>
+          <t>Съедобное натуральное массажное масло</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-25464-1299</t>
+          <t>id-15882-1299</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -2396,59 +2510,55 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15882/15882_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Игра Правда или действие? Без комплексов поможет вам открыться своей половинке с новой стороны. Забудьте все запреты, просто отвечайте на пикантные вопросы и выполняйте провокационные задания.Что нужно делать?По очереди спрашивайте у партнёра: правда или действие? И в зависимости от того, что выбрала ваша половинка, вытягивайте карточки и отвечайте на вопросы либо выполняйте действие.За отказ от ответа или действия вы можете придумать штрафы. Например, снимать один предмет одежды за каждый отказ.В этой игре нет проигравших и победителей. Просто наслаждайтесь каждой минутой, проведённой рядом друг с другом!Внутри вы найдёте:    15 карточек Для неё.    15 карточек Для него.    правила игры. Секс игра ПРАВДА ИЛИ ВЫЗОВ?.  Секс игра ПРАВДА ИЛИ ВЫЗОВ?. Модель: las-2828730. Фанты. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Материал: картон. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Чувственное удовольствие прикосновения и невероятно волнующий аромат Миндальной сладости накаляют вашу близость с этим сочным маслом Shunga Kissable Massage Oil, которое скользит по коже, как шелк. - Смесь сертифицированных органических растительных масел,- Натуральная добавка Миндаль,- Натуральное и съедобное.Усильте удовольствие и ощущения эрогенных зон вашего партнера. Кроме того, оно абсолютно безопасно, благодаря натуральным компонентам, входящим в его состав!Применение: Нанести необходимое количество на кожу или половые органы и втирать массажными движениями. Полностью отсутствует химический процесс, используется исключительно в процессе роста растения, а не в процессе переработки. Примечание: Иногда появление масла может сопровождаться прозрачным или размытым эффектом. Это связано с естественным процессом, который зависит от атмосферных условий во время роста растений. Благодаря ингредиентам, входящим в состав, масло на 100% съедобно. Съедобное натуральное массажное масло Shunga ORGANIKA Almond Sweetness (миндальная сладость, 240 мл).  Съедобное натуральное массажное масло Shunga ORGANIKA Almond Sweetness (миндальная сладость, 240 мл). Модель: shunga-1312sg. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>картон</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr"/>
+          <t>240 мл</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>7.15</v>
-      </c>
+          <t>240 мл</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10.45</v>
-      </c>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
@@ -2465,7 +2575,7 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>30 карточек (15 для него, 15 для нее), правила игры</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
@@ -2485,13 +2595,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2501,12 +2611,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Игра карточная Мафия. Чикаго</t>
+          <t>Возбуждающее масло для массажа Shunga</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-15717-1299</t>
+          <t>id-19950-1299</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2520,38 +2630,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19950/19950_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Игра карточная Мафия. Чикаго.  Игра карточная Мафия. Чикаго. Модель: las-405013. Приколы. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Массажное масло Shunga Kissable Massage Oil с ароматом Яблока.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками. Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки.Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Возбуждающее масло для массажа Shunga Passion с ароматом яблока (250 мл).  Возбуждающее масло для массажа Shunga Passion с ароматом яблока (250 мл). Модель: shunga-1404. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr"/>
+          <t>250 мл</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>250 мл</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -2577,7 +2695,7 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>36 карточек с героями, правила</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -2597,13 +2715,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2613,12 +2731,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Эротические фанты "БДСМ для начинающих"</t>
+          <t>Свеча-массажное масло Aphrodisia</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-24985-1299</t>
+          <t>id-13915-1299</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2632,42 +2750,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13915/13915_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротические фанты для двоихХотите попробовать что-то новенькое и добавить отношениям перчинки? Тогда эти фанты - то, что вам нужно. Здесь вы найдёте по 10 заданий для него и для неё, которые помогут раскрыть секреты доминирования и насладиться друг другом.По очереди тяните карты и выполняйте фант. Помните о технике безопасности и заранее обговорённом стоп-слове. Произнесите его, и игра тут же прекратится. Эротические фанты БДСМ для начинающих (20 карточек).  Эротические фанты "БДСМ для начинающих" (20 карточек). Модель: las-5267245. Фанты. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Печатная продукция. Материал: бумага. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Создайте атмосферу романтического прикосновения. Зажгите свечу, и наполните комнату возбуждающим запахом афродизиаков. Погасите пламя, затем нанесите образовавшееся теплое (но не горячее!) масло на тело массажными движениями и ощущение блаженства вам обеспечено.Два в одном: ароматизированная свеча и массажное масло. Изготовлено из 100% натуральных масел, При горении свечи образуется теплое массажное масло, не обжигающее кожу, Делает кожу мягкой и шелковистой, Великолепный смягчитель, Длительность горения свечи  до 40 часов, Нежные и тонкие ароматы, обволакивающие тело и комнату.Эта свеча из соевого масла не содержит парафина, а значит, не содержит никаких токсичных веществ. Соевое, кокосовое и миндальное масла смягчают и ухаживают за кожей, не закупоривают поры и подходят для любого типа кожи. Свеча-массажное масло Aphrodisia (аромат лепестков розы) 170 мл.  Свеча-массажное масло Aphrodisia (аромат лепестков розы) 170 мл. Модель: shunga-274500. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>бумага</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr"/>
+          <t>170 *40 г</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>170 *40</t>
+        </is>
+      </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>170 *40 г</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -2693,7 +2815,7 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>20 карточек</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -2713,28 +2835,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Эротические фанты "Предварительные</t>
+          <t>Съедобный массажный крем для тела</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-24986-1299</t>
+          <t>id-16111-1299</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2748,42 +2870,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16111/16111_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротические фанты для двоихКак разнообразить сексуальную жизнь и добавить в неё перчинку? Начните с предварительных ласк. В этой коробке вас ждёт 20 способов завести друг друга. По очереди вытягивайте карточки, зачитывайте их содержание и воплощайте написанное в жизнь!.Эротические фанты Предварительные ласки (20 карточек).  Эротические фанты "Предварительные ласки" (20 карточек). Модель: las-5267249. Печатная продукция. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Печатная продукция. Материал: бумага. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Эта линейка кремов создана Shunga Erotic art специально для оральных удовольствий.Помимо великолепных чувственных ароматов, крема этой линейки имеют отличный вкус, в буквальном смысле этого слова, крема съедобны!Крема изготавливаются только из натуральных компонентов.Оральный секс, с использованием этого продукта, принесёт ещё большее, ни с чем несравнимое удовольствие!Крем шелковистой текстуры, который даже во время интенсивной близости, сохраняет на коже восхитительный вкусЭтот маслянистый массажный крем обеспечивает нежное скольжение между телами, поднимая сексуальную энергию до самых вершин.- Легко и долго скользит- Не оставляет жирных следов- Съедобен- Оставляет на коже чувство свежести- Восхитительный вкус- Гладкий шелковистый- Состоит только их натуральных ингредиентов.Съедобный массажный крем для тела Massage Cream (клубника с шампанским) 200 мл.  Съедобный массажный крем для тела Massage Cream (клубника с шампанским) 200 мл. Модель: shunga-4108. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>бумага</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -2809,7 +2935,7 @@
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>20 карточек</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -2829,28 +2955,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Игра Мужские правила плюс карточки с</t>
+          <t>Съедобный массажный крем для тела</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-21170-1299</t>
+          <t>id-16112-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2864,42 +2990,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16112/16112_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Игра Мужские правила (плюс карточки с алкогольными заданиями) 1-3 игрока.  Игра Мужские правила (плюс карточки с алкогольными заданиями) 1-3 игрока. Модель: las-711475. Фанты. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Материал: картон, бумага. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Эта линейка кремов создана Shunga Erotic art специально для оральных удовольствий.Помимо великолепных чувственных ароматов, крема этой линейки имеют отличный вкус, в буквальном смысле этого слова, крема съедобны!Крема изготавливаются только из натуральных компонентов.Оральный секс, с использованием этого продукта, принесёт ещё большее, ни с чем несравнимое удовольствие!Крем шелковистой текстуры, который даже во время интенсивной близости, сохраняет на коже восхитительный вкусЭтот маслянистый массажный крем обеспечивает нежное скольжение между телами, поднимая сексуальную энергию до самых вершин.- Легко и долго скользит- Не оставляет жирных следов- Съедобен- Оставляет на коже чувство свежести- Восхитительный вкус- Гладкий шелковистый- Состоит только их натуральных ингредиентов.Съедобный массажный крем для тела Massage Cream (миндальная сладость) 200 мл.  Съедобный массажный крем для тела Massage Cream (миндальная сладость) 200 мл. Модель: shunga-4112. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>картон, бумага</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -2945,28 +3075,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Уходовые средства эротив</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Интелектуальная игра с карточками Секс</t>
+          <t>Ароматическая соль для ванны Shunga</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-14165-1299</t>
+          <t>id-21201-1299</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -2980,38 +3110,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21201/21201_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Интелектуальная игра с карточками Секс гид.  Интелектуальная игра с карточками Секс гид. Модель: las-730411. Приколы. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Пенящаяся соль для ванны с ароматом лотоса - мини версия.     100% Соль Мертвого моря     100% натуральный состав     Образует маслянистую пену     Окрашивает воду      Ароматизирует тело и помещение     Лечебные свойства. справляется с проблемами кожиСоль изготовлена из 100% натуральных минералов Мертвого моря с возбуждающим ароматом цветов лотоса, поможет вам расслабиться перед близостью в ванне, которая будет похожа на зеленую лагуну. Позвольте пузырькам ласкать вашу кожу, делая ее мягкой и привлекательной для тех самых моментов близости . . Ароматическая соль для ванны Shunga MOONLIGHT BATH Lotus Flower (75 г).  Ароматическая соль для ванны Shunga MOONLIGHT BATH Lotus Flower (75 г). Модель: shunga-6617. Косметика, препараты. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Расслабляющая ванна. Элитная продукция. Цвет: зеленый. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr"/>
+          <t>75 г</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>75 г</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -3063,7 +3201,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3073,12 +3211,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Откровенная игра ГОЛАЯ ПРАВДА от 2</t>
+          <t>Подарочный набор Geisha's Secret</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-20854-1299</t>
+          <t>id-19538-1299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -3092,42 +3230,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19538/19538_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19538/19538_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19538/19538_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19538/19538_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Откровенная игра ГОЛАЯ ПРАВДА (от 2 человек, 40 карточек).  Откровенная игра ГОЛАЯ ПРАВДА (от 2 человек, 40 карточек). Модель: las-806046. Фанты. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Материал: картон. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">В набор входит:    Эротическое массажное масло Зеленый чай-10мл    Масло с афродизиаками Зеленый чай-10мл    Массажная свеча ZENITUDE-30мл    Лубрикант TOKO ORGANICA-10vk    Возбуждающий гель для влюбленных LOTUS NOIR- 7мл.Подарочный набор Geisha's Secret ОРГАНИКА Экзотический зеленый чай (5 предметов).  Подарочный набор Geisha's Secret ОРГАНИКА Экзотический зеленый чай (5 предметов). Модель: shunga-82112. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Эротические сувениры &gt; Сувениры. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>картон</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr"/>
+          <t>3*10 , 30 , 7 мл</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>3*10 , 30 , 7</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3*10 , 30 , 7 мл</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -3153,7 +3295,7 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>40 карточек</t>
+          <t>массажное масло 10 мл, разогревающее масло 10 мл, массажная свеча 30 мл, лубрикант на водной основе 10 мл, возбуждающий гель для влюбленных LOTUS NOIR 7 мл</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -3173,13 +3315,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3189,12 +3331,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Игра для пары или компании ПОЗА Х 60</t>
+          <t>Массажное масло Desire Ванильный фетиш</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-20842-1299</t>
+          <t>id-20405-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3208,42 +3350,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20405/20405_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Игра для пары или компании ПОЗА Х (60 карточек).  Игра для пары или компании ПОЗА Х (60 карточек). Модель: las-849070. Фанты. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Материал: картон, бумага. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">.Массажное масло Desire Ванильный фетиш 60 мл DEMO.  Массажное масло Desire Ванильный фетиш 60 мл DEMO. Модель: shunga-demo0013. Косметика, препараты. Насадки и кольца. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>картон, бумага</t>
-        </is>
-      </c>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr"/>
+          <t>60 мл</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -3269,7 +3415,7 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>60 карточек</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -3295,7 +3441,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3305,12 +3451,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Фанты для веселой компании Стриптиз на</t>
+          <t>Гель для восточного массажа Erotic</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-14180-1299</t>
+          <t>id-8674-1299</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3324,42 +3470,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/8674/8674_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/8674/8674_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Фанты для веселой компании Стриптиз на бис 18+.  Фанты для веселой компании Стриптиз на бис 18+. Модель: las-878950. Приколы. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Цвет: розовый, желтый. Материал: картон. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Original body Glide SHUNGA Erotic Massage Gel Гель для эротического массажа телом по телу При смешивании получается почти 4 л геля В комплекте водонепроницаемая простыня Подробные инструкции на передней панели коробки, позволят вам испытать занимательное и чувственное эротическое приключение Восточный массаж телом по телу  это чрезвычайно эротическая и занимательная игра, когда обнаженные тела почти в полной невесомости скользят друг о друга. Нанесенный в большом количестве на обнаженные тела гель создает пьянящий и возбуждающий эффект. Текстура кожи становится возбуждающим средством сама по себе, и превращает касания в ласки, которые выводят за пределы воображения самых сумасшедших желаний.Идеально подходит для пар, которые стремятся добавить экзотику и развлечение в свою сексуальную жизнь. Подробная инструкция на РУССКОМ ЯЗЫКЕ в комплекте. Гель для восточного массажа Erotic Massage Gel (экзотические фрукты).  Гель для восточного массажа Erotic Massage Gel (экзотические фрукты). Модель: shunga-lh2801. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Эротические сувениры &gt; Сувениры. Аксессуары для игр &gt; Наборы и аксессуары. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>картон</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr"/>
+          <t>2 * 250 мл</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>2 * 250</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2 * 250 мл</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -3385,7 +3535,7 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>20 карточек</t>
+          <t>две баночки геля, золотое непромокающее простыня</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -3405,13 +3555,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ЛАС ИГРАС</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3421,12 +3571,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Игра настольная Пикантный поединок</t>
+          <t>Съедобная пудра для тела со вкусом</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-15716-1299</t>
+          <t>id-8669-1299</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3440,38 +3590,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/8669/8669_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/8669/8669_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Игра настольная Пикантный поединок.  Игра настольная Пикантный поединок. Модель: las-898367. Приколы. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Батареек нет в комплекте. Бренд: ЛАС ИГРАС. </t>
+          <t xml:space="preserve">Ароматизированная съедобная пудра для тела с ароматом и вкусом экзотических фруктов.  Превосходные ароматы Подсушивающие свойства  В комплекте кисточка из натурального пуха Не содержит сахара Не содержит глютенаПревратите вашего партнера в восхитительное лакомство, нанеся съедобную пудру на все эрогенные зоны, пощекоча пуховой кисточкой (в комплекте) и приступите к десерту. Обладает также осушающими свойствами (модифицированный крахмал), которые очень ценятся в жаркое время. Может наноситься под грудью или подмышками, чтобы отталкивать влагу и уменьшить потовыделение, или между ног, чтобы избежать раздражения из-за трения. Может также использоваться для массажа без масла. Съедобная пудра для тела со вкусом экзотических фруктов Sweet Snow.  Съедобная пудра для тела со вкусом экзотических фруктов Sweet Snow. Модель: shunga-li1705. Косметика, препараты. Смазки, косметика &gt; Косметика. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: белый. Батареек</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr"/>
+          <t>228 г</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>228 г</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -3497,7 +3655,7 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>5 фигурок, 60 карточек, правила</t>
+          <t>пудра, перьевая палочка для нанесения пудры на тело</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -3517,28 +3675,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Вагинальные тренажеры</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LAYLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Тяжелые шарики в силиконовой оболочке</t>
+          <t>Съедобная пудра для тела со вкусом</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-17128-1299</t>
+          <t>id-8668-1299</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3552,42 +3710,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/8668/8668_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/8668/8668_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Тяжелые шарики в силиконовой оболочке LAYLA Peonia (140 г).  Тяжелые шарики в силиконовой оболочке LAYLA Peonia (140 г). Модель: layla-f0110m2lpgac. Секс-игрушки. Шарики &gt; Стеклянные, металлические. Элитная продукция &gt; Вагинальные шарики, тренажеры вагинальных мышц. Элитная продукция. Цвет: розовый. Материал: 100%  медицинский платиновый силикон. Батареек нет в комплекте. Бренд: LAYLA. </t>
+          <t xml:space="preserve">Ароматизированная съедобная пудра для тела с ароматом и вкусом ВИШНИ.  Превосходные ароматы Подсушивающие свойства  В комплекте кисточка из натурального пуха Не содержит сахара Не содержит глютенаПревратите вашего партнера в восхитительное лакомство, нанеся съедобную пудру на все эрогенные зоны, пощекоча пуховой кисточкой (в комплекте) и приступите к десерту. Обладает также осушающими свойствами (модифицированный крахмал), которые очень ценятся в жаркое время. Может наноситься под грудью или подмышками, чтобы отталкивать влагу и уменьшить потовыделение, или между ног, чтобы избежать раздражения из-за трения. Может также использоваться для массажа без масла. Съедобная пудра для тела со вкусом сочной вишни Sweet Snow.  Съедобная пудра для тела со вкусом сочной вишни Sweet Snow. Модель: shunga-lk2308. Косметика, препараты. Смазки, косметика &gt; Косметика. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: белый. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>100%  медицинский платиновый силикон</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr"/>
+          <t>228 г</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>228 г</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -3599,35 +3761,21 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
         </is>
       </c>
-      <c r="AI27" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>140</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>140</v>
-      </c>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>пудра, перьевая палочка для нанесения пудры на тело</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
@@ -3647,40 +3795,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LEDAPOL</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Трусики женские из винила с открытой</t>
+          <t>Волшебная ванна Love Bath (фиолетовая)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-19312-1299</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-12296-1299</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
         <v>99999</v>
@@ -3690,42 +3830,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12296/12296_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12296/12296_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Трусики женские из винила с открытой попкой и интимным вырезом M.  Трусики женские из винила с открытой попкой и интимным вырезом M. Модель: ledapol-1157mb. Белье. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: винил, текстиль. Батареек нет в комплекте. Бренд: LEDAPOL. </t>
+          <t xml:space="preserve">Благодаря данному продукту, ванная комната трансформируется в райский уголок. Вода в ванне меняет свой цвет на фиолетовый и превращается в роскошное зернистое желе, ароматизируя воздух. Густоту желе можно регулировать добавлением порошка №1 (увеличение плотности) или №2 (уменьшение плотности). Гель способствует расслаблению, делает кожу гладкой и шелковистой. Волшебная ванна Love Bath (фиолетовая).  Волшебная ванна Love Bath (фиолетовая). Модель: shunga-nc0408. Косметика, препараты. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Расслабляющая ванна. Элитная продукция. Цвет: фиолетовый. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>винил, текстиль</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr"/>
+          <t>650 г</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>650 г</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -3751,7 +3895,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve">один пакетик гелеобразующего порошка, один пакетик растворяющего порошка </t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -3771,13 +3915,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Комплекты БДСМ</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LEDAPOL</t>
+          <t>SINJOYS</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3787,24 +3931,16 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Красное длинное виниловое платье на</t>
+          <t>Перезаряжаемый вибратор Sinjoys CAT</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-19315-1299</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-20525-1299</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
         <v>99999</v>
@@ -3814,15 +3950,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20525/20525_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20525/20525_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20525/20525_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20525/20525_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Красное длинное виниловое платье на молнии спереди.  Красное длинное виниловое платье на молнии спереди. Модель: ledapol-1351sr. Белье. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: красный. Материал: винил. Батареек нет в комплекте. Бренд: LEDAPOL. </t>
+          <t xml:space="preserve">Позволить завести себе маленького ушастого друга может каждая девушка. Особенно, когда он такой милый, мягкий и нежный. Шаловливой вибрацией Coco будет стимулировать самые чувственные места девушки. Настроение кошечки отражается в 7 вариантах. Если захотите, он может и зарычать, и помурлыкать, только сообщите ему свое желание нежным нажатием кнопки. Не забывайте использовать смазку на водной основе и обрабатывать игрушку средством для ухода! И тогда у вас будет много самых фанатических моментов! Массажер обладает функцией Сhild care  если его найдут дети, ни о чем не догадаются. Легко использовать как обычный вибромассажер для лица и шеи. Выполнен из нежнейшего силикона. Займет достойное место среди бьюти-аксессуаров и станет интересным и приятным подарком!.Перезаряжаемый вибратор Sinjoys CAT Coco (7 режимов).  Перезаряжаемый вибратор Sinjoys CAT Coco (7 режимов). Модель: sinjoys-sc03b. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибромассажеры. Цвет: розовый, золотистый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: SINJOYS. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3837,7 +3977,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>винил</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -3854,15 +3994,25 @@
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
+      <c r="Y29" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>21</v>
+      </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
+      <c r="AF29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>3.5</v>
+      </c>
       <c r="AH29" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3875,7 +4025,7 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибратор, зарядный usb-кабель</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -3895,13 +4045,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>SINJOYS</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3911,12 +4061,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Черный комбинезон с имитацией чулок</t>
+          <t>Перезаряжаемый вибратор с клиторальным</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-27834-1299</t>
+          <t>id-20524-1299</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -3930,15 +4080,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20524/20524_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20524/20524_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20524/20524_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20524/20524_4_650.jpg</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lace Suspender Bodystocking - боди-комбинезон на бретельках с имитацией пояса и чулок. Дизайн в виде кружевного рисунка дополнен округлыми вырезами и вырезами со шнуровкой.Благодаря использованию большего процента эластана белье может растягиваться в несколько раз и снова принимать исходное состояние. Кетсьюит подойдет размерам от S до L. Черный комбинезон с имитацией чулок Lace Suspender Bodystocking SL.  Черный комбинезон с имитацией чулок Lace Suspender Bodystocking SL. Модель: ledes-014slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% нейлон, 8% спандекс. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Позволить завести себе маленького ушастого друга может каждая девушка. Особенно, когда он такой милый, мягкий и нежный. Шаловливой вибрацией Vivi будет стимулировать самые чувственные места девушки. Настроение кошечки отражается в 7 вариантах. Если захотите, он может и зарычать, и помурлыкать, только сообщите ему свое желание нежным нажатием кнопки. Не забывайте использовать смазку на водной основе и обрабатывать игрушку средством для ухода! И тогда у вас будет много самых фанатических моментов! Нежный клиторальный отросток заботливо передает вибрацию на самую чувствительную область. Массажер обладает функцией Сhild care  если его найдут дети, ни о чем не догадаются. Легко использовать как обычный вибромассажер для лица и шеи. Выполнен из нежнейшего силикона. Займет достойное место среди бьюти-аксессуаров и станет интересным и приятным подарком!.Перезаряжаемый вибратор с клиторальным стимулятором Sinjoys CAT Vivi (7 режимов).  Перезаряжаемый вибратор с клиторальным стимулятором Sinjoys CAT Vivi (7 режимов). Модель: sinjoys-sc04b. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибромассажеры. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый, золотистый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: SINJOYS. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3953,7 +4107,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% спандекс</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -3970,15 +4124,25 @@
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
+      <c r="Y30" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>21</v>
+      </c>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
+      <c r="AF30" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>3.7</v>
+      </c>
       <c r="AH30" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3991,7 +4155,7 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>вибратор, зарядный usb-кабель</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -4011,13 +4175,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Зажимы для сосков</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -4027,22 +4191,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Одноклассница M;L</t>
+          <t>Регулируемые зажимы на соски с</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-11744-1299</t>
+          <t>id-26816-1299</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -4054,28 +4218,36 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26816/26816_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Этот эротический костюм щкольницы-одноклассницы несет горячий воздух летнего пляжа и моря. Откровенный белый топ и клетчатая юбчонка ультракороткой длины максимально открывают тело. Подойдет наряд для юных и очень стройных. Одноклассница M.L.  Одноклассница M.L. Модель: lefri-02116mlr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: красный с белым. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Изящные аксессуары для стимуляции сосков и усиления сексуального возбуждения. На концах зажимов имеются специальные эластичные накладки, препятствующие сильному сдавливанию и травмированию сосков. Подвески в виде ажурных украшений на цепочке дают небольшой эффект утяжеления. На каждом изделии предусмотрен регулировочный винт, позволяющий контролировать силу сдавливания сосков. Интимные аксессуары могут использоваться соло или для парных любовных игр. Изделия просты в применении. Не требуют специального ухода. Регулируемые зажимы на соски с украшением.  Регулируемые зажимы на соски с украшением. Модель: sitabella-026. БДСМ. Аксессуары, украшения для тела &gt; Бижутерия для груди. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: серебряный. Материал: металл, ПВХ. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>металл, ПВХ</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
@@ -4111,7 +4283,7 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>топ, юбка</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -4131,40 +4303,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Прелестная школьница LXL</t>
+          <t>Стимулирующий презерватив с усиками</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-14251-1299</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>48-50</t>
-        </is>
-      </c>
+          <t>id-6399-1299</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
         <v>99999</v>
@@ -4174,15 +4338,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6399/6399_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Размышляете, что подарить любимому на 14 февраля? Лучшим вариантом будет необычный романтический вечер с сексуальной игрой. Предстаньте перед своим партнером в роли прелестной школьницы, в юбке, чуть длиннее пояса, и топе с подвязками для чулок. Прелестная школьница LXL.  Прелестная школьница LXL. Модель: lefri-02119lxlr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: красный с черным. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками ВОЖДЬ КРАСНОКОЖИХ (1 шт).  Стимулирующий презерватив с усиками ВОЖДЬ КРАСНОКОЖИХ (1 шт). Модель: sitabella-1260. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4195,7 +4363,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>латекс</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
@@ -4231,7 +4403,7 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>Ками, юбка, перчатки на руки, манжеты</t>
+          <t>1 презерватив</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -4251,40 +4423,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Прелестная школьница ML</t>
+          <t>Стимулирующий презерватив с усиками</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-5971-1299</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-13583-1299</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
         <v>99999</v>
@@ -4294,15 +4458,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13583/13583_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Размышляете, что подарить любимому на 14 февраля? Лучшим вариантом будет необычный романтический вечер с сексуальной игрой. Предстаньте перед своим партнером в роли прелестной школьницы, в юбке, чуть длиннее пояса, и топе с подвязками для чулок. Прелестная школьница ML.  Прелестная школьница ML. Модель: lefri-02119mlr. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: красный с черным. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками КРАСНЫЙ МОЛОДЕЦ (1 шт).  Стимулирующий презерватив с усиками КРАСНЫЙ МОЛОДЕЦ (1 шт). Модель: sitabella-1262-12. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4315,7 +4483,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>латекс</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
@@ -4351,7 +4523,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>ками, юбка, перчатки на руки, манжеты</t>
+          <t>1 презерватив</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4371,40 +4543,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Французская горничная ML</t>
+          <t xml:space="preserve">Стимулирующий презерватив с усиками </t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-6810-1299</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-13584-1299</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>99999</v>
@@ -4414,15 +4578,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13584/13584_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Французская горничная ML.  Французская горничная ML. Модель: lefri-02154mlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с розовым. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками  МЕЧ САМУРАЯ (1 шт).  Стимулирующий презерватив с усиками  МЕЧ САМУРАЯ (1 шт). Модель: sitabella-1264-12. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4435,7 +4603,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>латекс</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
@@ -4471,7 +4643,7 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>платье, фартук, подвязка на ногу, ободок на голову</t>
+          <t>1 презерватив</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
@@ -4491,40 +4663,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Французская горничная SM</t>
+          <t>Стимулирующий презерватив с эластичными</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-5654-1299</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-16965-1299</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>99999</v>
@@ -4534,15 +4698,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16965/16965_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Французская горничная SM.  Французская горничная SM. Модель: lefri-02154smb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с розовым. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования.Стимулирующий презерватив с эластичными усиками ВОИН МАСАИ (1 шт).  Стимулирующий презерватив с эластичными усиками ВОИН МАСАИ (1 шт). Модель: sitabella-1266-12. Презервативы. Презервативы &gt; С шариками и усиками. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4555,7 +4723,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
@@ -4591,7 +4763,7 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>Платье, фартук, подвязка на ногу, ободок на голову</t>
+          <t>1 презерватив</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -4611,40 +4783,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Безупречная служанка (6 предметов)</t>
+          <t>Стимулирующий презерватив с усиками</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-3657-1299</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>42-46</t>
-        </is>
-      </c>
+          <t>id-6400-1299</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>99999</v>
@@ -4654,15 +4818,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6400/6400_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Перед вами цель  выбрать образ для костюмированной взрослой вечеринки или ролевой игры с партнером? Обратите внимание на этот костюм служанки. Он подчеркнуто сексапильный из-за лифа-корсета со шнуровкой впереди, а манжетики на кисти и кружевной головной убор добавляют кокетливости. Безупречная служанка (6 предметов).  Безупречная служанка (6 предметов). Модель: lefri-02157smb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с белым и розовым. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками ЯРОСТЬ НОРМАННА (1 шт).  Стимулирующий презерватив с усиками ЯРОСТЬ НОРМАННА (1 шт). Модель: sitabella-1267. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4675,7 +4843,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>латекс</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
@@ -4711,7 +4883,7 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>топ, юбка, нарукавники, ободок, подвязка</t>
+          <t>1 презрватив</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -4731,40 +4903,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Роковая служанка ML</t>
+          <t>Стимулирующий презерватив Sitabella с</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-10344-1299</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-2427-1299</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>99999</v>
@@ -4774,15 +4938,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2427/2427_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">На любом маскараде такой костюм служанки привлечет внимание к его владелице. Черное платьице с фигурным вырезом и заниженной талией подчеркивает достоинства фигуры, кружевной фартук и симпатичная головная наколка дополняют целостность образа. А представьте, если вы появитесь в таком наряде перед любимым?.Роковая служанка ML.  Роковая служанка ML. Модель: lefri-02169mlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с белым. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Ситабелла - один высококачественный презерватив с накопителем из гипоаллергенного латекса с ободком и тремя длинными двойными усиками и любрикант на силиконовой основе. Стимулирующий презерватив Sitabella с усиками ТАЙФУН (1 шт).  Стимулирующий презерватив Sitabella с усиками ТАЙФУН (1 шт). Модель: sitabella-1279. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -4795,7 +4963,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>латекс</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
@@ -4831,7 +5003,7 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>платье, ободок на голову</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
@@ -4851,40 +5023,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Роковая служанка SM</t>
+          <t>Стимулирующий ароматизированный</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-3662-1299</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-13427-1299</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>99999</v>
@@ -4894,15 +5058,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13427/13427_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">На любом маскараде такой костюм служанки привлечет внимание к его владелице. Черное платьице с фигурным вырезом и заниженной талией подчеркивает достоинства фигуры, кружевной фартук и симпатичная головная наколка дополняют целостность образа. А представьте, если вы появитесь в таком наряде перед любимым?.Роковая служанка SM.  Роковая служанка SM. Модель: lefri-02169smb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с белым. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий ароматизированный презерватив с усиками СЕКРЕТ АМАРЕТТО (1 шт).  Стимулирующий ароматизированный презерватив с усиками СЕКРЕТ АМАРЕТТО (1 шт). Модель: sitabella-1283. Презервативы. Презервативы &gt; С шариками и усиками. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4915,7 +5083,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr">
         <is>
@@ -4951,7 +5123,7 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>платье, ободок на голову</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -4971,40 +5143,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Служанка ML</t>
+          <t>Стимулирующий ароматизированный</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-14077-1299</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-13428-1299</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>99999</v>
@@ -5014,15 +5178,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13428/13428_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лиф платья из этого ансамбля имеет жесткую вставку впереди, чем подчеркивается и зрительно увеличивается бюст. Такой костюм горничной на маскараде обязательно привлечет к себе внимание, он легкий, стильный и эффектный. Кроме маскарада, этот наряд пригодится и в ролевой игре с партнером. Служанка ML.  Служанка ML. Модель: lefri-02544mlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с белым. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий ароматизированный презерватив с усиками Ванильная орхидея (1 шт).  Стимулирующий ароматизированный презерватив с усиками Ванильная орхидея (1 шт). Модель: sitabella-1284. Презервативы. Презервативы &gt; С шариками и усиками. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5035,7 +5203,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>натуральный латекс</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
@@ -5071,7 +5243,7 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>платье, фартук, ободок на голову, повязка на шею, чулки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -5091,40 +5263,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Покорная горничная ML</t>
+          <t>Стимулирующий классический презерватив</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-14017-1299</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-2422-1299</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>99999</v>
@@ -5134,30 +5298,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2422/2422_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Симпатичное маленькое платьице черного цвета с полупрозрачной юбочкой  это игровой костюм домработницы. Наряд для хорошенькой скромной девушки, без излишней открытости. Покорная горничная ML.  Покорная горничная ML. Модель: lefri-02794mlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 92% полиамид, 8% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Презерватив Sitabella-Классика с эластичными шариками - высококачественный презерватив из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Способствует усилению возбуждения. Это универсальный презерватив, который сочетает в себе высокую эластичность и максимальную безопасность. Предназначен только для одноразового использования!.Стимулирующий классический презерватив Sitabella с шариками (1 шт.).  Стимулирующий классический презерватив Sitabella с шариками (1 шт.). Модель: sitabella-1400. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>92% полиамид, 8% эластан</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -5195,7 +5363,7 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>платье, стринги, ободок на голову, передник, чулки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
@@ -5215,40 +5383,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Костюм дерзкой школьницы SM</t>
+          <t>Стимулирующий презерватив с</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-12454-1299</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-2421-1299</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>99999</v>
@@ -5258,15 +5418,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2421/2421_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Костюм дерзкой школьницы SM.  Костюм дерзкой школьницы SM. Модель: lefri-02894smw. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый, черный, красный. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Презерватив Sitabella-Продлевающий эффект с эластичными шариками - высококачественный презерватив из гипоаллергенного латекса, с накопителем, в смазке с продлевающим эффектом, увеличивающей длительность полового акта и обладающей смягчающим действием на кожу и слизистые оболочки. Это универсальный презерватив, который сочетает в себе высокую эластичность и максимальную безопасность. Предназначен только для одноразового использования!.Стимулирующий презерватив с продлевающим эффектом и шариками Sitabella (1 шт).  Стимулирующий презерватив с продлевающим эффектом и шариками Sitabella (1 шт). Модель: sitabella-1402. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5279,7 +5443,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>латекс</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
@@ -5315,7 +5483,7 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>топ, юбка, стринги, очки, чулки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -5335,40 +5503,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Костюм доктор Сьюзи LXL</t>
+          <t>Стимулирующий презерватив Sitabella с</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-25416-1299</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>48-50</t>
-        </is>
-      </c>
+          <t>id-2415-1299</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>99999</v>
@@ -5378,10 +5538,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2415/2415_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Облегающее короткое платье в красно-белом окрасе подчеркивает всю женскую фигуру. Неглубокое декольте выигрышно подчеркивает округлость бюста благодаря оборкам из красной ленты. На талии красуется атласный красный пояс, который сзади превращается в элегантный бант. Платье оголяет спину, придавая образу чувственность. Оно подойдет как для эротических игр, так и для костюмированного мероприятия. Костюм доктор Сьюзи LXL.  Костюм доктор Сьюзи LXL. Модель: lefri-02896lxlw. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: белый с красным. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования. Стимулирующий презерватив Sitabella с усиками с ароматом клубники (1 шт).  Стимулирующий презерватив Sitabella с усиками с ароматом клубники (1 шт). Модель: sitabella-1403. Презервативы. Презервативы &gt; С шариками и усиками. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5391,17 +5555,17 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -5439,7 +5603,7 @@
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>платье, стринги, чулки (без бантиков), пояс, ободок на голову, стетоскоп</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
@@ -5459,40 +5623,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Костюм женщины-кошки SM</t>
+          <t>Стимулирующий презерватив с усиками</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-23706-1299</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-21606-1299</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>99999</v>
@@ -5502,10 +5658,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21606/21606_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Великолепный игровой костюм из эластичного материала с имитацией лакированных чулок и перчаток. Молния двойная, поэтому расстегнуть костюм можно как спереди, так и сзади на попке. Ни один мужчина не сможет устоять перед такой сексуальной кошечкой!.Костюм женщины-кошки SM.  Костюм женщины-кошки SM. Модель: lefri-05017smb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками НОЧНАЯ КОРРИДА (1 шт).  Стимулирующий презерватив с усиками НОЧНАЯ КОРРИДА (1 шт). Модель: sitabella-1406. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5515,17 +5675,17 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -5563,7 +5723,7 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>комбинезон, ушки, ремень-хвостс накладными карманами</t>
+          <t>1 шт</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -5583,28 +5743,28 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Вибро-шарики с дистанционным</t>
+          <t>Стимулирующий презерватив с эластичными</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-22260-1299</t>
+          <t>id-19530-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -5618,30 +5778,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19530/19530_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Приготовься отправиться в глубины космических оргазмов с вибро-шариками SuperNova. Вспышка сверхновой - высвобождение огромного количества энергии и рождение новой звезды. Вибро-шарики вобрали в себя сразу несколько игрушек, их можно использовать как для тренировки мышц, так и для массажа эрогенных зон. Управляй каждым оргазмом благодаря удобному пульту управления, который может резонировать с шариками на одной из 8 волн или же используй их отдельно друг от друга. Познай новые грани чувств за пределами привычного окружения! Преимущества модели: 1. Магнитная зарядка, 2. Перезаряжаемые аккумуляторы, 3. Абсолютно водонепроницаемые, 4. 8 уникальных программ вибрации, 5. 2 игрушки в комплекте, 6. 100% безопасный силикон, 7. Бесшумные и мощные, 8. Фирменный мешочек для хранения, 9. 1 час работы - 1 час зарядки 10. Игрушки могут работать отдельно.Вибро-шарики с дистанционным вибро-пультом Infinite SUPERNOVA (8 режимов).  Вибро-шарики с дистанционным вибро-пультом Infinite SUPERNOVA (8 режимов). Модель: lefri-05498. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Вибромассажеры. Шарики &gt; Вагинальные с вибрацией. С вибрацией. Цвет: морской волны, черный. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с эластичными усиками Классика чувств (1 шт).  Стимулирующий презерватив с эластичными усиками Классика чувств (1 шт). Модель: sitabella-1412bx. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс, силиконовая смазка. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>латекс, силиконовая смазка</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -5656,31 +5820,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W44" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="X44" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>17.49</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>15.9</v>
-      </c>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5693,7 +5843,7 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>виброшарики, вибропульт, магнитная USB-зарядка, фирменный мешочек для хранения, инструкция</t>
+          <t>1 шт</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
@@ -5713,28 +5863,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Анальный стимулятор с тремя шариками и</t>
+          <t>Стимулирующий презерватив с усиками</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-21790-1299</t>
+          <t>id-20434-1299</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -5748,30 +5898,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20434/20434_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Анальные шарики Moons  это настоящее наслаждение для взрослых. Изделие состоит из 3-х шариков разного диаметра. Размеры подобраны идеально, что бы ваше наслаждение от стимуляции просто зашкаливало. Шарики сделаны из гладкого медицинского силикона. Удобное кольцо позволит контролировать глубину проникновения так как вам будет удобно. Изделие может использоваться для подготовки к анальному сексу. Анальные шарики доставят массу удовольствия, добравшись до ваших эрогенных зон. Вы получите новые невероятные ощущения, вводя один шарик за другим. Воплотите свои самые сокровенные фантазии в реальность. Анальный стимулятор с тремя шариками и кольцом MOONS.  Анальный стимулятор с тремя шариками и кольцом MOONS. Модель: lefri-05506. Секс-игрушки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: синий. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками ЖГУЧИЙ МАЧО (1 шт).  Стимулирующий презерватив с усиками ЖГУЧИЙ МАЧО (1 шт). Модель: sitabella-2001. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -5788,29 +5942,15 @@
       </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
       <c r="AH45" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5823,7 +5963,7 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>стимулятор, мешочек для хранения</t>
+          <t>1 презерватив</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -5843,32 +5983,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Наручники эротик</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Вакуумный клиторальный стимулятор с</t>
+          <t>Черные широкие манжеты из натуральной</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-25449-1299</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+          <t>id-16242-1299</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>99999</v>
@@ -5878,30 +6026,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16242/16242_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Роскошный вибратор Phoenix таинственного сливового цвета  это потрясающе функциональный девайс! С ним каждый новый оргазм будет уникальным за счет большого разнообразия сочетаний 8-ми режимов глубокой вибрации и 10-ти уносящих в космос интенсивностей вакуумной стимуляции. Анатомический изгиб на конце вводимой части гарантирует плотное прилегание и феерические ощущения в области точки G, а регулируемая бесконтактная стимуляция клитора доведет Вас до пика двойного оргазма! Приятный на ощупь материал не вызывает аллергии и раздражения, а 1,5 часа работы без подзарядки гарантируют длительное наслаждение. Вакуумный клиторальный стимулятор с вагинальным стимулятором Phoenix (8+10 режимов).  Вакуумный клиторальный стимулятор с вагинальным стимулятором Phoenix (8+10 режимов). Модель: lefri-06110. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Женские стимуляторы &gt; Вакуум-волновые стимуляторы. Цвет: сливовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Изготавливаются из натуральной кожи с велюровой подкладой. При изготовлении использована фурнитура с никелевым покрытием. Между собой имею неразъёмное соединение. Не нарушают кровообращение, надёжно фиксируют запястья. Расстегнуть самостоятельно практически невозможно. Размер универсальный. Черные широкие манжеты из натуральной кожи.  Черные широкие манжеты из натуральной кожи. Модель: sitabella-3055-1. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -5918,29 +6070,15 @@
       </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>18</v>
-      </c>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5953,7 +6091,7 @@
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>стимулятор, фирменный мешочек для хранения, зарядное USB-устройство, инструкция</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
@@ -5973,38 +6111,38 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Фиксаторы эротик</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Пикантные трусики с доступом с широким</t>
+          <t>Кожаные оковы на ноги с цепью</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-26943-1299</t>
+          <t>id-12798-1299</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -6016,10 +6154,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12798/12798_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эту модель мы создали специально для тех, кто не любит кружева, но любит изысканность и игру, зачем себя ограничивать!  Лаконичный дизайн, скрывает всё лишнее, подчёркивая вашу индивидуальность, а высокоэластичная сетка делает посадку трусиков комфортной. Пикантные трусики с доступом с широким вырезом сзади XXLXXXL.  Пикантные трусики с доступом с широким вырезом сзади XXLXXXL. Модель: lefri-06688xxxlb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Оковы. Изготавливаются из натуральной кожи с велюровой подкладкой. При изготовлении использована фурнитура с никелевым покрытием. Между слоем основы и подкладкой проложена мягкая прокладка. Соединяются между собой цепочкой длиной 35 см с двумя карабинами на концах. Не нарушают кровообращение, надёжно фиксируются на щиколотках с помощью двух ремешков. Размер универсальный. Кожаные оковы на ноги с цепью.  Кожаные оковы на ноги с цепью. Модель: sitabella-3070-1. БДСМ. БДСМ товары и фетиш &gt; Кандалы, фиксаторы на ноги. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6029,17 +6171,17 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>91% полиамид, 9% эластан</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -6097,38 +6239,38 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Игривые трусики с доступом и короткой</t>
+          <t>Черная кожаная маска кошка</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-27010-1299</t>
+          <t>id-20042-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -6140,10 +6282,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20042/20042_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Романтичная модель с высокой талией скрывает все недостатки фигуры и придаёт образу игривости. Сочетание шифона, кружева и лент делает ваш образ лёгким и манящим, так и хотеться узнать - что же там, под оборкой. Шифоновая юбочка сделает ваши изгибы ещё более женственными. Этот модель станет отличным аксессуаром для сексуальной игры. А особая конструкция позволит заняться сексом не снимая трусиков. Игривые трусики с доступом и короткой юбочкой SM.  Игривые трусики с доступом и короткой юбочкой SM. Модель: lefri-06691smb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Юбки, брюки, шорты. Цвет: черный. Материал: 84% полиамид, 16% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Изготовлена из натуральной кожи с велюровой подкладой. Используется никелированная фурнитура. Черная кожаная маска кошка.  Черная кожаная маска кошка. Модель: sitabella-3087-1. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -6163,7 +6309,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>84% полиамид, 16% эластан</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -6201,7 +6347,7 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>трусики-юбочка</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
@@ -6221,38 +6367,38 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Чарующие трусики с доступом из кружева</t>
+          <t>Красная кожаная маска кошка</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-26962-1299</t>
+          <t>id-20043-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -6264,10 +6410,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20043/20043_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фантазийные трусики из кружева и лент, станут отличным акцентом и перчинкой вашей встречи! Благодаря прекрасной посадке и уникальному дизайну трусики подчеркнут все достоинства вашей фигуры оставив тайну, которую будут разгадывать весь вечер. Гипоаллергенное кружево принесёт новые ощущения в вашу встречу, а трусики станут базой вашего эротического гардероба. Чарующие трусики с доступом из кружева и стреп-лент LXL.  Чарующие трусики с доступом из кружева и стреп-лент LXL. Модель: lefri-06692lxlb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 76% полиамид, 24% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Изготовлена из натуральной кожи с велюровой подкладой. Используется никелированная фурнитура. Красная кожаная маска кошка.  Красная кожаная маска кошка. Модель: sitabella-3087-2. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: красный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -6287,7 +6437,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>76% полиамид, 24% эластан</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -6345,38 +6495,38 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Кляпы эротик</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LE FRIVOLE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Чарующие трусики с доступом из кружева</t>
+          <t>Кляп с красным ремнем из натуральной</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-26960-1299</t>
+          <t>id-19695-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>40-42</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -6388,10 +6538,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19695/19695_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Фантазийные трусики из кружева и лент, станут отличным акцентом и перчинкой вашей встречи! Благодаря прекрасной посадке и уникальному дизайну трусики подчеркнут все достоинства вашей фигуры оставив тайну, которую будут разгадывать весь вечер. Гипоаллергенное кружево принесёт новые ощущения в вашу встречу, а трусики станут базой вашего эротического гардероба. Чарующие трусики с доступом из кружева и стреп-лент XSS.  Чарующие трусики с доступом из кружева и стреп-лент XSS. Модель: lefri-06692xssb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 76% полиамид, 24% эластан. Батареек нет в комплекте. Бренд: LE FRIVOLE. </t>
+          <t xml:space="preserve">Ремешок изготовлен из натуральной кожи красного цвета. Никелированная пряжка. Шар изготовлен из ПВХ. Кляп с красным ремнем из натуральной кожи.  Кляп с красным ремнем из натуральной кожи. Модель: sitabella-3091. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черный с красным. Материал: ПВХ, натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -6401,17 +6555,17 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>76% полиамид, 24% эластан</t>
+          <t>ПВХ, натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -6469,28 +6623,28 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Кляпы эротик</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LEG AVENUE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Лакированные туфли на шнуровке с</t>
+          <t>Открытый кляп-кольцо из черной</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-6986-1299</t>
+          <t>id-12791-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -6512,30 +6666,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12791/12791_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Лакированные туфли на шнуровке с фигурным каблуком 38 (SALE -50%).  Лакированные туфли на шнуровке с фигурным каблуком 38 (SALE -50%). Модель: legavenue-5010-38. Белье. Страпоны и фаллопротезы. Эротическое белье для женщин &gt; Обувь. Цвет: бело-черный. Материал: искусственная лакированная кожа. Батареек нет в комплекте. Бренд: LEG AVENUE. </t>
+          <t xml:space="preserve">Ремешок изготовлен из натуральной кожи. Пряжка и кольцо (диаметром 45-50 мм) никелированные. Размер универсальный. Открытый кляп-кольцо из черной натуральной кожи.  Открытый кляп-кольцо из черной натуральной кожи. Модель: sitabella-3092-1. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>искусственная лакированная кожа</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -6593,38 +6751,38 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Кляпы эротик</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LEG AVENUE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Шикарные черные туфли со стразами</t>
+          <t>Красный кожаный кляп X-Desire</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-7003-1299</t>
+          <t>id-21442-1299</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -6636,30 +6794,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21442/21442_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Шикарные черные туфли со стразами Glamour 38 (SALE -65%).  Шикарные черные туфли со стразами Glamour 38 (SALE -65%). Модель: legavenue-5035-38b. Белье. Страпоны и фаллопротезы. Эротическое белье для женщин &gt; Обувь. Цвет: черный. Материал: искусственная кожа, атлас, стразы. Батареек нет в комплекте. Бренд: LEG AVENUE. </t>
+          <t xml:space="preserve">Кляп из натуральной кожи на ремешках регулируемого размера. При изготовлении использована фурнитура с никелевым покрытием. Красный кожаный кляп X-Desire.  Красный кожаный кляп X-Desire. Модель: sitabella-3093-2. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: красный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>искусственная кожа, атлас, стразы</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -6717,28 +6879,28 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Кляпы эротик</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LEG AVENUE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Шикарные голубые туфли со стразами</t>
+          <t>Кляп из плетеной натуральной кожи</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-7014-1299</t>
+          <t>id-17107-1299</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -6757,31 +6919,39 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Шикарные голубые туфли со стразами Glamour 39 (SALE -65%)</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17107/17107_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17107/17107_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Шикарные голубые туфли со стразами Glamour 39 (SALE -65%).  Шикарные голубые туфли со стразами Glamour 39 (SALE -65%). Модель: legavenue-5035-39bl. Белье. Страпоны и фаллопротезы. Эротическое белье для женщин &gt; Обувь. Цвет: голубой. искусственная кожа, атлас, стразыБренд: LEG AVENUE. </t>
+          <t xml:space="preserve">Кляп обтянут лентами из натуральной кожи. Ремешок также выполнен из натуральной кожи. Кляп из плетеной натуральной кожи.  Кляп из плетеной натуральной кожи. Модель: sitabella-3094-1. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>натуральная кожа, металл</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
@@ -6817,7 +6987,7 @@
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> высота платформы 3,5 см, высота каблука 14,5 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
@@ -6837,38 +7007,38 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LEG AVENUE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Сексуальный комплект с открытым лифом L</t>
+          <t>Ошейник с шипами на поводке</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-9874-1299</t>
+          <t>id-4571-1299</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -6880,30 +7050,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4571/4571_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4571/4571_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Сексуальный комплект с открытым лифом L.  Сексуальный комплект с открытым лифом L. Модель: legavenue-8085lb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 80% нейлон, 20% спандекс. Батареек нет в комплекте. Бренд: LEG AVENUE. </t>
+          <t xml:space="preserve">Изготовлен из натуральной кожи с велюровой подкладкой. При изготовлении использована никелированная фурнитура. Ширина ошейника 20 мм, длина шипов 25 мм. Размер универсальный, регулируется при помощи кнопок. Один из основных атрибутов BDSM. Ошейник с шипами на поводке.  Ошейник с шипами на поводке. Модель: sitabella-3103-1. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>80% нейлон, 20% спандекс</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -6941,7 +7115,7 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>лиф, стринги</t>
+          <t>ошейник, цепь-поводок</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -6961,28 +7135,28 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LEG AVENUE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Кружевной розовый комплект</t>
+          <t>Черный кожаный ошейник с цепью-поводком</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-12151-1299</t>
+          <t>id-20044-1299</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -7004,15 +7178,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20044/20044_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20044/20044_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Кружевной розовый комплект.  Кружевной розовый комплект. Модель: legavenue-81219slp. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: розовый. Материал: 100% нейлон. Батареек нет в комплекте. Бренд: LEG AVENUE. </t>
+          <t xml:space="preserve">Черный ошейник из натуральной кожи с металлическим украшением с отстегивающимся поводком в виде цепи. Черный кожаный ошейник с цепью-поводком.  Черный кожаный ошейник с цепью-поводком. Модель: sitabella-3117-1. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный, металл. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -7027,7 +7205,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>100% нейлон</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -7065,7 +7243,7 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>лиф, трусики</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -7085,13 +7263,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Головные уборы эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LEG AVENUE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -7101,12 +7279,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Мини-шляпка с бантиком</t>
+          <t>Кожаное боди харнес с креплением для</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-8990-1299</t>
+          <t>id-12786-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -7128,28 +7306,36 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12786/12786_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Мини-шляпка с бантиком.  Мини-шляпка с бантиком. Модель: legavenue-a1680sl. Белье. Эротическое белье для женщин &gt; Фуражки, головные уборы. Цвет: красный с черным. Батареек нет в комплекте. Бренд: LEG AVENUE. </t>
+          <t xml:space="preserve">Изготовлена из натуральной кожи. При изготовлении использована никелированная фурнитура. Ширина ремешков 20 мм. Кожаное боди харнес с креплением для фаллоса.  Кожаное боди харнес с креплением для фаллоса. Модель: sitabella-3130-1. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: черный. Материал: натуральная кожа, искусственная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>натуральная кожа, искусственная кожа, металл</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
         <is>
@@ -7185,7 +7371,7 @@
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>боди, штырек для крепления фаллоса-насадки</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
@@ -7205,38 +7391,38 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LEG AVENUE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Телесное боди из микрофибры Leg Avenue</t>
+          <t>Универсальные страпон-трусики для</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-19964-1299</t>
+          <t>id-12780-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -7248,15 +7434,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12780/12780_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12780/12780_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12780/12780_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Телесное боди из микрофибры Leg Avenue Q-size.  Телесное боди из микрофибры Leg Avenue Q-size. Модель: legavenue-pc8001q. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Белье большого размера. Цвет: телесный. Материал: нейлон. Батареек нет в комплекте. Бренд: LEG AVENUE. </t>
+          <t xml:space="preserve">Страпон-трусики изготовлены из натуральной кожи. При производстве используется никелированная фурнитура. Размер регулируется ремешками, которые крепятся на бёдрах (от 42 до 52 размера). В комплект входит съёмный пластиковый плаг для насадок, съёмный фаллоимитатор, а также съёмная анальная пробка. Подходит для использования, как мужчиной, так и женщиной. Универсальные страпон-трусики для тройного проникновения Vac-U-Lock фантазия.  Универсальные страпон-трусики для тройного проникновения Vac-U-Lock фантазия. Модель: sitabella-3152-1. Секс-игрушки. Страпоны и фаллопротезы &gt; Трусики и насадки. Страпоны и фаллопротезы &gt; Для двойного и тройного проникновения. Цвет: черный с красным. Материал: натуральный латекс, натуральная кожа. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -7271,7 +7461,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>нейлон</t>
+          <t>натуральный латекс, натуральная кожа</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -7309,7 +7499,7 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>страпон-трусики, штырек, вагинальный фаллос, анальная пробка</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -7329,38 +7519,38 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Боди из мелкой сеточки с оригинальныи</t>
+          <t>Красный страпон-трусики для тройного</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-22281-1299</t>
+          <t>id-27362-1299</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -7372,15 +7562,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27362/27362_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди - особая эротическая одежда, помогающая создать романтичный настрой и заинтересовать партнера во время интимных игр. Боди из мелкой сеточки с длинными рукавами облегает тело, подчеркивая сексуальные изгибы и выгодно демонстрирует прелести фигуры, благодаря оригинальным вставкам из переплетений по всей длине изделия. Эротическое белье больше показывает, чем скрывает, и все же оно оставляет простор для мужской фантазии и любопытства. Откровенное боди с открытой зоной декольте даст вам возможность продемонстрировать свои прелести в наиболее волнующем ракурсе. Боди из мелкой сеточки с оригинальныи вставками.  Боди из мелкой сеточки с оригинальныи вставками. Модель: leshali-1007slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Изготовлены из натуральной кожи. При производстве используется никелированная фурнитура. Размер регулируется ремешками, которые крепятся на бёдрах (от 42 до 50 размера). В комплект входит съёмный пластиковый плаг для насадок (длина 68 мм), съёмный фаллоимитатор (длина 80 мм, диаметр 35 мм), а так  же съёмная анальная пробка (длина 85 мм, диаметр 22 мм). Подходит для использования, как мужчиной, так и женщиной. Красный страпон-трусики для тройного проникновения.  Красный страпон-трусики для тройного проникновения. Модель: sitabella-3152-2. Секс-игрушки. Страпоны и фаллопротезы &gt; Трусики и насадки. Страпоны и фаллопротезы &gt; Для двойного и тройного проникновения. Цвет: красный с черным. Материал: натуральная кожа, металл, латекс, силикон, пластик. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -7395,7 +7589,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>натуральная кожа, металл, латекс, силикон, пластик</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -7433,7 +7627,7 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>страпон-трусики, вагинальный плаг, анальная пробка, штырек для насадки</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
@@ -7453,38 +7647,38 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Эротичное платье с длинным рукавом</t>
+          <t>Кожаные мужские стринги с отверстием</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-22277-1299</t>
+          <t>id-12787-1299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>42-48</t>
+          <t>46-56</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -7496,15 +7690,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12787/12787_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Черное секси-платьице c глубоким овальным вырезом и длинными рукавами выполнено черной сетчатой ткани в мелкий горошек и цветочным мотивом. Открывает взгляду Ваши соблазнительные ножки и делает Вашу фигуру более утонченной, привлекает внимание к аппетитным ягодицам, отлично сидит и эротично подчеркивает форму тела. Трусики не входят в комплект. Эротичное платье с длинным рукавом.  Эротичное платье с длинным рукавом. Модель: leshali-1039slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Мужские трусики изготовлены из натуральной кожи. При производстве использована никелированная фурнитура. Размер регулируется ремешками. В центре отверстие для фаллоса. Кожаные мужские стринги с отверстием для фаллоса.  Кожаные мужские стринги с отверстием для фаллоса. Модель: sitabella-3154-1. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для мужчин. Эротическое белье для мужчин &gt; Трусы, стринги, шорты. Цвет: черный. Материал: искусственная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -7519,7 +7717,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>искусственная кожа, металл</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -7557,7 +7755,7 @@
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>платье</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
@@ -7577,13 +7775,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -7593,12 +7791,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Фиолетовый комбинезон с имитацией</t>
+          <t>Кожаный ошейник с красным бантом</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-23711-1299</t>
+          <t>id-22501-1299</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -7620,30 +7818,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22501/22501_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">В искусстве соблазнения много особенностей и одна из них - уверенность в собственной сексуальности. Каждая женщина временами хочет чувствовать себя не просто привлекательной, а неотразимой, яркой и развратной. Для этого используется эротическое белье, предназначенное для любовных игр.Необычный и сексуальный кэтсьюит из фиолетовой сеточки понравится любой девушке. Материал украшен оригинальным орнаментом. Низ сделан в виде имитации чулок с пажами. Наряд хорошо сочетается с высокими каблуками и другими аксессуарами. Прозрачная ткань на груди смотрится эротично и пикантно. Атласная шнуровка является дополнительным украшением к образу. Освежите отношения с помощью сексуального белья и смелого перевоплощения. Обыграйте образ и ваш партнер обязательно захочет повторения страстного вечера! Трусики в комплект не входят. Фиолетовый комбинезон с имитацией шнуровки и чулок SL.  Фиолетовый комбинезон с имитацией шнуровки и чулок SL. Модель: leshali-1048sl. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: фиолетовый. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Ошейник BDSM  это атрибут покорности и полного доверия секс-партнёру. А предложив ошейник и получив согласие его надеть, приобретаете не только власть, но и огромную ответственность за другого. Какой бы ни был ошейник простой или вычурный, главное, это смысл, с которым Вы его преподносите партнёру.Простой и лаконичный ошейник чокер от Ситабелла, изготовлен из натуральной высококачественной кожи. Плотно прилегая к шее, узкой черной полосой, он элегантно украсит Вашу шею, сделав её ещё более сексуальной и притягательной. Украшение данного изделия является красный объемный бантик из лаковой красной кожи. Зафиксировать чокер на шее и отрегулировать по размеру можно при помощи кнопок, которые имеют никелевое покрытие. Кожаный ошейник с красным бантом Sitabella.  Кожаный ошейник с красным бантом Sitabella. Модель: sitabella-3164-1. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный с красным. Материал: натуральная кожа. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>натуральная кожа</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -7681,7 +7883,7 @@
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
@@ -7701,28 +7903,28 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Фиолетовый комбинезон с двойными</t>
+          <t>Кожаная маска с серебряной вставкой</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-23710-1299</t>
+          <t>id-22109-1299</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -7744,15 +7946,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22109/22109_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Если не знаете как освежить отношения не прибегая к серьезным экспериментам или как удивить и произвести незабываемое впечатление попробуйте эротическое белье. Особое место здесь занимает кетсьюит. Это комбинезон-чулок с эффектом второй кожи. Он не скрывает красоту женского тела, а лишь добавляет таинственности образу. Он смотрится возбуждающе, придает уверенности и позволяет раскрепоститься. Мужчины оценят откровенность и соблазнительность наряда. Кетсьюит выполнен из тонкой фиолетовой полупрозрачной облагающей ткани, облегает фигуру и подчеркивает каждый изгиб. Ажурная ткань оттеняет кожу и добавляет соблазнительности. Низ выполнен в виде чулок на пажах, которые делают ноги особенно красивыми и стройными. Бретели открывают руки, плечи и шею. Такой образ идеален для романтического вечера и любовных утех! Трусики в комплект не входят. Фиолетовый комбинезон с двойными бретелями и с имитацией чулок SL.  Фиолетовый комбинезон с двойными бретелями и с имитацией чулок SL. Модель: leshali-1053sl. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: фиолетовый. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Чтобы достичь незабываемой эротической кульминации, необходимо уделить немало внимания предварительным ласкам, которые усилят сексуальное возбуждение и позволят испытать неистовое наслаждение. Использование дополнительных девайсов в предварительных сексуальных играх, придаёт им особый шарм. Кожаная маска с серебряной вставкой.  Кожаная маска с серебряной вставкой. Модель: sitabella-3182-16. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный с серебряным. Материал: натуральная кожа, эко кожа. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -7767,7 +7973,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>натуральная кожа, эко кожа</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -7805,7 +8011,7 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -7825,13 +8031,13 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -7841,12 +8047,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Черный сетчатый комбинезон с бахромой</t>
+          <t>Кожаная черная маска Зайка с узором</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-21585-1299</t>
+          <t>id-22353-1299</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -7868,30 +8074,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22353/22353_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">В искусстве соблазнения много особенностей, и одна из них - уверенность в собственной сексуальности. Каждая женщина временами хочет чувствовать себя не просто привлекательной, а неотразимой, яркой и развратной. Для этого используется эротическое белье, предназначенное для любовных игр. В этот список входит и кэтсьюит, объединяющий чулки и боди. Это комбинезон-чулок, плотно облегающий тело. Материал оттеняет кожу, подчеркивает формы.Необычный и сексуальный кэтсьюит из черной ткани понравится любой девушке. Сделанный в виде мелкой сеточки соблазнительно облегает тело,грудь смотрится эротично и пикантно. Мини юбка из бахромы, украшенная кружевным пояском придает образу игривость и легкость. Низ сделан в виде имитации чулок с пажами. Наряд хорошо сочетается с высокими каблуками и другими аксессуарами. Линия декольте украшена ажурным кружевом и  привлекает внимание к области декольте. Освежите отношения с помощью сексуального белья и смелого перевоплощения. Обыграйте образ, и ваш партнер обязательно захочет повторения страстного вечера!Трусики не входят в комплект. Черный сетчатый комбинезон с бахромой.  Черный сетчатый комбинезон с бахромой. Модель: leshali-1054slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Появилось желание разнообразить привычные сексуальные отношения и не знаете с чего начать? Потрясающая эффектная маска Кролик от Ситабелла позволит перевоплотиться в нежное игривое существо, которое впишется в множество сексуальных ролевых сценариев. Сексуальная и изящная маска изготовлена из высококачественной натуральной ременной кожи, это придаёт изделию каркасный роскошный вид. Маска легко надевается и имеет универсальный размер за счёт ремешка-резинки, который надёжно и комфортно фиксирует аксессуар на голове. Большой кокетливый разрез под глаза сделает Ваш взгляд томным и страстным, излучающим безграничную сексуальную энергию. Металлические декоративные элементы в сочетании с натуральной чёрной кожей придаёт изделию фетишности. Одевая маску Кролик Вы меняете не только свой внешний облик, делая его сексуальней для партнёра, но и чувствуете собственные эмоциональные изменения, настраиваясь на раскрепощённое эротичное настроение, ведь это уже не совсем Вы и позволить себе можно гораздо больше!.Кожаная черная маска Зайка с узором.  Кожаная черная маска Зайка с узором. Модель: sitabella-3186-1g. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -7929,7 +8139,7 @@
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>маска зайки, деревянная вешалка для маcки</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
@@ -7949,13 +8159,13 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -7965,12 +8175,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Фиолетовый комбинезон с бантиками и с</t>
+          <t>Кожаная маска кошки с золотистым</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-23709-1299</t>
+          <t>id-22114-1299</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -7992,30 +8202,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22114/22114_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">В искусстве соблазнения много особенностей и одна из них - уверенность в собственной сексуальности. Каждая женщина временами хочет чувствовать себя не просто привлекательной, а неотразимой, яркой и развратной. Для этого используется эротическое белье, предназначенное для любовных игр. В этот список входит и кетсьюит, объединяющий чулки и боди. Это комбинезон-чулок, плотно облегающий тело. Материал оттеняет кожу, подчеркивает формы.Сексуальный кетсьюит необычного фиолетового цвета понравится любой девушке. Материал украшен ажурным цветочным рисунком. Низ сделан в виде имитации чулок с пажами. Наряд хорошо сочетается с высокими каблуками и другими аксессуарами. Прозрачная ткань на груди смотрится эротично и пикантно. Необычные тонкие бретели с бантиками привлекают внимание к области декольте, открывают руки и плечи. Освежите отношения с помощью сексуального белья и смелого перевоплощения. Обыграйте образ и ваш партнер обязательно захочет повторения страстного вечера!Трусики не входят в комплект. Фиолетовый комбинезон с бантиками и с имитацией чулок SL.  Фиолетовый комбинезон с бантиками и с имитацией чулок SL. Модель: leshali-1093sl. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: фиолетовый. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Маска кошки (Harness Cat Mask) из коричневой и бежевой натуральной кожи с миндалевидными прорезями для глаз, украшенная металлическими заклёпками и цепочкой золотистого цвета, а также изящными рисунками на щеках и ушках. Изделие предназначено для эротических ролевых игр и практик БДСМ.Для максимального комфорта маска имеет бархатистую велюровую подкладку, обеспечивающую приятные тактильные ощущения при соприкосновении с кожей лица. Цвет велюра определяется производителем и может отличаться от цвета на фото.Фиксирующая резинка с пряжкой позволяет легко регулировать размер изделия.Применение:Маска используется с целью скрыть лицо и.или создать определенный образ для обострения чувств и яркости восприятия. Кожаная маска кошки с золотистым украшением Harness Cat Mask.  Кожаная маска кошки с золотистым украшением Harness Cat Mask. Модель: sitabella-3189-8g. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: коричневый. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -8053,7 +8267,7 @@
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
@@ -8073,40 +8287,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Контактный ажурный комбинезон на</t>
+          <t>Стимулирующий презерватив с усиками</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-21580-1299</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-4447-1299</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>99999</v>
@@ -8116,15 +8322,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4447/4447_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мужчина оценит  наряд  за его откровенность и соблазнительность. Девушка в таком кэтсьюите чувствует себя королевой, развратной кошечкой или роковой красавицей.   Кэтсьюит данной модели подойдет дамам с любой фигурой. Черный полупрозрачный материал приоткрывает завесу тайны, но оставляет закрытым все самое интересное. Верхняя часть кэтсьюита выполнена из ажурной сеточки с цветочным орнаментом.достаточно глубокое декольте привлекает взгляд,лямочки из тонких веревочек подчеркивают красоту женских плеч.Низ кэтсьюита выполнен из сеточки, как будто вы в чулочках на ажурной резинке. Контактный ажурный комбинезон на оригинальных бретелях.  Контактный ажурный комбинезон на оригинальных бретелях. Модель: leshali-1105slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 88% нейлон, 12% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Ситабелла - один высококачественный презерватив с накопителем из гипоаллергенного латекса со стимулирующими усиками в обильной смазке на силиконовой основе. Стимулирующий презерватив с усиками УРАГАН (1 шт).  Стимулирующий презерватив с усиками УРАГАН (1 шт). Модель: sitabella-320. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -8139,7 +8349,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% спандекс</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -8177,7 +8387,7 @@
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -8197,40 +8407,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Комбинезон с имитацией чулок и шнуровки</t>
+          <t>Удлиняющая пенис насадка Extender</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-21586-1299</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-13729-1299</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
         <v>99999</v>
@@ -8240,15 +8442,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13729/13729_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13729/13729_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кэтсьюит  c длинным рукавом выполнен из тонкой черной полупрозрачной ткани. Она облегает фигуру и подчеркивает каждый изгиб. На груди эротичный вырез, открывающий зону декольте. Ажурная ткань оттеняет кожу и добавляет соблазнительности. Низ выполнен в виде чулок на пажах, которые делают ноги особенно красивыми и стройными.и . Спина остается открытой до середины, а переплетения из веревочек придают пикантности. Такой образ идеален для романтического вечера и любовных утех!Трусики не входят в комплект. Комбинезон с имитацией чулок и шнуровки на спинке.  Комбинезон с имитацией чулок и шнуровки на спинке. Модель: leshali-1215-2slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Насадка-удлинитель предназначена для восполнения достижения гармонии партнерами в интимных отношениях и увеличения яркости сексуальных впечатлений. Удлиняющая пенис насадка Extender.  Удлиняющая пенис насадка Extender. Модель: sitabella-3215. Секс-игрушки. Насадки и кольца &gt; Удлиняющие и расширяющие насадки. Насадки и кольца &gt; Без вибрации. Цвет: телесный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -8263,7 +8469,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -8287,8 +8493,12 @@
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
-      <c r="AG65" t="inlineStr"/>
+      <c r="AF65" t="n">
+        <v>3.685</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>3.35</v>
+      </c>
       <c r="AH65" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8301,7 +8511,7 @@
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
@@ -8321,40 +8531,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Вагинальные тренажеры</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Красный контактный комбинезон с вырезом</t>
+          <t>Удлиняющая и стимулирующая насадка на</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-21581-1299</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-13728-1299</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>99999</v>
@@ -8364,15 +8566,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13728/13728_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13728/13728_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Красный романтичный кетсьюит - отличное дополнение образа роковой соблазнительницы. Если вы хотите удивить партнера и внести разнообразие в интимную жизнь, используйте этот эротический наряд. Комбинезон-чулок полностью облегает тело и подчеркивает его сексуальность, он демонстрирует многое, но скрывает самое главное. Такой наряд будоражит фантазию, эффектно подчеркивает привлекательность и при этом не мешает партнерам наслаждаться любовными утехами.Эффектный кетсьюит полностью закрывает ноги, подчеркивая их стройность и зрительно увеличивая длину. При этом зона промежности остается открытой, поэтому костюм не придется снимать при завершении прелюдии. Его можно надевать без нижнего белья или комбинировать с бюстгальтером, он отлично подойдет для смелых экспериментов в постели. Эластичный материал легко растягивается, зона декольте дополнена глубоким вырезом с атласной лентой, что делает образ еще более соблазнительным!.Красный контактный комбинезон с вырезом на животике.  Красный контактный комбинезон с вырезом на животике. Модель: leshali-1228slr. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: красный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Насадка-удлинитель со стимулирующими усиками предназначена для восполнения достижения гармонии партнерами в интимных отношениях и увеличения яркости сексуальных впечатлений. Удлиняющая и стимулирующая насадка на пенис Extender.  Удлиняющая и стимулирующая насадка на пенис Extender. Модель: sitabella-3217. Секс-игрушки. Насадки и кольца &gt; Удлиняющие и расширяющие насадки. Насадки и кольца &gt; Без вибрации. Насадки и кольца &gt; Стимулирующие влагалище. Цвет: телесный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -8387,7 +8593,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -8411,8 +8617,12 @@
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr"/>
       <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="inlineStr"/>
-      <c r="AG66" t="inlineStr"/>
+      <c r="AF66" t="n">
+        <v>3.685</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>3.35</v>
+      </c>
       <c r="AH66" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8425,7 +8635,7 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
@@ -8445,13 +8655,13 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Комплекты БДСМ</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -8461,12 +8671,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Ярко-розовый контактный комбинезон SL</t>
+          <t>Чокер на шею с надписью Kiss me</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-23712-1299</t>
+          <t>id-27871-1299</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -8488,30 +8698,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27871/27871_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кэтсьюит c доступом подойдет дамам с любой фигурой. Полупрозрачный материал приоткрывает завесу тайны, но оставляет закрытым все самое интересное. Как вернуть отношениям былую страсть и новизну, испытать яркие эмоции или поразить нового любовника смелым образом? С этой целью существует кэтсьюит из тончайшей полупрозрачной ткани. С его помощью женщина усиливает сексуальность, подчеркивает формы, оттеняет цвет кожи. Мужчина оценит белье за его откровенность и соблазнительность. Девушка в таком наряде чувствует себя королевой, развратной кошечкой или роковой красавицей. Ярко-розовый цвет добавляет пикантности образу.Под него можно надевать или не надевать трусики. Наряд подойдет для прелюдии или сексуальных игр. Осмельтесь на эксперимент, попробуйте себя в новых образах, чтобы партнер влюблялся в вас снова и снова!.Ярко-розовый контактный комбинезон SL.  Ярко-розовый контактный комбинезон SL. Модель: leshali-1336slp. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: неоновый розовый. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Чокер изготовлен из натуральной кожи и дополнен вставкой под металл с надписью  Kiss me. Регулируется при помощи кнопок. Общая длина 41 см.Браслет приобретается отдельно. Чокер на шею с надписью Kiss me.  Чокер на шею с надписью Kiss me. Модель: sitabella-3353km. БДСМ. БДСМ товары и фетиш &gt; Аксессуары. Аксессуары, украшения для тела &gt; Аксессуары. Цвет: черный, серебристый. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -8549,7 +8763,7 @@
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>чокер</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
@@ -8569,38 +8783,38 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Шлепалки эротик</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Бордовое платье со шнуровкой на спинке</t>
+          <t>Стек с мехом Sitabella</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-22280-1299</t>
+          <t>id-27911-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -8612,30 +8826,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27911/27911_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27911/27911_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чарующая магия эротизма чувственно окутает Ваше соблазнительное тело в этом великолепном мини-платьице. Оно выполнено из невероятно мягкой тонкой полупрозрачной сеточки винного цвета с орнаментом. Атласная лента по спинке придает платью оригинальности и одновременно можно ее использовать для коррекции посадки платья по фигуре. Продуманный дизайн интимного наряда позволяет максимально подчеркнуть достоинства фигуры и сделать акцент на самых соблазнительных участках. Откровенное платье подарит уверенность в собственной привлекательности. Приобретая его Вы делаете ставку на страстные отношения и желанное разнообразие в интимной жизни. Будьте уверены, этот чувственный образ ни за что не оставит мужчину в сомнениях, а напротив  подтолкнёт к решительным действиям.Трусики не входят в комплект. Бордовое платье со шнуровкой на спинке.  Бордовое платье со шнуровкой на спинке. Модель: leshali-1534slr. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: бордовый с черным. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Стек для нежных прикосновений. Мех является не только фетиш-атрибутом, но и может служить дополнением к образу Госпожи в ролевых играх. Общая длина 55-57 см. Натуральный мех 15-18 см. Металлическая рукоять 14 см, ремешок из натуральной кожи. Стек с мехом Sitabella.  Стек с мехом Sitabella. Модель: sitabella-3363-1. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный, серый/песочный. Материал: металл, натуральный мех. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>металл, натуральный мех</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -8673,7 +8891,7 @@
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>мини-платье</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
@@ -8693,13 +8911,13 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -8709,12 +8927,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ажурное мини-платье с глубоким декольте</t>
+          <t>Кожаный чокер с двумя кольцами</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-22279-1299</t>
+          <t>id-26818-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -8736,30 +8954,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26818/26818_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальное мини-платьице из кружевной сеточки идеально подойдет любой девушке. Невероятное сочетание женственности, эротичности и кокетства делает образ просто сногсшибательным. Глубокая зона декольте украшена тонкими лентами, спина остается полностью открытой. Тонкие завязки на шее и спине для удобства. Приятный на ощупь материал подогревает желания каждый раз, когда руки партнера касаются тела сексапильной красотки. Продуманный дизайн интимного наряда позволяет максимально подчеркнуть достоинства фигуры и сделать акцент на самых соблазнительных участках. Откровенное платье подарит уверенность в собственной привлекательности. Приобретая такой комплект, делаете ставку на страстные отношения и желанное разнообразие в интимной жизни.Трусики не входят в комплект. Ажурное мини-платье с глубоким декольте и открытой спинкой.  Ажурное мини-платье с глубоким декольте и открытой спинкой. Модель: leshali-3732slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Чокер изготовлен из натуральной кожи. Регулируется при помощи кнопок. Кожаный чокер с двумя кольцами.  Кожаный чокер с двумя кольцами. Модель: sitabella-3395-1. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный с серебристым. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -8797,7 +9019,7 @@
       <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>мини-платье</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
@@ -8817,28 +9039,28 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Боди с геометрическим орнаментом и</t>
+          <t>Маска Wolf с шипами</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-22282-1299</t>
+          <t>id-28086-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -8860,30 +9082,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/28086/28086_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди - особая эротическая одежда, помогающая создать романтичный настрой и заинтересовать партнера во время интимных игр. Боди с длинным рукавом из мелкой сеточки с геометрическим орнаментом плотно облегает тело, подчеркивая сексуальные изгибы, при этом он не мешает движениям и выгодно демонстрирует прелести фигуры. Область спины при этом остается максимально открытой. Боди больше показывает, чем скрывает, и все же оно оставляет простор для мужской фантазии и любопытства. Боди с геометрическим орнаментом и открытой спинкой.  Боди с геометрическим орнаментом и открытой спинкой. Модель: leshali-6026slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Брутальная объемная маска WOLF - это незаменимый аксессуар для ценителей властных БДСМ игр, тематических вечеринок и фотосессий. Изготовлена маска из натуральной толстой кожи черного цвета с применением никелированной фурнитуры. Размер маски универсальный, благодаря резинке и пряжке-регулятору. Маска Wolf с шипами.  Маска Wolf с шипами. Модель: sitabella-3416-1. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -8921,7 +9147,7 @@
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
@@ -8941,38 +9167,38 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Боди с цветочным орнаментом и отделкой</t>
+          <t>Кожаная маска волка WOLF</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-22278-1299</t>
+          <t>id-26810-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>42-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -8984,15 +9210,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26810/26810_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26810/26810_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">У каждой женщины, считающей себя привлекательной, в гардеробе должно быть хотя бы одно сексуальное боди. Даже самая большая скромница благодаря эффектной эротической одежде способна покорить самого капризного мужчину. Нежное боди с цветочным орнаментом придаст телу сексуальности, подчеркнет достоинства, поможет вашему телу быть еще более желанным и привлекательным. Эротическое боди способно пробудить в мужчине невероятные эмоции! Алые атласные ленточки-бретельки и отделка по линии груди и бедер придают особенную изысканность . Боди с цветочным орнаментом и отделкой из атласной ленты.  Боди с цветочным орнаментом и отделкой из атласной ленты. Модель: leshali-6098slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный с красным. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Брутальная объемная маска WOLF - это незаменимый аксессуар для ценителей властных БДСМ игр, тематических вечеринок и фотосессий. Изготовлена маска из натуральной толстой кожи серого цвета с применением никелированной фурнитуры. Размер маски универсальный, благодаря резинке и пряжке-регулятору. Кожаная маска волка WOLF.  Кожаная маска волка WOLF. Модель: sitabella-3416-6. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: серый. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -9007,7 +9237,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -9045,7 +9275,7 @@
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
@@ -9065,40 +9295,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Эластичное боди с длинным рукавом</t>
+          <t>Сувенир-подвеска Маска Кошки</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-22414-1299</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-23705-1299</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>99999</v>
@@ -9108,15 +9330,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23705/23705_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Невероятно нежное, женственное боди с длинными рукавами и полуоткрытой спинкой специально создано, чтобы подчеркнуть все достоинства женской фигуры. Очень красивая модель дополнит ваш сексуальный образ, а также подойдет для каждодневного ношения. Выполнено из мягкой эластичной сеточки. Выгодно подчеркивает зону груди и живота благодаря крупному переплетению в этой области. Без доступа. Эластичное боди с длинным рукавом LeShali (без доступа).  Эластичное боди с длинным рукавом LeShali (без доступа). Модель: leshali-6119slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Оригинальный и забавный сувенир-подвеска от Sitabella  это миниатюрное изделие в форме маски Кошечки. Подвеска изготовлена из натуральной кожи и украшена клепками. Необычная маска BDSM может служить автомобильной подвеской, украшением для сумки, а так же приятным презентом для Ваших друзей и знакомых. Сувенир-подвеска Маска Кошки.  Сувенир-подвеска Маска Кошки. Модель: sitabella-4069. Фанты. Эротические сувениры &gt; Сувениры. Цвет: черный с золотистым. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -9131,7 +9357,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -9146,13 +9372,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
+      <c r="W72" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X72" t="n">
+        <v>7.15</v>
+      </c>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="inlineStr"/>
+      <c r="AB72" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>8.029999999999999</v>
+      </c>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr"/>
@@ -9169,7 +9403,7 @@
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
@@ -9189,38 +9423,38 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Шлепалки эротик</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Фантазийный комбинезон с ажурными</t>
+          <t>Плеть ГЛАМУР из натуральной кожи со</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-21584-1299</t>
+          <t>id-23701-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -9232,30 +9466,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23701/23701_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Черный ажурный кэтсьюит из тончайшего полупрозрачного материала станет отличным приобретением. Эластичная ткань делает наряд универсальным, он прекрасно смотрится на дамах любого размера. Низ выполнен в виде чулок на пажах. Спина открытая, топ украшен необычным узором. Тонкие бретели и вырезы стройнят и вытягивают силуэт. Манжеты на ленте имитируют наручники, добавляя пикантности. Удивите своего парня, мужа или любовника ярким сексуальным образом. Такой наряд хорошо сочетается с высокими каблуками и другими аксессуарами!.Фантазийный комбинезон с ажурными наручниками.  Фантазийный комбинезон с ажурными наручниками. Модель: leshali-6308slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный с красным. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Плеть Гламур полностью изготовлена из натуральной велюровой кожи. Рукоять украшена стразами. Для удобного использования на торце ручки имеется ремешок. Плеть ГЛАМУР из натуральной кожи со стразами.  Плеть ГЛАМУР из натуральной кожи со стразами. Модель: sitabella-4215-1в. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: натуральная кожа, натуральная замша. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>натуральная кожа, натуральная замша</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -9293,7 +9531,7 @@
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>комбинезон, ажурные фиксаторы на руки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
@@ -9313,28 +9551,28 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Шлепалки эротик</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Боди-комбинезон с бантиком на груди и</t>
+          <t>Розовый стек Sitabella</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-22895-1299</t>
+          <t>id-13121-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -9344,7 +9582,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -9356,30 +9594,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13121/13121_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чтобы произвести впечатление на любимого мужчину и заставить восхищаться вашей красотой и женственностью, нарядитесь в этот изысканный кэтсьюит LeShali Qween Size перед интимной встречей.Эротический наряд заставит партнера буквально поедать вас глазами и трепетать от предвкушения. Надев этот кэтсьюит, продемонстрируете мужчине свою соблазнительную фигуру и вызовете у него мощнейшую эрекцию.Кэтсьюит с цветочным принтом имеет пикантный бантик, который придает образу нотку игривости и романтизма. Верхняя часть кэтсьюита соединёна эластичными лентами с чулками спереди и сзади.Комбинезон одевается легко и быстро, удобная лямочка через шею и отсутствие рукавов, значительно облегчают дело, и позволяют не тратить время на одевание.раздевание, которое можно посвятить общению с любимым человеком.Используя такое эротическое белье, продлите прелюдию и еще сильнее возбудите партнера, также применение кэтсьюита во время ролевой игры позволит избавиться от чрезмерной скованности и стеснительности.Вы почувствуете себя смелой и решительной женщиной, которая не боится экспериментировать в постели с любимым человеком.Трусики в данный комплект не входят. Боди-комбинезон с бантиком на груди и открытой спиной Queen Size.  Боди-комбинезон с бантиком на груди и открытой спиной Queen Size. Модель: leshali-66013qb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Стек cостоит из деревянной рукояти и хлыста из гибкой полимерной основы, оплетённых искусственной кожей. На кончике хлыста имеется окончание в виде шлепка. Розовый стек Sitabella.  Розовый стек Sitabella. Модель: sitabella-5019-4. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: розовый. Материал: искусственная кожа. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>искусственная кожа</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -9437,38 +9679,38 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Черный комбинезон с имитацией чулок Le</t>
+          <t>Золотистая утяжка на пенис</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-22892-1299</t>
+          <t>id-12788-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -9480,15 +9722,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12788/12788_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Если вы когда-то мечтали о том, чтобы мужчина навсегда остался во власти вашего очарования и сексуальности, то комбинезон LeShali Qween Size, это именно то, что поможет реализовать все ваши мечты и фантазии! В нём вы несомненно поймёте на сколько вы прекрасны и соблазнительны, а также, сможете сполна раскрыть свою природную женственность и сексуальность.Комбинезон LeShali Qween Size состоит как из двух частей  боди и чулков на подвязках, которые выполнены в одном стиле и смотрятся весьма эффектно, ведь мелкая сеточка, создающая эффект таинственности и широкие вставки из кружев, делают тело совершенным и сексапильным, одновременно придавая ему стройности и идеальных пропорций.Но самым захватывающим как для партнёра, так и для вас, будет просвечивающийся бюст на элегантных бретельках, игриво демонстрирующий грудь, и открытая промежность, которая позволяет блистать в наряде, даже в то время, когда вы предаетесь плотским утехам.Эластичная ткань делает наряд универсальным, он прекрасно смотрится на дамах любого размера.Трусики в данный комплект не входят. Черный комбинезон с имитацией чулок Le Shali Queen Size.  Черный комбинезон с имитацией чулок Le Shali Queen Size. Модель: leshali-66014qb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Утяжка из искусcтвенной кожи. Регулируемый размер с помощью кнопок. Золотистая утяжка на пенис.  Золотистая утяжка на пенис. Модель: sitabella-5020-7. БДСМ. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. БДСМ товары и фетиш &gt; Аксессуары. Цвет: золотистый. Материал: искуственная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -9503,7 +9749,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>искуственная кожа, металл</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -9561,13 +9807,13 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -9577,24 +9823,16 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Комбинезон в сеточку с имитацией</t>
+          <t>Розовый ошейник с мехом и на поводке</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-22894-1299</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>50-54</t>
-        </is>
-      </c>
+          <t>id-12796-1299</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>99999</v>
@@ -9604,15 +9842,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12796/12796_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мега соблазнительный комбинезон LeShali Qween Size - просто находка для каждой женщины, являющейся предметом вожделения тех мужчин, которые любят девушек в теле, разбираются в настоящей женской красоте, и ценят пышные формы, не меньше чем соблазнительную улыбку или кокетливый взгляд.На первый взгляд, создается впечатление, что это корсет с подвязками и чулками, однако это ни более чем милая иллюзия, которая стала возможной благодаря стараниям лучших дизайнеров. К тому же, органичное сочетание крупной и мелкой сетки, узоров, а также имитации шнуровки, как и полагается настоящему корсету, сделала этот наряд одним из самых востребованных и популярным.Самая главная изюминка в том, что комбинезон LeShali Qween Size оставляет зону промежности и ягодицы открытыми! Это значит, что при отсутствии трусиков, вы можете предаваться любовным утехам прямо в нем, при этом оставаясь невероятно сексуальной и привлекательной, как и в момент своего первого появления.Эластичная ткань делает наряд универсальным, он прекрасно смотрится на дамах любого размера.Трусики в данный комплект не входят. Комбинезон в сеточку с имитацией корсета и чулок Queen Size.  Комбинезон в сеточку с имитацией корсета и чулок Queen Size. Модель: leshali-66016qb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Изготовлен из искусственной кожи. С внутренней стороны подкладка из мягкого меха. При изготовлении использована фурнитура с никелевым покрытием. Металлическая цепочка (поводок), с карабином на конце, поможет вам с лёгкостью управлять своим партнёром. Размер универсальный. Розовый ошейник с мехом и на поводке.  Розовый ошейник с мехом и на поводке. Модель: sitabella-5024-4. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: розовый. Материал: искусственная кожа, искусственный мех, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -9627,7 +9869,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>искусственная кожа, искусственный мех, металл</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -9665,7 +9907,7 @@
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>ошейник, поводок</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
@@ -9685,40 +9927,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ажурный комбинезон со стразами и с</t>
+          <t>Золотистый ошейник с мехом и</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-21587-1299</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-12800-1299</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>99999</v>
@@ -9728,15 +9962,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12800/12800_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кэтсьюит выполнен из тонкой черной полупрозрачной  ажурной ткани. Она облегает фигуру и подчеркивает каждый изгиб,оттеняет кожу и добавляет соблазнительности. Низ выполнен в виде чулок на пажах, которые делают ноги особенно красивыми и стройными. Спина остается открытой до середины.Лиф по всей длине украшен орнаментом из страз. Такой образ идеален для романтического вечера и любовных утех!Трусики не входят в комплект. Ажурный комбинезон со стразами и с имитацией чулок.  Ажурный комбинезон со стразами и с имитацией чулок. Модель: leshali-8286slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Изготовлен из искусственной кожи. С внутренней стороны подклад из мягкого меха. При изготовлении использована фурнитура с никелевым покрытием. Металлическая цепочка (поводок), с карабином на конце, поможет вам с лёгкостью управлять своим партнёром. Золотистый ошейник с мехом и цепью-поводком.  Золотистый ошейник с мехом и цепью-поводком. Модель: sitabella-5024-7. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: золотистый. Материал: искусственная кожа, искусственный мех, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -9751,7 +9989,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>искусственная кожа, искусственный мех, металл</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -9789,7 +10027,7 @@
       <c r="AM77" t="inlineStr"/>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>ошейник, поводок</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
@@ -9809,38 +10047,38 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Шлепалки эротик</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Контактный комбинезон с фантазийным</t>
+          <t>Мини-плеть черная</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-21271-1299</t>
+          <t>id-4573-1299</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -9852,30 +10090,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4573/4573_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4573/4573_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4573/4573_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кетсьюит - особая эротическая одежда, помогающая создать романтичный настрой и заинтересовать партнера во время интимных игр, Кетсьюит с длинным рукавом плотно облегает тело, подчеркивая сексуальные изгибы, при этом он не мешает движениям и выгодно демонстрирует прелести фигуры. Эротическое белье больше показывает, чем скрывает, и все же оно оставляет простор для мужской фантазии и любопытства.Кетсьюит с длинным рукавом оставляет ноги полностью закрытыми, облегает талию и полностью закрывает руки. Эротичные вырезы на груди и спине приковывают взгляд, зона декольте выполнена из полупрозрачного материала. Сплошные участки наряда эффектно комбинируются с сеткой, она частично открывает грудь и живот. Несмотря на закрытость наряда, он смотрится соблазнительно и эротично, его стоит надеть без нижнего белья. Дополнением могут стать высокие каблуки, чулки и другие детали образа роковой красотки!Трусики в комплект не входят. Контактный комбинезон с фантазийным узором.  Контактный комбинезон с фантазийным узором. Модель: leshali-dj1047slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Плеть мини изготовлена из натурального латекса, имеет 10-12 хвостов длиной 25-30 см. Хвосты имеют вид лент шириной 7 мм. Ручка металлическая, хромированная. Мини-плеть черная.  Мини-плеть черная. Модель: sitabella-6020-1bxsit. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный с серебряным. Материал: металл, латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>металл, латекс</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -9933,38 +10175,38 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Черное ажурное боди Le Shali SL</t>
+          <t>Чёрно-красный латексный фаллос-плетка</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-21248-1299</t>
+          <t>id-18023-1299</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -9976,15 +10218,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18023/18023_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди - особая эротическая одежда, помогающая создать романтичный настрой и заинтересовать партнера во время интимных игр, Боди плотно облегает тело, подчеркивая сексуальные изгибы, при этом он не мешает движениям и выгодно демонстрирует прелести фигуры. Эротическое белье больше показывает, чем скрывает, и все же оно оставляет простор для мужской фантазии и любопытства.Боди с ажурным рисунком оставляет ноги полностью открытыми, облегает талию и подчеркивает все достоинства вашей фигуры. Соблазнительный и эротичный, его стоит надеть без нижнего белья. Дополнением могут стать высокие каблуки, чулки и другие детали образа роковой красотки!Трусики в комплект не входят. Черное ажурное боди Le Shali SL.  Черное ажурное боди Le Shali SL. Модель: leshali-dj1067slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Плеть мини Ракета многохвостая изготовлена из натурального латекса, имеет 20 хвостов длиной 40-45 см, хвосты имеют вид лент шириной 7 мм. Рукоять в виде фаллоса. Чёрно-красный латексный фаллос-плетка Mini Rocket.  Чёрно-красный латексный фаллос-плетка Mini Rocket. Модель: sitabella-6023-12. БДСМ. Анальные стимуляторы и пробки &gt; Без вибрации. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: черный, красный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -9999,7 +10245,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -10057,38 +10303,38 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Красный комбинезон с белым лебяжьим</t>
+          <t>Чёрный латексный фаллос-плетка Mini</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-21266-1299</t>
+          <t>id-17104-1299</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -10100,15 +10346,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17104/17104_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17104/17104_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Приятный на ощупь материал подогревает желания каждый раз, когда руки партнера касаются тела сексапильной красотки. Продуманный дизайн интимного наряда позволяет максимально подчеркнуть достоинства фигуры и сделать акцент на самых соблазнительных участках.Отделка из лебяжьего пуха придает образу особенно привлекательный вид. Трусики не входят в комплект. Красный комбинезон с белым лебяжьим пухом.  Красный комбинезон с белым лебяжьим пухом. Модель: leshali-dj1228slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: красный с белым. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Плеть мини Ракета многохвостая изготовлена из натурального латекса, имеет 20 хвостов длиной 40-45 см, хвосты имеют вид лент шириной 7 мм. Рукоять в виде фаллоса. Чёрный латексный фаллос-плетка Mini Rocket.  Чёрный латексный фаллос-плетка Mini Rocket. Модель: sitabella-6023-1. БДСМ. Анальные стимуляторы и пробки &gt; Без вибрации. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: черный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -10123,7 +10373,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
@@ -10181,28 +10431,28 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Эластичное мини-платье со стразами</t>
+          <t>Черная маска с регулирующейся лентой</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-21373-1299</t>
+          <t>id-16245-1299</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -10224,15 +10474,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16245/16245_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Смелое,  откровенное и безумно соблазнительное платье, которое можно надеть на свидание. . если вы собираетесь провести его дома. Эластичная облегающая ткань эффектно оформленный лиф , украшенный стразами , закрытая грудь, спинка и. . в этом платье открыты взгляду все прелести. Ни один мужчина не сможет устоять перед девушкой в этом наряде!.Эластичное мини-платье со стразами.  Эластичное мини-платье со стразами. Модель: leshali-dj3470slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Использование маски позволит вам внести в свою сексуальную жизнь разнообразие и насладиться сексом в стиле БДСМ. Маска обладает широкими прорезями для глаз, а также отверстием для рта и носа. Не понижает слышимость. Черная маска с регулирующейся лентой.  Черная маска с регулирующейся лентой. Модель: sitabella-6052-1. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: пластик. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -10247,7 +10501,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>пластик</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -10285,7 +10539,7 @@
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>платье</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
@@ -10305,38 +10559,38 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Шлепалки эротик</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Чёрный сетчатый комбинезон с имитацией</t>
+          <t>Бита черная из натурального латекса в</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-21251-1299</t>
+          <t>id-12781-1299</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -10345,18 +10599,22 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr"/>
+          <t>Бита черная из натурального латекса в виде фаллоса</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12781/12781_12781_650.jpg</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Если не знаете, как освежить отношения, не прибегая к серьезным экспериментам, или как удивить и произвести незабываемое впечатление, попробуйте эротическое белье. Особое место здесь занимает кетсьюит. Это комбинезон-чулок с эффектом второй кожи. Он не скрывает красоту женского тела, а лишь добавляет таинственности образу. Он смотрится возбуждающе, придает уверенности и позволяет раскрепоститься. Мужчины оценят откровенность и соблазнительность наряда.Кетсьюит выполнен из тонкой черной полупрозрачной ткани. Она облегает фигуру и подчеркивает каждый изгиб. На груди эротичный вырез, открывающий зону декольте. Прозрачная ткань как вуаль  оттеняет кожу и добавляет соблазнительности ,подчеркивая красоту и грацию вашего тела. Низ выполнен в виде чулок на пажах, которые делают ноги особенно красивыми и стройными. Спина остается открытой до середины. Такой образ идеален для романтического вечера и любовных утех!.Чёрный сетчатый комбинезон с имитацией чулок Le Shali SL.  Чёрный сетчатый комбинезон с имитацией чулок Le Shali SL. Модель: leshali-dj3575slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Бита имеет твердую основу с мягкой прокладкой, обтянутая натуральным латексом. Очень легкая. Один конец оформлен в виде дубинки диаметром, другой в виде фаллоимитатора. Бита черная из натурального латекса в виде фаллоса.  Бита черная из натурального латекса в виде фаллоса. Модель: sitabella-6071-1. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Гиганты и фистинг. Цвет: черный. натуральный латексБренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -10369,11 +10627,7 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>90% нейлон, 10% спандекс</t>
-        </is>
-      </c>
+      <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
@@ -10409,7 +10663,7 @@
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve"> длина рукоятки 13 см, диаметр 2,7-3,5 см</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
@@ -10429,13 +10683,13 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -10445,22 +10699,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Сетчатый контактный комбинезон с</t>
+          <t>Красное боди с доступом Amelia XХL</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-21375-1299</t>
+          <t>id-26287-1299</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -10472,30 +10726,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26287/26287_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26287/26287_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кэтсьюит выполнен из тонкой черной полупрозрачной ткани. Она облегает фигуру и подчеркивает каждый изгиб. На груди эротичный вырез, открывающий зону декольте. Ажурная ткань оттеняет кожу и добавляет соблазнительности.Крупные дерзкие переплетения на ногах  делают их особенно стройными. Бретели открывают руки, плечи и шею.Прозрачный лиф соединен с колготочками необычным плетением из тонких веревочек в области талии.  Такой образ идеален для романтического вечера и любовных утех!.Сетчатый контактный комбинезон с фантазийным узором.  Сетчатый контактный комбинезон с фантазийным узором. Модель: leshali-dj6197slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Боди с открытым доступом, на жестких косточках, бретели регулируются. Боди выполнено из тонкой нежной сетки, спереди по центру вставка из кружева в форме песочных часов, линия талии украшена атласной лентой с бантом, что придает фигуре стройность силуэта и подчеркивает талию. Спина открытая. Застежка на спине позволяет модели идеально сидеть на фигуре. Красное боди с доступом Amelia XХL.  Красное боди с доступом Amelia XХL. Модель: slc-185739xxlr. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Белье большого размера. Цвет: красный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
@@ -10533,7 +10791,7 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -10553,13 +10811,13 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -10569,22 +10827,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Эротическое платье с имитацией чулок Le</t>
+          <t>Комплект Marella бюстгальтер, стринги</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-21381-1299</t>
+          <t>id-26284-1299</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>42-46</t>
+          <t>54-56</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -10596,30 +10854,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26284/26284_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Платье с длинным рукавом в комбинации с чулками на пажах .Приятный на ощупь материал подогревает желания каждый раз, когда руки партнера касаются тела сексапильной красотки. Продуманный дизайн интимного наряда  позволяет максимально подчеркнуть достоинства фигуры и сделать акцент на самых соблазнительных участках. Откровенное платье подарит уверенность в собственной привлекательности. Приобретая такой комплект, делаете ставку на страстные отношения и желанное разнообразие в интимной жизни.Трусики не входят в комплект. Эротическое платье с имитацией чулок Le Shali SL.  Эротическое платье с имитацией чулок Le Shali SL. Модель: leshali-dj6221slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">.Комплект Marella (бюстгальтер, стринги и пояс для чулок) XXXL.  Комплект Marella (бюстгальтер, стринги и пояс для чулок) XXXL. Модель: slc-1903110xxxlb. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
@@ -10657,7 +10919,7 @@
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>бюстгальтер, стринги и пояс для чулок</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -10677,40 +10939,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Аксессуары для игрушек эротик</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SMARTBUY</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Комбинезон с жемчугом с имитацией чулок</t>
+          <t>Набор из 2-х батареек SMARTBUY ULTRA</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-21376-1299</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-18763-1299</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>99999</v>
@@ -10720,10 +10974,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18763/18763_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кэтсьюит выполнен из тонкой черной полупрозрачной ткани, облегает фигуру и подчеркивает каждый изгиб. На груди эротичный вырез, украшенный изящными бусинами под жемчуг и небольшим бантом. Бретели открывают руки, плечи и шею. Ажурная ткань оттеняет кожу и добавляет соблазнительности. Низ выполнен в виде чулок на пажах, которые делают ноги особенно красивыми и стройными. Спина остается открытой до середины. К наряду также прилагаются аккуратные кружевные наручники, с красной атласной лентой для связывания . Бусинки эффектно расположились и на них. Такой образ идеален для романтического вечера и любовных утех!Трусики в комплект не входят. Комбинезон с жемчугом с имитацией чулок и наручниками.  Комбинезон с жемчугом с имитацией чулок и наручниками. Модель: leshali-dj6242slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный с красным и белым. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">.Набор из 2-х батареек SMARTBUY ULTRA Alkaline  (тип AAA).  Набор из 2-х батареек SMARTBUY ULTRA Alkaline  (тип AAA). Модель: smurtbuy-ultra2AAA. Секс-игрушки. Батарейки &gt; AAA, 1,5 V (мизинчиковые). Батареек нет в комплекте. Бренд: SMARTBUY. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -10741,11 +10999,7 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>90% нейлон, 10% спандекс</t>
-        </is>
-      </c>
+      <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
@@ -10781,7 +11035,7 @@
       <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>комбинезон, наручники</t>
+          <t>2 батарейки в упаковке</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -10801,13 +11055,13 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SNAIL VIBE</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -10817,24 +11071,16 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Сетчатое мини-платье с перчатками</t>
+          <t>Перезаряжаемый вибратор с подвижным</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-21377-1299</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-22323-1299</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>99999</v>
@@ -10844,30 +11090,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22323/22323_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22323/22323_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22323/22323_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22323/22323_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22323/22323_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22323/22323_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22323/22323_5_650.jpg</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комплект состоит из прозрачного черного платья с геометрическим рисунком, плотно облегающего фигуру и соблазнительных  эластичных перчаток украшенных жемчужными бусинами. Платье отлично подходит для приятного романтического времяпровождения, страстных ролевых игр и смелых экспериментов в постели.Приятный на ощупь материал подогревает желания каждый раз, когда руки партнера касаются тела сексапильной красотки. Продуманный дизайн интимного наряда позволяет максимально подчеркнуть достоинства фигуры и сделать акцент на самых соблазнительных участках. Откровенное платье подарит уверенность в собственной привлекательности. Приобретая такой комплект, делаете ставку на страстные отношения и желанное разнообразие в интимной жизни.Трусики не входят в комплект. Сетчатое мини-платье с перчатками.  Сетчатое мини-платье с перчатками. Модель: leshali-dj6247slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный с белым. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">Вибромассажер Snail Vibes  универсальный мультискоростной инновационный аккумуляторный вибратор для одновременной двойной стимуляции, созданный из гипоаллергенного материала. Главным преимуществом стимулятора является возможность беспрерывной клиторальной стимуляции при одновременном поступательном вагинальном воздействии. Особенностью этого стимулятора является возможность смещать клиторальный отросток вдоль всей длины вагинальной части. Snail по праву можно назвать первым вибратором по-настоящему двойного действия.Snail разработан с учетом анатомических особенностей. Два мощных мотора с отдельным управлением имеют 5 режимов вибрации и 5 скоростей для каждого из них, что обеспечивает более 600 комбинаций стимуляции. Клиторальный отросток Snail Vibes может достигать настолько интенсивной вибрации, как легендарный Magic Wand.Применение:Стержень вибратора подходит как для коротких, так и для глубоких толчков, удовлетворяя индивидуальные предпочтения каждого, в то время как стимулятор клитора имеет более широкую область воздействия, чем традиционные игрушки кролики. Snail обеспечивает постоянный контакт вибратора и клитора во время использования игрушки.Управление осуществляется с помощью четырех встроенных в основание кнопок. Чтобы включить или выключить один из отростков, необходимо нажать и в течение трех секунд удерживать отвечающую за него кнопку с изображением волны.Вибромассажер заряжается через USB и может быть подключен практически в любом месте, просто подсоедините идущий в комплекте шнур к совместимому порту компьютера или USB-адаптера (приобретается отдельно), а противоположный конец к разъему у основания. Полная зарядка занимает 2 часа, ее достаточно для беспрерывной работы в течение 1 часа.Хранение:Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Перезаряжаемый вибратор с подвижным клиторальным стимулятором Snail Vibe (5 реж., 5 скор.).  Перезаряжаемый вибратор с подвижным клиторальным стимулятором Snail Vibe (5 реж., 5 скор.). Модель: snailvibe-snail. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: SNAIL VIBE. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Великобритания</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>высококачественный силикон с бархатистой поверхностью</t>
         </is>
       </c>
       <c r="S86" t="inlineStr"/>
@@ -10884,15 +11134,29 @@
       </c>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
-      <c r="AA86" t="inlineStr"/>
+      <c r="Y86" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>24</v>
+      </c>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
-      <c r="AD86" t="inlineStr"/>
-      <c r="AE86" t="inlineStr"/>
-      <c r="AF86" t="inlineStr"/>
-      <c r="AG86" t="inlineStr"/>
+      <c r="AD86" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>3.1</v>
+      </c>
       <c r="AH86" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10905,7 +11169,7 @@
       <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>мини-платье, перчатки с жемчужинами</t>
+          <t>вибратор, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
@@ -10925,13 +11189,13 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -10941,12 +11205,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Черное эротическое платье Le Shali SL</t>
+          <t>Боди с юбочкой медсестры SM</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-21250-1299</t>
+          <t>id-14685-1299</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -10956,7 +11220,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>42-48</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -10968,32 +11232,32 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14685/14685_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14685/14685_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комплект состоит из прозрачного черного платья с кружевным низом, плотно облегающего фигуру, и соблазнительных эластичных перчаток по локоть. Платье украшено вставкой из крупной сетки, соединяющей горловину с ажурным кружевом у подола. Дизайн перчаток предусматривает наличие черных атласных лент, связав которые можно ограничить подвижность партнерши. Белье отлично подходит для приятного романтического времяпровождения, страстных ролевых игр и смелых экспериментов в постели.Приятный на ощупь материал подогревает желания каждый раз, когда руки партнера касаются тела сексапильной красотки. Продуманный дизайн интимного наряда позволяет максимально подчеркнуть достоинства фигуры и сделать акцент на самых соблазнительных участках. Откровенное платье подарит уверенность в собственной привлекательности. Приобретая такой комплект, делаете ставку на страстные отношения и желанное разнообразие в интимной жизни.Трусики не входят в комплект.Черное эротическое платье Le Shali SL.  Черное эротическое платье Le Shali SL. Модель: leshali-jt2555slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">.Боди с юбочкой медсестры SM.  Боди с юбочкой медсестры SM. Модель: softline-173116smb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, красный. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>90% нейлон, 10% спандекс</t>
-        </is>
-      </c>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
@@ -11029,7 +11293,7 @@
       <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>платье, перчатки</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
@@ -11049,13 +11313,13 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LE SHALI</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -11065,22 +11329,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Черный комбинезон с имитацией чулок Le</t>
+          <t>Черное боди медсестры с разрезами ML</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-21252-1299</t>
+          <t>id-14802-1299</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -11092,30 +11356,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14802/14802_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Если не знаете, как освежить отношения, не прибегая к серьезным экспериментам, или как удивить и произвести незабываемое впечатление, попробуйте эротическое белье. Особое место здесь занимает кэтсьюит. Это комбинезон-чулок с эффектом второй кожи. Он не скрывает красоту женского тела, а лишь добавляет таинственности образу. Он смотрится возбуждающе, придает уверенности и позволяет раскрепоститься. Мужчины оценят откровенность и соблазнительность наряда.Кэтсьюит выполнен из тонкой черной полупрозрачной ткани. Она облегает фигуру и подчеркивает каждый изгиб. На груди эротичный вырез, открывающий зону декольте. Ажурная ткань оттеняет кожу и добавляет соблазнительности. Низ выполнен в виде чулок на пажах, которые делают ноги особенно красивыми и стройными. Бретели открывают руки, плечи и шею. Спина остается открытой до середины. Такой образ идеален для романтического вечера и любовных утех!.Черный комбинезон с имитацией чулок Le Shali SL.  Черный комбинезон с имитацией чулок Le Shali SL. Модель: leshali-jt6084slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: LE SHALI. </t>
+          <t xml:space="preserve">.Черное боди медсестры с разрезами ML.  Черное боди медсестры с разрезами ML. Модель: softline-1731mlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с красным. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>100% полиэстер</t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
@@ -11173,32 +11441,40 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LE WAND</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Мощный серебристый беспроводной</t>
+          <t>Черное боди с открытой грудью SM</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-20667-1299</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+          <t>id-12900-1299</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>99999</v>
@@ -11208,30 +11484,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12900/12900_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12900/12900_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Люксовая уникальная версия ванд-массажеров для всего тела от премиум-марки Le Wand. В массажере соединились стиль, функциональность и комфорт использования. Большая широкая головка массажера выполнена из безопасного силикона, кнопки управления также из мягкого материала для удобства. Ванды славятся одной из самых мощных вибраций и универсальностью использования. Серебристый le Wand имеет 10 скоростей интенсивности массажа и 20 запрограмированных режимов. Включая самый необычный режим - хаотичная вибрация, когда массажер сам выбирает, какую функцию активировать. Скорости переключаются минусом и плюсом, их же используйте для включения.выключения вибратора. Функции переключаются центральной кнопкой. Большая головка расположена на гибкой шее, которая позволяет использовать стимулятор для массажа различных мест с максимальным комфортом. Массажер на перезаряжаемом аккумуляторе позволит забыть о батарейках, зарядное устройство в комплекте. Для полной зарядки требуется 3 часа, время работы на одном заряде - 3 часа, есть световой индикатор, который мигает, когда заряжается, горит постоянно, когда массажер полностью заряжен. Если индикатор часто мигает, значит зарядка подходит к концу. В комплекте чехол на молнии и текстурированная насадка для головки массажера со спиральным рисунком. Эту мягкую и нежную насадку хорошо использовать при интимном использовании массажера (для стимуляции клитора или груди). Аккуратно ухаживайте за своим le Wand, используйте щадящие чистящие средства или специальный очистители для взрослых игрушек. Инструкция на русском языке в комплекте. Массажер имеет трэвел лок - зажмите плюс и минус одновременно, чтобы заблокировать массажер от случайного включения. Чтобы разблокировать - повторите процедуру. Мощный серебристый беспроводной массажер Le Wand (20 режимов, 10 скоростей).  Мощный серебристый беспроводной массажер Le Wand (20 режимов, 10 скоростей). Модель: lewand-001-gry. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Женские стимуляторы &gt; Вибромассажеры. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: серый, серебристый. Материал: пластик, высококачественный силикон с бархатистой поверхностью, TPE. Батареек нет в комплекте. Бренд: LE WAND. </t>
+          <t xml:space="preserve">.Черное боди с открытой грудью SM.  Черное боди с открытой грудью SM. Модель: softline-180416smb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>пластик, высококачественный силикон с бархатистой поверхностью, TPE</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S89" t="inlineStr"/>
@@ -11248,25 +11528,15 @@
       </c>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>33</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>33</v>
-      </c>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
       <c r="AC89" t="inlineStr"/>
       <c r="AD89" t="inlineStr"/>
       <c r="AE89" t="inlineStr"/>
-      <c r="AF89" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>5.6</v>
-      </c>
+      <c r="AF89" t="inlineStr"/>
+      <c r="AG89" t="inlineStr"/>
       <c r="AH89" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11279,7 +11549,7 @@
       <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>массажер, зарядное устройство, сменные вилки для зарядного устройства, мягкая насадка на головку массажера для интимного массажа, чехол на молнии, инструкция</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
@@ -11299,32 +11569,40 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LE WAND</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Мощный жемчужный беспроводной массажер</t>
+          <t>Черное боди с открытой грудью ML</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-20757-1299</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+          <t>id-12901-1299</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>99999</v>
@@ -11334,30 +11612,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12901/12901_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12901/12901_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Люксовая уникальная версия ванд-массажеров для всего тела от премиум-марки Le Wand. В массажере соединились стиль, функциональность и комфорт использования. Большая широкая головка массажера выполнена из безопасного силикона, кнопки управления также из мягкого материала для удобства. Ванды славятся одной из самых мощных вибраций и универсальностью использования. Жемчужный le Wand имеет 10 скоростей интенсивности массажа и 20 запрограмированных режимов. Включая самый необычный режим - хаотичная вибрация, когда массажер сам выбирает, какую функцию активировать. Скорости пекрелючаются минусом и плюсом, их же используйте для включения.выключения вибратора. Функции переключаются центральной кнопкой. Большая головка расположена на гибкой шее, которая позволяет использовать стимулятор для массажа различных мест с максимальным комфортом. Массажер на перезаряжемом аккумляторе позволит забыть о батарейках, зарядное устройство в комплекте. Для полной зарядки требуется 3 часа, время работы на одном заряде - 3 часа, есть световой индикатор, который мигает, когда заряжается, горит постоянно, когда массажер полностью заряжен. Если индикатор часто мигает, значит зарядка подходит к концу. В комплекте чехол на молнии и текстурированная насадка для головки массажера со спиральным рисунком. Эту мягкую и нежную насадку хорошо использовать при интимном использовании массажера (для стимуляции клитора или груди). Аккуратно ухаживайте за своим le Wand, используйте щадящие чистящие средства или специальный очистители для взрослых игрушек. Инструкция на русском языке в комплекте. Полная длина массажера 33 см, размер массажирующей головки 7 см на 5,5 см. Массажер имеет трэвел лок - зажмите плюс и минус одновременно, чтобы заблокировать массажер от случайного включения. Чтобы разблокировать - повторите процедуру. Мощный жемчужный беспроводной массажер Le Wand (20 режимов, 10 скоростей).  Мощный жемчужный беспроводной массажер Le Wand (20 режимов, 10 скоростей). Модель: lewand-001-prl. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Женские стимуляторы &gt; Вибромассажеры. Элитная продукция &gt; Вибраторы и массажеры. Элитная продукция. Цвет: жемчужный. Материал: пластик, высококачественный силикон с бархатистой поверхностью, TPE. Батареек нет в комплекте. Бренд: LE WAND. </t>
+          <t xml:space="preserve">.Черное боди с открытой грудью ML.  Черное боди с открытой грудью ML. Модель: softline-180417mlb. Секс-игрушки. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>пластик, высококачественный силикон с бархатистой поверхностью, TPE</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
@@ -11374,25 +11656,15 @@
       </c>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>33</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>33</v>
-      </c>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
       <c r="AD90" t="inlineStr"/>
       <c r="AE90" t="inlineStr"/>
-      <c r="AF90" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>5.5</v>
-      </c>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
       <c r="AH90" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11405,7 +11677,7 @@
       <c r="AM90" t="inlineStr"/>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>массажер, зарядное устройство, сменные вилки для зарядного устройства, мягкая насадка на головку массажера для интимного массажа, чехол на молнии, инструкция</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO90" t="inlineStr">
@@ -11425,13 +11697,13 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LE WAND</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -11441,16 +11713,24 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Люксовый перезаряжаемый небольшой</t>
+          <t>Краcное боди с открытой грудью и</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-22943-1299</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+          <t>id-12500-1299</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>99999</v>
@@ -11460,32 +11740,32 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12500/12500_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12500/12500_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Wand Grand Bullet - это увеличенная версия мини-пули от Le Wand. Для тех, кто хочет еще больше и сильнее, потому что Grand Bullet на 40% мощнее, чем его меньший аналог и подходит для продвинутых любителей игрушек, которые знают что нужно их телу. 10 режимов вибрации и 5 уровня интенсивности докажут вам, что здесь размер не имеет значения. Элегантный и простой в использовании гаджет легко управляется одним нажатием в нижней части корпуса - уровни и режимы вибрации управляются одной кнопкой. Также он полностью выполнен из безопасного металла, поэтому вы можете погружать его в воду до 30 минут. Поставляется в комплекте с двумя съемными текстурированными силиконовыми насадками, которые усилят ваши ощущения и позволят использовать пулю для внешней и внутренней стимуляции. Заряжается с помощью магнитной зарядки. Просто подключите USB-разъем к вашему компьютеру или зарядному устройству и закрепите магнитную головку на пульке. Полная зарядка даст вам 1 час игры. В наборе есть бархатная сумочка, которая позволяет взять игрушку с собой и сделат</t>
+          <t xml:space="preserve">Боди выполнено из ажурного материала, имеет открытые чашечки на которые нежно спускается полупрозрачная оборка. Между грудей маленький нарядный бантик со стразинкой. Боди сзади на завязках. На трусики с разрезом нежно спускается полупрозрачная оборка. Краcное боди с открытой грудью и разрезом в интимном месте Orsola SM.  Краcное боди с открытой грудью и разрезом в интимном месте Orsola SM. Модель: softline-180436smr. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: красный. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью, металл</t>
-        </is>
-      </c>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
@@ -11498,31 +11778,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W91" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="X91" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA91" t="n">
-        <v>12</v>
-      </c>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
       <c r="AC91" t="inlineStr"/>
       <c r="AD91" t="inlineStr"/>
       <c r="AE91" t="inlineStr"/>
-      <c r="AF91" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>2.1</v>
-      </c>
+      <c r="AF91" t="inlineStr"/>
+      <c r="AG91" t="inlineStr"/>
       <c r="AH91" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11535,7 +11801,7 @@
       <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="inlineStr">
         <is>
-          <t>мини-вибратор, магнитное зарядное USB-устройство, две сменные силиконовые насадки, мешочек для хранения, инструкция</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO91" t="inlineStr">
@@ -11555,50 +11821,62 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LINGOX FACTORY</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Мастурбатор-вагина в тубе Anny Aurora</t>
+          <t>Черный пеньюар с кружевом и перчатками</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-18473-1299</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+          <t>id-14707-1299</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>48-52</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>99999</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Мастурбатор-вагина в тубе Anny Aurora Vagina Private Stars</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14707/14707_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14707/14707_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Мастурбатор-вагина в тубе Anny Aurora Vagina Private Stars.  Мастурбатор-вагина в тубе Anny Aurora Vagina Private Stars. Модель: lingox-6011019. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы Fleshlight, в колбах. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный, черный корпус. TPE (Re-Evolution Skin Material Lingox, вторая кожа)Бренд: LINGOX FACTORY. </t>
+          <t xml:space="preserve">.Черный пеньюар с кружевом и перчатками XL.  Черный пеньюар с кружевом и перчатками XL. Модель: softline-1817xlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 97% полиэстер, 3% эластан. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Нидерланды</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -11611,7 +11889,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>97% полиэстер, 3% эластан</t>
+        </is>
+      </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr">
         <is>
@@ -11626,15 +11908,9 @@
       </c>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA92" t="n">
-        <v>28</v>
-      </c>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
       <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr"/>
@@ -11653,7 +11929,7 @@
       <c r="AM92" t="inlineStr"/>
       <c r="AN92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> длина рабочей зоны 14,5 см, диаметр 6,5 см</t>
+          <t>пеньюар, перчатки</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
@@ -11673,50 +11949,62 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LINGOX FACTORY</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Мастурбатор-вагина в тубе Lexi Lowe</t>
+          <t>Черный пеньюар с кружевом и перчатками</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-18474-1299</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+          <t>id-14569-1299</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>XXL</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>54-56</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>99999</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Мастурбатор-вагина в тубе Lexi Lowe Vagina Private Stars</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14569/14569_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14569/14569_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Мастурбатор-вагина в тубе Lexi Lowe Vagina Private Stars.  Мастурбатор-вагина в тубе Lexi Lowe Vagina Private Stars. Модель: lingox-6011022. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы Fleshlight, в колбах. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: телесный, черный корпус. TPE (Re-Evolution Skin Material Lingox, вторая кожа)Бренд: LINGOX FACTORY. </t>
+          <t xml:space="preserve">.Черный пеньюар с кружевом и перчатками XXXL.  Черный пеньюар с кружевом и перчатками XXXL. Модель: softline-1817xxxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 97% полиэстер, 3% эластан. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -11729,7 +12017,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>97% полиэстер, 3% эластан</t>
+        </is>
+      </c>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr">
         <is>
@@ -11744,15 +12036,9 @@
       </c>
       <c r="W93" t="inlineStr"/>
       <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>28</v>
-      </c>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
       <c r="AC93" t="inlineStr"/>
       <c r="AD93" t="inlineStr"/>
@@ -11771,7 +12057,7 @@
       <c r="AM93" t="inlineStr"/>
       <c r="AN93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> длина рабочей зоны 14,5 см, диаметр 6,5 см</t>
+          <t>пеньюар, перчатки</t>
         </is>
       </c>
       <c r="AO93" t="inlineStr">
@@ -11791,32 +12077,40 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LINGOX FACTORY</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Мастурбатор-рот в форме бутылки Lingox</t>
+          <t>Розовые стринги с черным кружевом</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-16399-1299</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+          <t>id-10685-1299</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>99999</v>
@@ -11826,15 +12120,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10685/10685_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Мастурбатор-рот в форме бутылки Lingox Triple.  Мастурбатор-рот в форме бутылки Lingox Triple. Модель: lingox-8010. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы Fleshlight, в колбах. Элитная продукция &gt; Вагины, мастурбаторы. Элитная продукция. Цвет: черный с красным. Материал: вторая кожа. Батареек нет в комплекте. Бренд: LINGOX FACTORY. </t>
+          <t xml:space="preserve">.Розовые стринги с черным кружевом.  Розовые стринги с черным кружевом. Модель: softline-200240slp. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный с розовым. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -11847,11 +12145,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>вторая кожа</t>
-        </is>
-      </c>
+      <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
@@ -11866,29 +12160,15 @@
       </c>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA94" t="n">
-        <v>28</v>
-      </c>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr"/>
       <c r="AC94" t="inlineStr"/>
-      <c r="AD94" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AG94" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
+      <c r="AG94" t="inlineStr"/>
       <c r="AH94" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11901,7 +12181,7 @@
       <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="inlineStr">
         <is>
-          <t>мастурбатор в бутылке, пробник смазки, переводная тату</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO94" t="inlineStr">
@@ -11921,32 +12201,40 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LINGOX FACTORY</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Мастурбатор-рот в форме бутылки Lingox</t>
+          <t>Ажурные стринги на завязках</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-16398-1299</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+          <t>id-15960-1299</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
         <v>99999</v>
@@ -11956,32 +12244,32 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15960/15960_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15960/15960_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Мастурбатор-рот в форме бутылки Lingox Triple.  Мастурбатор-рот в форме бутылки Lingox Triple. Модель: lingox-8027. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы Fleshlight, в колбах. Элитная продукция &gt; Вагины, мастурбаторы. Элитная продукция. Цвет: красный с белым. Материал: вторая кожа. Батареек нет в комплекте. Бренд: LINGOX FACTORY. </t>
+          <t xml:space="preserve">.Ажурные стринги на завязках.  Ажурные стринги на завязках. Модель: softline-225010slb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Испания</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>вторая кожа</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
@@ -11996,29 +12284,15 @@
       </c>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="Z95" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>28</v>
-      </c>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
-      <c r="AD95" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AG95" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+      <c r="AG95" t="inlineStr"/>
       <c r="AH95" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12031,7 +12305,7 @@
       <c r="AM95" t="inlineStr"/>
       <c r="AN95" t="inlineStr">
         <is>
-          <t>мастурбатор-рот, пробник смазки, переводная тату</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO95" t="inlineStr">
@@ -12051,13 +12325,13 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -12067,12 +12341,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Черный комбинезон с нежным волнистым</t>
+          <t>Черные кружевные стринги с разрезом</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-12923-1299</t>
+          <t>id-10683-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -12094,10 +12368,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10683/10683_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черный комбинезон с нежным волнистым узором  Abra Black (SL).  Черный комбинезон с нежным волнистым узором  Abra Black (SL). Модель: livco-03101slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Черные кружевные стринги с разрезом.  Черные кружевные стринги с разрезом. Модель: softline-226510slb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -12115,11 +12393,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>90% полиамид, 10% эластан</t>
-        </is>
-      </c>
+      <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
@@ -12175,13 +12449,13 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -12191,12 +12465,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Черный комбинезон в сетку с узором</t>
+          <t>Белые кружевные стринги с разрезом</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-12924-1299</t>
+          <t>id-12130-1299</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -12218,10 +12492,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12130/12130_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Очень откровенный и соблазнительный боди-комбинезон Chrysanthe представлен польским производителем Livia Corsetti в сногсшибательной коллекции эротического белья. Он выполнен из эластичного сетчатого материала с интересным узором. Чулок на тонких бретелях отлично облегает фигуру, подчеркивая все её возбуждающие изгибы. Черный комбинезон в сетку с узором Chrysanthe  Black (SL).  Черный комбинезон в сетку с узором Chrysanthe  Black (SL). Модель: livco-03124slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Белые кружевные стринги с разрезом.  Белые кружевные стринги с разрезом. Модель: softline-226520slw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: белый. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -12239,11 +12517,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>90% полиамид, 10% эластан</t>
-        </is>
-      </c>
+      <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
@@ -12299,13 +12573,13 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -12315,22 +12589,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Черный комбинезон с ажурным узором</t>
+          <t>Стринги черные с разрезом</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-13086-1299</t>
+          <t>id-5823-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -12342,10 +12616,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/5823/5823_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черный комбинезон с ажурным узором Elissa Black (SL).  Черный комбинезон с ажурным узором Elissa Black (SL). Модель: livco-03128slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Стринги черные с разрезом.  Стринги черные с разрезом. Модель: softline-227010slb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -12363,11 +12641,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>90% полиамид, 10% эластан</t>
-        </is>
-      </c>
+      <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr">
         <is>
@@ -12403,7 +12677,7 @@
       <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO98" t="inlineStr">
@@ -12423,13 +12697,13 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -12439,12 +12713,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Черный комбинезон с узором Zita Black </t>
+          <t>Красные женские стринги с интимным</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-13459-1299</t>
+          <t>id-19470-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -12466,10 +12740,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19470/19470_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Очень откровенный и соблазнительный боди-комбинезон Zita представлен польским производителем Livia Corsetti в сногсшибательной коллекции эротического белья. Он выполнен из эластичного чулочного материала в мелкую сетку и декорирован нежным узором . Глубокое декольте оформлено крупной сеткой. Комбинезон отлично облегает тело, подчеркивая его женственность и сексуальность. В области половых органов выполнен вырез, что дает возможность оставаться в белье даже во время интимной близости. Черный комбинезон с узором Zita Black  (SL).  Черный комбинезон с узором Zita Black  (SL). Модель: livco-03285slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Красные женские стринги с интимным доступом SL.  Красные женские стринги с интимным доступом SL. Модель: softline-227030slr. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: красный. Материал: 89% полиамид, 11% эластан. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -12489,7 +12767,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>89% полиамид, 11% эластан</t>
         </is>
       </c>
       <c r="S99" t="inlineStr"/>
@@ -12547,13 +12825,13 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -12563,12 +12841,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Белый комбинезон с узором Zita White</t>
+          <t>Черные стринги кружевные с разрезом</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-13463-1299</t>
+          <t>id-5810-1299</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -12590,10 +12868,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/5810/5810_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Очень откровенный и соблазнительный боди-комбинезон Zita представлен польским производителем Livia Corsetti в сногсшибательной коллекции эротического белья. Он выполнен из эластичного чулочного материала в мелкую сетку и декорирован нежным узором. Глубокое декольте оформлено крупной сеткой. Комбинезон отлично облегает тело, подчеркивая его женственность и сексуальность. В области половых органов выполнен вырез, что дает возможность оставаться в белье даже во время интимной близости. Белый комбинезон с узором Zita White (SL).  Белый комбинезон с узором Zita White (SL). Модель: livco-03286slw. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Черные стринги кружевные с разрезом.  Черные стринги кружевные с разрезом. Модель: softline-227210slb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 89% полиамид, 11% эластан. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -12613,7 +12895,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>89% полиамид, 11% эластан</t>
         </is>
       </c>
       <c r="S100" t="inlineStr"/>
@@ -12671,13 +12953,13 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LIVCO CORSETTI</t>
+          <t>SOFT LINE</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -12687,12 +12969,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Красный комбинезон с узором Zita Red</t>
+          <t>Белые стринги с разрезом и кружевом</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-13809-1299</t>
+          <t>id-12134-1299</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -12714,10 +12996,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12134/12134_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Красный комбинезон с узором Zita Red (SL).  Красный комбинезон с узором Zita Red (SL). Модель: livco-03287slr. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: красный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: LIVCO CORSETTI. </t>
+          <t xml:space="preserve">.Белые стринги с разрезом и кружевом.  Белые стринги с разрезом и кружевом. Модель: softline-227720slw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый с черным. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -12735,11 +13021,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>90% полиамид, 10% эластан</t>
-        </is>
-      </c>
+      <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr">
         <is>

--- a/!parsed_items_100/1299/1299_3199-3300.xlsx
+++ b/!parsed_items_100/1299/1299_3199-3300.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -655,12 +655,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Кофе любви молотый ЖЕЛАНИЕ (29 г)</t>
+          <t>Масло для массажа БОТАНИКА с ароматом</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-23750-1299</t>
+          <t>id-24999-1299</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -676,12 +676,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23750/23750_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24999/24999_1_650.jpg</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">О том, что Кофе - это напиток, который даёт заряд бодрости и помогает проснуться, знают все. Но кофе бренда Штучки-Дрючки, помогает не только в этом, он действует как сильный афродизиак: раскрепощает и усиливает желание, а входящая в состав продукта гуарана эффективно тонизирует и восстанавливает силы организма.Состав: арабика 50%, робуста 50%, гуарана. Кофе любви молотый ЖЕЛАНИЕ (29 г).  Кофе любви молотый ЖЕЛАНИЕ (29 г). Модель: shtuchki-699937. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
+          <t xml:space="preserve">Превратить обычный сеанс массажа в настоящий ритуал чувственности, перенестись от наслаждения в другой мир и вернуться обратно  наши массажные способны не только на это. Познайте каждый закоулок нирваны вместе с прикосновением горячих ладоней и окунитесь в блаженство. Масло для массажа БОТАНИКА с ароматом лайма и мяты (50 мл).  Масло для массажа БОТАНИКА с ароматом лайма и мяты (50 мл). Модель: shtuchki-690437. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -703,17 +703,17 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>29 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>29 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -759,7 +759,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Возбуждающие препараты</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -775,12 +775,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Кофе любви молотый ВОЗБУЖДЕНИЕ (29 г)</t>
+          <t>Возбуждающее массажное масло БОТАНИКА с</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-23749-1299</t>
+          <t>id-25140-1299</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -796,12 +796,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23749/23749_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25140/25140_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25140/25140_2_650.jpg</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">О том, что Кофе - это напиток, который даёт заряд бодрости и помогает проснуться, знают все. Но кофе бренда Штучки-Дрючки, помогает не только в этом, он действует как сильный афродизиак: раскрепощает и усиливает желание, а входящая в состав продукта муира пуама, эффективно снимает излишнее напряжение, помогает расслабиться и получать удовольствие от эротических игр.Состав: арабика 50%, робуста 50%, муира пуама. Кофе любви молотый ВОЗБУЖДЕНИЕ (29 г).  Кофе любви молотый ВОЗБУЖДЕНИЕ (29 г). Модель: shtuchki-699938. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
+          <t xml:space="preserve">Превратить обычный сеанс массажа в настоящий ритуал чувственности, перенестись от наслаждения в другой мир и вернуться обратно  наши массажные способны не только на это. Познайте каждый закоулок нирваны вместе с прикосновением горячих ладоней и окунитесь в блаженство. Возбуждающее массажное масло БОТАНИКА с ароматом пряностей (50 мл).  Возбуждающее массажное масло БОТАНИКА с ароматом пряностей (50 мл). Модель: shtuchki-690438. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -823,17 +823,17 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>29 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>29 г</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
@@ -879,7 +879,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -890,17 +890,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ролевая игра в стиле БДСМ Накажи Меня</t>
+          <t>Возбуждающее массажное масло БОТАНИКА с</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-22653-1299</t>
+          <t>id-25141-1299</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -916,12 +916,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25141/25141_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25141/25141_2_650.jpg</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мини-версия игры Накажи меня нежно - то, что нужно, если ты давно поглядываешь в сторону БДСМ, но стесняешься. Если хочется добавить огня в секс, но не хватет идей, а все твои фантазии сводятся к костюму супергероя или кошечки. Внутри коробки ты найдешь карточки со сценариями, которые пом</t>
+          <t xml:space="preserve">Превратить обычный сеанс массажа в настоящий ритуал чувственности, перенестись от наслаждения в другой мир и вернуться обратно  наши массажные способны не только на это. Познайте каждый закоулок нирваны вместе с прикосновением горячих ладоней и окунитесь в блаженство. Возбуждающее массажное масло БОТАНИКА с ароматом клубники (50 мл).  Возбуждающее массажное масло БОТАНИКА с ароматом клубники (50 мл). Модель: shtuchki-690439. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -939,50 +939,34 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>эластичный TPE</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6.93</v>
-      </c>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.9</v>
-      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>универсальный (растягивается)</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>универсальный (растягивается)</t>
-        </is>
-      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -995,7 +979,7 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>карточки со сценариями для него, карточки со сценариями для нее, эрекционное кольцо</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1015,7 +999,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1031,12 +1015,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Шоколадный мини-пенис со вкусом</t>
+          <t>Масло для массажа БОТАНИКА с ароматом</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-24804-1299</t>
+          <t>id-25000-1299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -1052,12 +1036,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24804/24804_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24804/24804_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25000/25000_1_650.jpg</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Шоколадный мини-пенис со вкусом апельсина.  Шоколадный мини-пенис со вкусом апельсина. Модель: shtuchki-699968. Приколы. Эротические сувениры &gt; Сувениры. Цвет: коричневый. Материал: молочный шоколад. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
+          <t xml:space="preserve">Превратить обычный сеанс массажа в настоящий ритуал чувственности, перенестись от наслаждения в другой мир и вернуться обратно  наши массажные способны не только на это. Познайте каждый закоулок нирваны вместе с прикосновением горячих ладоней и окунитесь в блаженство. Масло для массажа БОТАНИКА с ароматом лесных ягод (50 мл).  Масло для массажа БОТАНИКА с ароматом лесных ягод (50 мл). Модель: shtuchki-690440. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1067,46 +1051,36 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>молочный шоколад</t>
-        </is>
-      </c>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr"/>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="X5" t="n">
-        <v>3.025</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>8</v>
-      </c>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
@@ -1118,21 +1092,11 @@
           <t xml:space="preserve">. </t>
         </is>
       </c>
-      <c r="AI5" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>19</v>
-      </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
           <t>1 шт.</t>
@@ -1161,7 +1125,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1171,12 +1135,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Массажное масло Excitation Импульс.</t>
+          <t>Масло для массажа БОТАНИКА с ароматом</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-15883-1299</t>
+          <t>id-25482-1299</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1192,44 +1156,44 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/15883/15883_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25482/25482_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25482/25482_2_650.jpg</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло Shunga Excitation Massage Oil с ароматом Апельсина.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками. Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки.Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Массажное масло Excitation Импульс. Апельсин (250 мл).  Массажное масло Excitation Импульс. Апельсин (250 мл). Модель: shunga-1003sg. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Превратить обычный сеанс массажа в настоящий ритуал чувственности, перенестись от наслаждения в другой мир и вернуться обратно  наши массажные способны не только на это. Познайте каждый закоулок нирваны вместе с прикосновением горячих ладоней и окунитесь в блаженство. Масло для массажа БОТАНИКА с ароматом бергамота и шалфея (50 мл).  Масло для массажа БОТАНИКА с ароматом бергамота и шалфея (50 мл). Модель: shtuchki-690441. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t>250 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>250 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W6" t="inlineStr"/>
@@ -1275,13 +1239,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1291,12 +1255,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Съедобный массажный крем для тела</t>
+          <t>Масло для массажа БОТАНИКА с ароматом</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-16579-1299</t>
+          <t>id-24998-1299</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1312,44 +1276,44 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16579/16579_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24998/24998_1_650.jpg</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта линейка кремов создана Shunga Erotic art специально для оральных удовольствий.Помимо великолепных чувственных ароматов, крема этой линейки имеют отличный вкус, в буквальном смысле этого слова, крема съедобны!Крема изготавливаются только из натуральных компонентов.Оральный секс, с использованием этого продукта, принесёт ещё большее, ни с чем несравнимое удовольствие!Крем шелковистой текстуры, который даже во время интенсивной близости, сохраняет на коже восхитительный вкусЭтот маслянистый массажный крем обеспечивает нежное скольжение между телами, поднимая сексуальную энергию до самых вершин.- Легко и долго скользит- Не оставляет жирных следов- Съедобен- Оставляет на коже чувство свежести- Восхитительный вкус- Гладкий шелковистый- Состоит только их натуральных ингредиентов.Съедобный массажный крем для тела Massage Cream с ароматом МАЛИНЫ (200 мл).  Съедобный массажный крем для тела Massage Cream с ароматом МАЛИНЫ (200 мл). Модель: shunga-1010. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Превратить обычный сеанс массажа в настоящий ритуал чувственности, перенестись от наслаждения в другой мир и вернуться обратно  наши массажные способны не только на это. Познайте каждый закоулок нирваны вместе с прикосновением горячих ладоней и окунитесь в блаженство. Масло для массажа БОТАНИКА с ароматом иланг-иланга (50 мл).  Масло для массажа БОТАНИКА с ароматом иланг-иланга (50 мл). Модель: shtuchki-690442. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W7" t="inlineStr"/>
@@ -1401,22 +1365,18 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>для женщин и мужчин</t>
-        </is>
-      </c>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Масло массажное для тела Shunga</t>
+          <t>Масло для массажа БОТАНИКА с ароматом</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-20510-1299</t>
+          <t>id-25483-1299</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1432,44 +1392,44 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20510/20510_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25483/25483_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25483/25483_2_650.jpg</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло Shunga Kissable Massage Oil с ароматом Азиатские нотки - это аромат, который Eau Zone Oils and Fragrances искал много лет. Смесь азиатских фруктов, которые выпускают специальный аромат. Вы больше нигде не найдете. Это как наш собственный рецепт.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками.Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки. Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Масло массажное для тела Shunga Irresistible Азиатские нотки (250 мл).  Масло массажное для тела Shunga Irresistible Азиатские нотки (250 мл). Модель: shunga-10184. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Превратить обычный сеанс массажа в настоящий ритуал чувственности, перенестись от наслаждения в другой мир и вернуться обратно  наши массажные способны не только на это. Познайте каждый закоулок нирваны вместе с прикосновением горячих ладоней и окунитесь в блаженство. Масло для массажа БОТАНИКА с ароматом кокосового молочка (50 мл).  Масло для массажа БОТАНИКА с ароматом кокосового молочка (50 мл). Модель: shtuchki-690443. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t>250 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>50</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>250 мл</t>
+          <t>50 мл</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -1515,28 +1475,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Съедобный массажный крем для тела</t>
+          <t>Спрей для тела с афродизиаками ТИТАН</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-16580-1299</t>
+          <t>id-24175-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1552,44 +1512,44 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16580/16580_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24175/24175_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24175/24175_1_650.jpg</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта линейка кремов создана Shunga Erotic art специально для оральных удовольствий.Помимо великолепных чувственных ароматов, крема этой линейки имеют отличный вкус, в буквальном смысле этого слова, крема съедобны!Крема изготавливаются только из натуральных компонентов.Оральный секс, с использованием этого продукта, принесёт ещё большее, ни с чем несравнимое удовольствие!Крем шелковистой текстуры, который даже во время интенсивной близости, сохраняет на коже восхитительный вкусЭтот маслянистый массажный крем обеспечивает нежное скольжение между телами, поднимая сексуальную энергию до самых вершин.- Легко и долго скользит- Не оставляет жирных следов- Съедобен- Оставляет на коже чувство свежести- Восхитительный вкус- Гладкий шелковистый- Состоит только их натуральных ингредиентов.Съедобный массажный крем для тела Massage Cream (шоколад) 200 мл.  Съедобный массажный крем для тела Massage Cream (шоколад) 200 мл. Модель: shunga-1096. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Почувствовать аромат легкого морского бриза можно, если у тебя в руках спрей для тела Титан. Он станет достойной альтернативой парфюму и поможет создать ощущение бодрящей свежести. Секретные компоненты спрея с легкостью добавят уверенности перед важным совещанием, афродизиаки и легкая текстура позаботятся о коже и создадут настроение после тренировки. Вечером после душа его ненавязчивые, но такие привлекательные ноты, заставят партнершу прильнут к твоему разгоряченному телу. Спрей для тела с афродизиаками ТИТАН (150 мл).  Спрей для тела с афродизиаками ТИТАН (150 мл). Модель: shtuchki-690447. Косметика, препараты. Смазки, косметика &gt; Косметика. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>150 мл</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>150</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>150 мл</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -1635,28 +1595,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Натуральное возбуждающее массажное</t>
+          <t>Спрей для тела с афродизиаками ЭГОИСТ</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-9464-1299</t>
+          <t>id-24117-1299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1672,44 +1632,44 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/9464/9464_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24117/24117_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24117/24117_2_650.jpg</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло Shunga EUPHORIA Massage Oil.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками. Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки.Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Натуральное возбуждающее массажное масло EUPHORIA (250 мл).  Натуральное возбуждающее массажное масло EUPHORIA (250 мл). Модель: shunga-1104. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Если ты предпочитаешь такие парфюмерные ноты, как мускус, техасский кедр и бергамот, то тебе стоит остановить свой выбор на спрее для тела ''Эгоист''. Он станет достойной альтернативой парфюму и поможет создать ощущение бодрящей свежести на весь день. Секретные компоненты спрея с легкостью добавят уверенности перед важным совещанием, афродизиаки и легкая текстура позаботятся о коже и создадут настроение после тренировки. Вечером после душа его ненавязчивые, но такие привлекательные ноты, заставят партнершу прильнут к твоему разгоряченному телу. Спрей для тела с афродизиаками ЭГОИСТ (150 мл).  Спрей для тела с афродизиаками ЭГОИСТ (150 мл). Модель: shtuchki-690448. Косметика, препараты. Смазки, косметика &gt; Косметика. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>250 мл</t>
+          <t>150 мл</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>150</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>250 мл</t>
+          <t>150 мл</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -1755,28 +1715,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Натуральное съедобное массажное масло</t>
+          <t>Спрей для тела с афродизиаками МАЧО</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-15881-1299</t>
+          <t>id-24116-1299</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1792,44 +1752,44 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/15881/15881_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24116/24116_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24116/24116_2_650.jpg</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чувственное удовольствие прикосновения и невероятно волнующий аромат Пьянящего шоколада накаляют вашу близость с этим сочным маслом Shunga Kissable Massage Oil, которое скользит по коже, как шелк. - Смесь сертифицированных органических растительных масел,- Натуральная добавка шоколад,- Натуральное и съедобное.Усильте удовольствие и ощущения эрогенных зон вашего партнера. Кроме того, оно абсолютно безопасно, благодаря натуральным компонентам, входящим в его состав!Применение: Нанести необходимое количество на кожу или половые органы и втирать массажными движениями. Полностью отсутствует химический процесс, используется исключительно в процессе роста растения, а не в процессе переработки. Примечание: Иногда появление масла может сопровождаться прозрачным или размытым эффектом. Это связано с естественным процессом, который зависит от атмосферных условий во время роста растений. Благодаря ингредиентам, входящим в состав, масло на 100% съедобно. Натуральное съедобное массажное масло Пьянящий шоколад 250 мл.  Натуральное съедобное массажное масло Пьянящий шоколад 250 мл. Модель: shunga-1109sg. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Легкий аромат спрея Мачо с древесно-пряными нотками станет достойной альтернативой парфюму и поможет создать ощущение бодрящей свежести. Секретные компоненты спрея с легкостью добавят уверенности перед важным совещанием, афродизиаки и легкая текстура позаботятся о коже и создадут настроение после тренировки. Вечером после душа его ненавязчивые, но такие привлекательные ноты, заставят партнершу прильнут к разгоряченному телу. Спрей для тела с афродизиаками МАЧО (150 мл).  Спрей для тела с афродизиаками МАЧО (150 мл). Модель: shtuchki-690449. Косметика, препараты. Смазки, косметика &gt; Косметика. Ароматическая продукция &gt; Для мужчин. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>250 мл</t>
+          <t>150 мл</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>150</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>250 мл</t>
+          <t>150 мл</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -1875,28 +1835,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Съедобный массажный крем для тела</t>
+          <t>Мерцающий серебристый ароматизированный</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-16581-1299</t>
+          <t>id-23114-1299</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1912,44 +1872,44 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16581/16581_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23114/23114_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23114/23114_2_650.jpg</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта линейка кремов создана Shunga Erotic art специально для оральных удовольствий.Помимо великолепных чувственных ароматов, крема этой линейки имеют отличный вкус, в буквальном смысле этого слова, крема съедобны!Крема изготавливаются только из натуральных компонентов.Оральный секс, с использованием этого продукта, принесёт ещё большее, ни с чем несравнимое удовольствие!Крем шелковистой текстуры, который даже во время интенсивной близости, сохраняет на коже восхитительный вкусЭтот маслянистый массажный крем обеспечивает нежное скольжение между телами, поднимая сексуальную энергию до самых вершин.- Легко и долго скользит- Не оставляет жирных следов- Съедобен- Оставляет на коже чувство свежести- Восхитительный вкус- Гладкий шелковистый- Состоит только их натуральных ингредиентов.Съедобный массажный крем для тела Massage Cream (груша и зеленый чай) 200 мл.  Съедобный массажный крем для тела Massage Cream (груша и зеленый чай) 200 мл. Модель: shunga-1119. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Простой способ собрать все комплименты - использовать мерцающий спрей с серебристым перламутром Звездная ночь. Он мгновенно преобразит твой образ - одно нажатие - и твои волосы, руки и декольте притянут взгляд не хуже бриллиантового колье!.Мерцающий серебристый ароматизированный спрей для тела и волос с афродизиаками Звездная ночь (150 мл).  Мерцающий серебристый ароматизированный спрей для тела и волос с афродизиаками "Звездная ночь" (150 мл). Модель: shtuchki-690450. Косметика, препараты. Смазки, косметика &gt; Косметика. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>150 мл</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>150</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>150 мл</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -1995,28 +1955,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Лубриканты</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Съедобное натуральное массажное масло</t>
+          <t>Золотистый мерцающий ароматизированный</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-20507-1299</t>
+          <t>id-23113-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -2032,44 +1992,44 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20507/20507_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23113/23113_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23113/23113_2_650.jpg</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чувственное удовольствие прикосновения и невероятно волнующий аромат Кленового сиропа накаляют вашу близость с этим сочным маслом Shunga Kissable Massage Oil, которое скользит по коже, как шелк. 100% сертифицированные органические ингредиенты100% натуральные масла холодного отжимаНежирныйНе забивает порыНе содержит минерального или животного маслаВлейте небольшое количество в ладонь и протрите руки, чтобы разогреть масло до температуры тела. При желании вы можете нагреть масло в горячей воде,чтобы касания были еще жарче. Съедобное натуральное массажное масло Shunga ORGANIKA Maple Delight (кленовое наслаждение, 240 мл).  Съедобное натуральное массажное масло Shunga ORGANIKA Maple Delight (кленовое наслаждение, 240 мл). Модель: shunga-11204. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Простой способ собрать все комплименты - использовать мерцающий спрей с золотым перламутром Соблазн. Он мгновенно преобразит твой образ - одно нажатие - и твои волосы, руки и декольте притянут взгляд не хуже бриллиантового колье!.Золотистый мерцающий ароматизированный спрей для тела и волос с афродизиаками Соблазн (150 мл).  Золотистый мерцающий ароматизированный спрей для тела и волос с афродизиаками "Соблазн" (150 мл). Модель: shtuchki-690451. Косметика, препараты. Смазки, косметика &gt; Косметика. Ароматическая продукция &gt; Для женщин. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t>240 мл</t>
+          <t>150 мл</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>150</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>240 мл</t>
+          <t>150 мл</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -2121,7 +2081,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2131,12 +2091,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Возбуждающее массажное масло Shunga</t>
+          <t>Разогревающее массажное масло "Симфония</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-24900-1299</t>
+          <t>id-23106-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -2152,44 +2112,44 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24900/24900_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23106/23106_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23106/23106_2_650.jpg</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло Shunga Erotic Massage Oil с ароматом Кокосовое волнение.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками.Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки. Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Возбуждающее массажное масло Shunga ADORABLE с ароматом кокоса (240 мл).  Возбуждающее массажное масло Shunga ADORABLE с ароматом кокоса (240 мл). Модель: shunga-1210. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Массажное масло серии ''Огонь и Лед'' - с разогревающим эффектом и вкусовой добавкой шоколада. Идеально подойдет для использования на эрогенных зонах. Используйте во время предварительных ласк, чтобы усилить ощущения и продлить наслаждение. Разогревающее массажное масло Симфония любви с ароматом шоколада (100 мл).  Разогревающее массажное масло "Симфония любви" с ароматом шоколада (100 мл). Модель: shtuchki-690455. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
-          <t>240 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>240 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -2241,7 +2201,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2251,12 +2211,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Натуральное возбуждающее массажное</t>
+          <t>Разогревающее массажное масло "Симфония</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-24901-1299</t>
+          <t>id-23110-1299</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -2272,44 +2232,44 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24901/24901_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23110/23110_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23110/23110_2_650.jpg</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло Shunga Erotic Massage Oil с ароматом Моной.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками. Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки.Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Натуральное возбуждающее массажное масло Shunga SERENITY с ароматом моной (240 мл).  Натуральное возбуждающее массажное масло Shunga SERENITY с ароматом моной (240 мл). Модель: shunga-1213. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Массажное масло серии ''Огонь и Лед'' - с разогревающим эффектом и вкусовой добавкой вишни. Идеально подойдет для использования на эрогенных зонах. Используйте во время предварительных ласк, чтобы усилить ощущения и продлить наслаждение. Разогревающее массажное масло Симфония любви с ароматом вишни (100 мл).  Разогревающее массажное масло "Симфония любви" с ароматом вишни (100 мл). Модель: shtuchki-690456. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>240 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>240 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -2361,7 +2321,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2371,12 +2331,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Натуральное массажное масло для тела</t>
+          <t>Разогревающее массажное масло "Симфония</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-24287-1299</t>
+          <t>id-23107-1299</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -2392,44 +2352,44 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24287/24287_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23107/23107_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23107/23107_2_650.jpg</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло Shunga Erotic Massage Oil с ароматом Азиатские нотки - это аромат, который Eau Zone Oils and Fragrances искал много лет. Смесь азиатских фруктов, которые выпускают специальный аромат. Вы больше нигде не найдете. Это как наш собственный рецепт.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками.Это на 100% натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки. Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Натуральное массажное масло для тела Shunga IRRESISTIBLE (азиатские нотки, 240мл).  Натуральное массажное масло для тела Shunga IRRESISTIBLE (азиатские нотки, 240мл). Модель: shunga-1218. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Массажное масло серии ''Огонь и Лед'' - с разогревающим эффектом и вкусовой добавкой ежевики. Идеально подойдет для использования на эрогенных зонах. Используйте во время предварительных ласк, чтобы усилить ощущения и продлить наслаждение. Разогревающее массажное масло Симфония любви с ароматом ежевики (100 мл).  Разогревающее массажное масло "Симфония любви" с ароматом ежевики (100 мл). Модель: shtuchki-690458. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>240 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>240 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W16" t="inlineStr"/>
@@ -2481,7 +2441,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2491,12 +2451,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Съедобное натуральное массажное масло</t>
+          <t>Охлаждающее массажное масло "Симфония</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-15882-1299</t>
+          <t>id-23102-1299</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -2512,44 +2472,44 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/15882/15882_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23102/23102_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23102/23102_2_650.jpg</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чувственное удовольствие прикосновения и невероятно волнующий аромат Миндальной сладости накаляют вашу близость с этим сочным маслом Shunga Kissable Massage Oil, которое скользит по коже, как шелк. - Смесь сертифицированных органических растительных масел,- Натуральная добавка Миндаль,- Натуральное и съедобное.Усильте удовольствие и ощущения эрогенных зон вашего партнера. Кроме того, оно абсолютно безопасно, благодаря натуральным компонентам, входящим в его состав!Применение: Нанести необходимое количество на кожу или половые органы и втирать массажными движениями. Полностью отсутствует химический процесс, используется исключительно в процессе роста растения, а не в процессе переработки. Примечание: Иногда появление масла может сопровождаться прозрачным или размытым эффектом. Это связано с естественным процессом, который зависит от атмосферных условий во время роста растений. Благодаря ингредиентам, входящим в состав, масло на 100% съедобно. Съедобное натуральное массажное масло Shunga ORGANIKA Almond Sweetness (миндальная сладость, 240 мл).  Съедобное натуральное массажное масло Shunga ORGANIKA Almond Sweetness (миндальная сладость, 240 мл). Модель: shunga-1312sg. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Массажное масло серии ''Огонь и Лед'' - с охлаждающим эффектом и натуральной вкусовой добавкой клубника. Идеально подойдет для использования на эрогенных зонах. Используйте во время предварительных ласк, чтобы усилить ощущения и продлить наслаждение. Охлаждающее массажное масло Симфония любви с ароматом клубники (100 мл).  Охлаждающее массажное масло "Симфония любви" с ароматом клубники (100 мл). Модель: shtuchki-690459. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t>240 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>240 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W17" t="inlineStr"/>
@@ -2601,7 +2561,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2611,12 +2571,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Возбуждающее масло для массажа Shunga</t>
+          <t>Охлаждающее массажное масло "Симфония</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-19950-1299</t>
+          <t>id-23103-1299</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2632,44 +2592,44 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19950/19950_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23103/23103_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23103/23103_2_650.jpg</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло Shunga Kissable Massage Oil с ароматом Яблока.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками. Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки.Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Возбуждающее масло для массажа Shunga Passion с ароматом яблока (250 мл).  Возбуждающее масло для массажа Shunga Passion с ароматом яблока (250 мл). Модель: shunga-1404. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Массажное масло серии ''Огонь и Лед'' - с охлаждающим эффектом и натуральной вкусовой добавкой черной смородины. Идеально подойдет для использования на эрогенных зонах. Используйте во время предварительных ласк, чтобы усилить ощущения и продлить наслаждение. Охлаждающее массажное масло Симфония любви с ароматом черной смородины (100 мл).  Охлаждающее массажное масло "Симфония любви" с ароматом черной смородины (100 мл). Модель: shtuchki-690460. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
-          <t>250 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>250 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -2715,13 +2675,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2731,12 +2691,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Свеча-массажное масло Aphrodisia</t>
+          <t>Охлаждающее массажное масло "Симфония</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-13915-1299</t>
+          <t>id-23105-1299</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2752,44 +2712,44 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13915/13915_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23105/23105_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23105/23105_2_650.jpg</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Создайте атмосферу романтического прикосновения. Зажгите свечу, и наполните комнату возбуждающим запахом афродизиаков. Погасите пламя, затем нанесите образовавшееся теплое (но не горячее!) масло на тело массажными движениями и ощущение блаженства вам обеспечено.Два в одном: ароматизированная свеча и массажное масло. Изготовлено из 100% натуральных масел, При горении свечи образуется теплое массажное масло, не обжигающее кожу, Делает кожу мягкой и шелковистой, Великолепный смягчитель, Длительность горения свечи  до 40 часов, Нежные и тонкие ароматы, обволакивающие тело и комнату.Эта свеча из соевого масла не содержит парафина, а значит, не содержит никаких токсичных веществ. Соевое, кокосовое и миндальное масла смягчают и ухаживают за кожей, не закупоривают поры и подходят для любого типа кожи. Свеча-массажное масло Aphrodisia (аромат лепестков розы) 170 мл.  Свеча-массажное масло Aphrodisia (аромат лепестков розы) 170 мл. Модель: shunga-274500. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Массажное масло серии ''Огонь и Лед'' - с охлаждающим эффектом и натуральной вкусовой добавкой экзотических фруктов. Идеально подойдет для использования на эрогенных зонах. Используйте во время предварительных ласк, чтобы усилить ощущения и продлить наслаждение. Охлаждающее массажное масло Симфония любви с ароматом экзотических фруктов (100 мл).  Охлаждающее массажное масло "Симфония любви" с ароматом экзотических фруктов (100 мл). Модель: shtuchki-690461. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>170 *40 г</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>170 *40</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>170 *40 г</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -2835,13 +2795,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2851,12 +2811,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Съедобный массажный крем для тела</t>
+          <t>Охлаждающее массажное масло "Симфония</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-16111-1299</t>
+          <t>id-23104-1299</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2872,44 +2832,44 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16111/16111_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23104/23104_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23104/23104_2_650.jpg</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта линейка кремов создана Shunga Erotic art специально для оральных удовольствий.Помимо великолепных чувственных ароматов, крема этой линейки имеют отличный вкус, в буквальном смысле этого слова, крема съедобны!Крема изготавливаются только из натуральных компонентов.Оральный секс, с использованием этого продукта, принесёт ещё большее, ни с чем несравнимое удовольствие!Крем шелковистой текстуры, который даже во время интенсивной близости, сохраняет на коже восхитительный вкусЭтот маслянистый массажный крем обеспечивает нежное скольжение между телами, поднимая сексуальную энергию до самых вершин.- Легко и долго скользит- Не оставляет жирных следов- Съедобен- Оставляет на коже чувство свежести- Восхитительный вкус- Гладкий шелковистый- Состоит только их натуральных ингредиентов.Съедобный массажный крем для тела Massage Cream (клубника с шампанским) 200 мл.  Съедобный массажный крем для тела Massage Cream (клубника с шампанским) 200 мл. Модель: shunga-4108. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Массажное масло серии ''Огонь и Лед'' - с охлаждающим эффектом и натуральной вкусовой добавкой карамели. Идеально подойдет для использования на эрогенных зонах. Используйте во время предварительных ласк, чтобы усилить ощущения и продлить наслаждение. Охлаждающее массажное масло Симфония любви с ароматом карамели (100 мл).  Охлаждающее массажное масло "Симфония любви" с ароматом карамели (100 мл). Модель: shtuchki-690462. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>100</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -2955,13 +2915,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2971,12 +2931,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Съедобный массажный крем для тела</t>
+          <t>Пудра для игрушек Штучки-Дрючки с</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-16112-1299</t>
+          <t>id-24347-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2992,44 +2952,44 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16112/16112_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24347/24347_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24347/24347_2_650.jpg</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта линейка кремов создана Shunga Erotic art специально для оральных удовольствий.Помимо великолепных чувственных ароматов, крема этой линейки имеют отличный вкус, в буквальном смысле этого слова, крема съедобны!Крема изготавливаются только из натуральных компонентов.Оральный секс, с использованием этого продукта, принесёт ещё большее, ни с чем несравнимое удовольствие!Крем шелковистой текстуры, который даже во время интенсивной близости, сохраняет на коже восхитительный вкусЭтот маслянистый массажный крем обеспечивает нежное скольжение между телами, поднимая сексуальную энергию до самых вершин.- Легко и долго скользит- Не оставляет жирных следов- Съедобен- Оставляет на коже чувство свежести- Восхитительный вкус- Гладкий шелковистый- Состоит только их натуральных ингредиентов.Съедобный массажный крем для тела Massage Cream (миндальная сладость) 200 мл.  Съедобный массажный крем для тела Massage Cream (миндальная сладость) 200 мл. Модель: shunga-4112. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Для правильного хранения секс-игрушек, необходимо использовать пудру, она позволит продлить им жизнь и сохранить в идеальном состоянии поверхность игрушки. Пудра для игрушек Штучки-Дрючки с ароматом папайи (90 г).  Пудра для игрушек Штучки-Дрючки с ароматом папайи (90 г). Модель: shtuchki-690470. Косметика, препараты. Смазки, косметика &gt; Очищающие средства, присыпки. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>90 г</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>90</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t>90 г</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -3075,13 +3035,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Уходовые средства эротив</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3091,12 +3051,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ароматическая соль для ванны Shunga</t>
+          <t>Пудра для игрушек Штучки-Дрючки с</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-21201-1299</t>
+          <t>id-24348-1299</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -3112,44 +3072,44 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21201/21201_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24348/24348_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24348/24348_2_650.jpg</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Пенящаяся соль для ванны с ароматом лотоса - мини версия.     100% Соль Мертвого моря     100% натуральный состав     Образует маслянистую пену     Окрашивает воду      Ароматизирует тело и помещение     Лечебные свойства. справляется с проблемами кожиСоль изготовлена из 100% натуральных минералов Мертвого моря с возбуждающим ароматом цветов лотоса, поможет вам расслабиться перед близостью в ванне, которая будет похожа на зеленую лагуну. Позвольте пузырькам ласкать вашу кожу, делая ее мягкой и привлекательной для тех самых моментов близости . . Ароматическая соль для ванны Shunga MOONLIGHT BATH Lotus Flower (75 г).  Ароматическая соль для ванны Shunga MOONLIGHT BATH Lotus Flower (75 г). Модель: shunga-6617. Косметика, препараты. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Расслабляющая ванна. Элитная продукция. Цвет: зеленый. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Для правильного хранения секс-игрушек, необходимо использовать пудру, она позволит продлить им жизнь и сохранить в идеальном состоянии поверхность игрушки. Пудра для игрушек Штучки-Дрючки с ароматом малины (90 г).  Пудра для игрушек Штучки-Дрючки с ароматом малины (90 г). Модель: shtuchki-690471. Косметика, препараты. Смазки, косметика &gt; Очищающие средства, присыпки. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
-          <t>75 г</t>
+          <t>90 г</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>90</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>75 г</t>
+          <t>90 г</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -3195,13 +3155,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3211,12 +3171,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Подарочный набор Geisha's Secret</t>
+          <t>Пудра для игрушек Штучки-Дрючки с</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-19538-1299</t>
+          <t>id-24349-1299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -3232,44 +3192,44 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19538/19538_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19538/19538_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19538/19538_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19538/19538_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24349/24349_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24349/24349_2_650.jpg</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">В набор входит:    Эротическое массажное масло Зеленый чай-10мл    Масло с афродизиаками Зеленый чай-10мл    Массажная свеча ZENITUDE-30мл    Лубрикант TOKO ORGANICA-10vk    Возбуждающий гель для влюбленных LOTUS NOIR- 7мл.Подарочный набор Geisha's Secret ОРГАНИКА Экзотический зеленый чай (5 предметов).  Подарочный набор Geisha's Secret ОРГАНИКА Экзотический зеленый чай (5 предметов). Модель: shunga-82112. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Эротические сувениры &gt; Сувениры. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Для правильного хранения секс-игрушек необходимо использовать пудру. Она позволит продлить им жизнь и сохранить в идеальном состоянии поверхность игрушки. Пудра для игрушек Штучки-Дрючки с ароматом кокосового молочка (90 г).  Пудра для игрушек Штучки-Дрючки с ароматом кокосового молочка (90 г). Модель: shtuchki-690472. Косметика, препараты. Смазки, косметика &gt; Очищающие средства, присыпки. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
-          <t>3*10 , 30 , 7 мл</t>
+          <t>90 г</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>3*10 , 30 , 7</t>
+          <t>90</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>3*10 , 30 , 7 мл</t>
+          <t>90 г</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -3295,7 +3255,7 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>массажное масло 10 мл, разогревающее масло 10 мл, массажная свеча 30 мл, лубрикант на водной основе 10 мл, возбуждающий гель для влюбленных LOTUS NOIR 7 мл</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -3315,13 +3275,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Свечи эротик</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3331,12 +3291,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Массажное масло Desire Ванильный фетиш</t>
+          <t>Натуральная массажная свеча с</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-20405-1299</t>
+          <t>id-21960-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3352,44 +3312,44 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20405/20405_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21960/21960_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21960/21960_2_650.jpg</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Массажное масло Desire Ванильный фетиш 60 мл DEMO.  Массажное масло Desire Ванильный фетиш 60 мл DEMO. Модель: shunga-demo0013. Косметика, препараты. Насадки и кольца. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Превратить своё гнёздышко в место уюта и любви или устроить своей половинке необычный эротический сюрприз  эти свечи прекрасно справятся с любой задачей. А тонкий аромат афродизиаков унесёт прочь усталость и настроит на игривый лад. Наш мастхэв!.Натуральная массажная свеча с афродизиаками (клубника и шампанское) 30 г.  Натуральная массажная свеча с афродизиаками (клубника и шампанское) 30 г. Модель: shtuchki-690753. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>60 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -3435,13 +3395,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Свечи эротик</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3451,12 +3411,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Гель для восточного массажа Erotic</t>
+          <t>Натуральная массажная свеча с</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-8674-1299</t>
+          <t>id-21953-1299</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3472,44 +3432,44 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/8674/8674_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/8674/8674_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21953/21953_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21953/21953_2_650.jpg</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Original body Glide SHUNGA Erotic Massage Gel Гель для эротического массажа телом по телу При смешивании получается почти 4 л геля В комплекте водонепроницаемая простыня Подробные инструкции на передней панели коробки, позволят вам испытать занимательное и чувственное эротическое приключение Восточный массаж телом по телу  это чрезвычайно эротическая и занимательная игра, когда обнаженные тела почти в полной невесомости скользят друг о друга. Нанесенный в большом количестве на обнаженные тела гель создает пьянящий и возбуждающий эффект. Текстура кожи становится возбуждающим средством сама по себе, и превращает касания в ласки, которые выводят за пределы воображения самых сумасшедших желаний.Идеально подходит для пар, которые стремятся добавить экзотику и развлечение в свою сексуальную жизнь. Подробная инструкция на РУССКОМ ЯЗЫКЕ в комплекте. Гель для восточного массажа Erotic Massage Gel (экзотические фрукты).  Гель для восточного массажа Erotic Massage Gel (экзотические фрукты). Модель: shunga-lh2801. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Эротические сувениры &gt; Сувениры. Аксессуары для игр &gt; Наборы и аксессуары. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Превратить своё гнёздышко в место уюта и любви или устроить своей половинке необычный эротический сюрприз  эти свечи прекрасно справятся с любой задачей. А тонкий аромат афродизиаков унесёт прочь усталость и настроит на игривый лад. Наш мастхэв!.Натуральная массажная свеча с афродизиаками (экзотические фрукты) 30 г.  Натуральная массажная свеча с афродизиаками (экзотические фрукты) 30 г. Модель: shtuchki-690754. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>2 * 250 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>2 * 250</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>2 * 250 мл</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -3535,7 +3495,7 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>две баночки геля, золотое непромокающее простыня</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -3555,13 +3515,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Свечи эротик</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3571,12 +3531,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Съедобная пудра для тела со вкусом</t>
+          <t>Натуральная массажная свеча с</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-8669-1299</t>
+          <t>id-21955-1299</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3592,44 +3552,44 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/8669/8669_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/8669/8669_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21955/21955_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21955/21955_2_650.jpg</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированная съедобная пудра для тела с ароматом и вкусом экзотических фруктов.  Превосходные ароматы Подсушивающие свойства  В комплекте кисточка из натурального пуха Не содержит сахара Не содержит глютенаПревратите вашего партнера в восхитительное лакомство, нанеся съедобную пудру на все эрогенные зоны, пощекоча пуховой кисточкой (в комплекте) и приступите к десерту. Обладает также осушающими свойствами (модифицированный крахмал), которые очень ценятся в жаркое время. Может наноситься под грудью или подмышками, чтобы отталкивать влагу и уменьшить потовыделение, или между ног, чтобы избежать раздражения из-за трения. Может также использоваться для массажа без масла. Съедобная пудра для тела со вкусом экзотических фруктов Sweet Snow.  Съедобная пудра для тела со вкусом экзотических фруктов Sweet Snow. Модель: shunga-li1705. Косметика, препараты. Смазки, косметика &gt; Косметика. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: белый. Батареек</t>
+          <t xml:space="preserve">Превратить своё гнёздышко в место уюта и любви или устроить своей половинке необычный эротический сюрприз  эти свечи прекрасно справятся с любой задачей. А тонкий аромат афродизиаков унесёт прочь усталость и настроит на игривый лад. Наш мастхэв!.Натуральная массажная свеча с афродизиаками (восточная ночь) 30 г.  Натуральная массажная свеча с афродизиаками (восточная ночь) 30 г. Модель: shtuchki-690755. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
-          <t>228 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>30</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>228 г</t>
+          <t>30 г</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -3655,7 +3615,7 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>пудра, перьевая палочка для нанесения пудры на тело</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -3675,28 +3635,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Съедобная пудра для тела со вкусом</t>
+          <t>Крем для тела с жемчужным блеском</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-8668-1299</t>
+          <t>id-22657-1299</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3712,44 +3672,44 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/8668/8668_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/8668/8668_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22657/22657_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22657/22657_2_650.jpg</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ароматизированная съедобная пудра для тела с ароматом и вкусом ВИШНИ.  Превосходные ароматы Подсушивающие свойства  В комплекте кисточка из натурального пуха Не содержит сахара Не содержит глютенаПревратите вашего партнера в восхитительное лакомство, нанеся съедобную пудру на все эрогенные зоны, пощекоча пуховой кисточкой (в комплекте) и приступите к десерту. Обладает также осушающими свойствами (модифицированный крахмал), которые очень ценятся в жаркое время. Может наноситься под грудью или подмышками, чтобы отталкивать влагу и уменьшить потовыделение, или между ног, чтобы избежать раздражения из-за трения. Может также использоваться для массажа без масла. Съедобная пудра для тела со вкусом сочной вишни Sweet Snow.  Съедобная пудра для тела со вкусом сочной вишни Sweet Snow. Модель: shunga-lk2308. Косметика, препараты. Смазки, косметика &gt; Косметика. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: белый. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Крем для тела с жемчужным блеском делает кожу очень нежной и увлажненной, а афродизиаки, входящие в его состав, окутывают чувственным и загадочным флером настраивая его обладательницу на игривый лад. Мелкие мерцающие частички на основе минералов придают коже невероятно легкое сияние. Крем для тела с жемчужным блеском Королевский Блеск (60 г).  Крем для тела с жемчужным блеском Королевский Блеск (60 г). Модель: shtuchki-690761. Косметика, препараты. Смазки, косметика &gt; Косметика. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>228 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>228 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -3775,7 +3735,7 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>пудра, перьевая палочка для нанесения пудры на тело</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
@@ -3795,28 +3755,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SHUNGA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Волшебная ванна Love Bath (фиолетовая)</t>
+          <t>Крем для тела с золотым блеском Сияние</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-12296-1299</t>
+          <t>id-22656-1299</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3832,44 +3792,44 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12296/12296_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12296/12296_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22656/22656_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22656/22656_1_650.jpg</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Благодаря данному продукту, ванная комната трансформируется в райский уголок. Вода в ванне меняет свой цвет на фиолетовый и превращается в роскошное зернистое желе, ароматизируя воздух. Густоту желе можно регулировать добавлением порошка №1 (увеличение плотности) или №2 (уменьшение плотности). Гель способствует расслаблению, делает кожу гладкой и шелковистой. Волшебная ванна Love Bath (фиолетовая).  Волшебная ванна Love Bath (фиолетовая). Модель: shunga-nc0408. Косметика, препараты. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Расслабляющая ванна. Элитная продукция. Цвет: фиолетовый. Батареек нет в комплекте. Бренд: SHUNGA. </t>
+          <t xml:space="preserve">Крем для тела с золотым блеском делает кожу очень нежной и увлажненной, а  афродизиаки, входящие в его состав, окутывают чувственным и загадочным флером, настраивая его обладательницу на игривый лад. Мелкие мерцающие частички на основе минералов придают коже невероятно легкое сияние. Крем можно использовать как хайлайтер. Крем для тела с золотым блеском Сияние Страсти (60 г).  Крем для тела с золотым блеском Сияние Страсти (60 г). Модель: shtuchki-690762. Косметика, препараты. Смазки, косметика &gt; Косметика. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Канада</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t>650 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>60</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>650 г</t>
+          <t>60 г</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -3895,7 +3855,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
-          <t xml:space="preserve">один пакетик гелеобразующего порошка, один пакетик растворяющего порошка </t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -3915,13 +3875,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SINJOYS</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3931,12 +3891,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Перезаряжаемый вибратор Sinjoys CAT</t>
+          <t>Молочная расслабляющая ванна с</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-20525-1299</t>
+          <t>id-21957-1299</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -3952,67 +3912,57 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20525/20525_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20525/20525_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20525/20525_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20525/20525_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21957/21957_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21957/21957_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21957/21957_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21957/21957_1_650.jpg</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Позволить завести себе маленького ушастого друга может каждая девушка. Особенно, когда он такой милый, мягкий и нежный. Шаловливой вибрацией Coco будет стимулировать самые чувственные места девушки. Настроение кошечки отражается в 7 вариантах. Если захотите, он может и зарычать, и помурлыкать, только сообщите ему свое желание нежным нажатием кнопки. Не забывайте использовать смазку на водной основе и обрабатывать игрушку средством для ухода! И тогда у вас будет много самых фанатических моментов! Массажер обладает функцией Сhild care  если его найдут дети, ни о чем не догадаются. Легко использовать как обычный вибромассажер для лица и шеи. Выполнен из нежнейшего силикона. Займет достойное место среди бьюти-аксессуаров и станет интересным и приятным подарком!.Перезаряжаемый вибратор Sinjoys CAT Coco (7 режимов).  Перезаряжаемый вибратор Sinjoys CAT Coco (7 режимов). Модель: sinjoys-sc03b. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибромассажеры. Цвет: розовый, золотистый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: SINJOYS. </t>
+          <t xml:space="preserve">Согласно преданиям молочные ванны делали кожу великой царицы Клеопатры шелковой и светящейся. Да и современные косметологи не отрицают факт омоложения кожи при использовании молока в уходе за ней. Принимая молочную ванну вы заботитесь о вашем организме в целом. Особенно полезно это делать при похудении, когда вы строго ограничиваете питание, а во время такой замечательной процедуры, организм получает недостающие микроэлементы. Не нужно делать этот ритуал ежедневным, достаточно будет двух раз в неделю. Перед приемом ванны обязательно примите душ в компании жесткой мочалки и скраба. Так ваша кожа будет охотнее впитывать все полезные вещества. Молочная ванна - нежнейшая пудра, которая превратит обычное принятие ванны в отдых на мягких облаках. При регулярном применении эффективно омолаживает кожу, снимает стресс и дарит умиротворение. Растворите 5 ст. ложек с горкой смеси в теплой (не более 37-38 градусов) воде. Принимайте ванную 5-20 минут. Промокните кожу полотенцем. Молочная расслабляющая ванна с перламутром и ароматом шоколада (80 г).  Молочная расслабляющая ванна с перламутром и ароматом шоколада (80 г). Модель: shtuchki-690788. Косметика, препараты. Смазки, косметика &gt; Расслабляющая ванна. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr"/>
+          <t>80 г</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>80 г</t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>21</v>
-      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4025,7 +3975,7 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>вибратор, зарядный usb-кабель</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -4045,13 +3995,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SINJOYS</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -4061,12 +4011,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Перезаряжаемый вибратор с клиторальным</t>
+          <t>Молочная расслабляющая ванна с</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-20524-1299</t>
+          <t>id-21956-1299</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -4082,67 +4032,57 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20524/20524_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20524/20524_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20524/20524_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20524/20524_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21956/21956_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21956/21956_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21956/21956_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21956/21956_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21956/21956_5_650.jpg</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Позволить завести себе маленького ушастого друга может каждая девушка. Особенно, когда он такой милый, мягкий и нежный. Шаловливой вибрацией Vivi будет стимулировать самые чувственные места девушки. Настроение кошечки отражается в 7 вариантах. Если захотите, он может и зарычать, и помурлыкать, только сообщите ему свое желание нежным нажатием кнопки. Не забывайте использовать смазку на водной основе и обрабатывать игрушку средством для ухода! И тогда у вас будет много самых фанатических моментов! Нежный клиторальный отросток заботливо передает вибрацию на самую чувствительную область. Массажер обладает функцией Сhild care  если его найдут дети, ни о чем не догадаются. Легко использовать как обычный вибромассажер для лица и шеи. Выполнен из нежнейшего силикона. Займет достойное место среди бьюти-аксессуаров и станет интересным и приятным подарком!.Перезаряжаемый вибратор с клиторальным стимулятором Sinjoys CAT Vivi (7 режимов).  Перезаряжаемый вибратор с клиторальным стимулятором Sinjoys CAT Vivi (7 режимов). Модель: sinjoys-sc04b. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибромассажеры. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый, золотистый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: SINJOYS. </t>
+          <t xml:space="preserve">Согласно преданиям молочные ванны делали кожу великой царицы Клеопатры шелковой и светящейся. Да и современные косметологи не отрицают факт омоложения кожи при использовании молока в уходе за ней. Принимая молочную ванну вы заботитесь о вашем организме в целом. Особенно полезно это делать при похудении, когда вы строго ограничиваете питание, а во время такой замечательной процедуры, организм получает недостающие микроэлементы. Не нужно делать этот ритуал ежедневным, достаточно будет двух раз в неделю. Перед приемом ванны обязательно примите душ в компании жесткой мочалки и скраба. Так ваша кожа будет охотнее впитывать все полезные вещества. Молочная ванна - нежнейшая пудра, которая превратит обычное принятие ванны в отдых на мягких облаках. При регулярном применении эффективно омолаживает кожу, снимает стресс и дарит умиротворение. Растворите 5 ст. ложек с горкой смеси в теплой (не более 37-38 градусов) воде. Принимайте ванную 5-20 минут. Промокните кожу полотенцем. Молочная расслабляющая ванна с перламутром и ароматом зефира (80 г).  Молочная расслабляющая ванна с перламутром и ароматом зефира (80 г). Модель: shtuchki-690789. Косметика, препараты. Смазки, косметика &gt; Расслабляющая ванна. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr"/>
+          <t>80 г</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>80 г</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>21</v>
-      </c>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>3.7</v>
-      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4155,7 +4095,7 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>вибратор, зарядный usb-кабель</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -4175,40 +4115,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Зажимы для сосков</t>
+          <t>Уходовые средства эротив</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Регулируемые зажимы на соски с</t>
+          <t>Ароматизированная соль для ванны с</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-26816-1299</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-22539-1299</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
         <v>99999</v>
@@ -4220,12 +4152,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26816/26816_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22539/22539_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22539/22539_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22539/22539_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22539/22539_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22539/22539_4_650.jpg</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изящные аксессуары для стимуляции сосков и усиления сексуального возбуждения. На концах зажимов имеются специальные эластичные накладки, препятствующие сильному сдавливанию и травмированию сосков. Подвески в виде ажурных украшений на цепочке дают небольшой эффект утяжеления. На каждом изделии предусмотрен регулировочный винт, позволяющий контролировать силу сдавливания сосков. Интимные аксессуары могут использоваться соло или для парных любовных игр. Изделия просты в применении. Не требуют специального ухода. Регулируемые зажимы на соски с украшением.  Регулируемые зажимы на соски с украшением. Модель: sitabella-026. БДСМ. Аксессуары, украшения для тела &gt; Бижутерия для груди. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: серебряный. Материал: металл, ПВХ. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Соль для ванн Черная смородина - новая фактурная соль, которая сделает прием ванны незабываемым. Соль наполнит все вокруг чарующим ароматом, а также окутает кожу бережной заботой и непревзойденным уходом. Лепестки цветов настроят на романтический лад. Созданная атмосфера обострит сексуальное желание и пробудит эротические фантазии.В соли содержатся 100% натуральные компоненты, обладающие возбуждающим эффектом, соль ароматизирует, окрашивает воду в восхитительный насыщенный цвет, под направленной струей воды образует пену. Ароматизированная соль для ванны с лепестками и афродизиаками (черная смородина) 200 г.  Ароматизированная соль для ванны с лепестками и афродизиаками (черная смородина) 200 г. Модель: shtuchki-690790. Косметика, препараты. Смазки, косметика &gt; Расслабляющая ванна. Цвет: фиолетовый. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -4235,29 +4167,29 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>металл, ПВХ</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr"/>
+          <t>200 г</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 г</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -4303,28 +4235,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Уходовые средства эротив</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Стимулирующий презерватив с усиками</t>
+          <t>Ароматизированная соль для ванны с</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-6399-1299</t>
+          <t>id-22540-1299</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -4340,12 +4272,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/6399/6399_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22540/22540_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22540/22540_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22540/22540_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22540/22540_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22540/22540_4_650.jpg</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками ВОЖДЬ КРАСНОКОЖИХ (1 шт).  Стимулирующий презерватив с усиками ВОЖДЬ КРАСНОКОЖИХ (1 шт). Модель: sitabella-1260. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Соль для ванн Клубника и Шампанское - новая фактурная соль, которая сделает прием ванны незабываемым. Соль наполнит все вокруг чарующим ароматом, а также окутает кожу бережной заботой и непревзойденным уходом. Лепестки цветов настроят на романтический лад. Созданная атмосфера обострит сексуальное желание и пробудит эротические фантазии.В соли содержатся 100% натуральные компоненты, обладающие возбуждающим эффектом, соль ароматизирует, окрашивает воду в восхитительный насыщенный цвет, под направленной струей воды образует пену. Ароматизированная соль для ванны с лепестками и афродизиаками (клубника и шампанское) 200 г.  Ароматизированная соль для ванны с лепестками и афродизиаками (клубника и шампанское) 200 г. Модель: shtuchki-690791. Косметика, препараты. Смазки, косметика &gt; Расслабляющая ванна. Цвет: красный. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -4363,21 +4295,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>латекс</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr"/>
+          <t>200 г</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 г</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -4403,7 +4335,7 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>1 презерватив</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -4423,28 +4355,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Уходовые средства эротив</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Стимулирующий презерватив с усиками</t>
+          <t>Ароматизированная соль для ванны с</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-13583-1299</t>
+          <t>id-22541-1299</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -4460,12 +4392,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13583/13583_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22541/22541_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22541/22541_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22541/22541_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22541/22541_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22541/22541_3_650.jpg</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками КРАСНЫЙ МОЛОДЕЦ (1 шт).  Стимулирующий презерватив с усиками КРАСНЫЙ МОЛОДЕЦ (1 шт). Модель: sitabella-1262-12. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Соль для ванн Вербена - новая фактурная соль, которая сделает прием ванны незабываемым. Соль наполнит все вокруг чарующим ароматом, а также окутает кожу бережной заботой и непревзойденным уходом. Лепестки цветов настроят на романтический лад. Созданная атмосфера обострит сексуальное желание и пробудит эротические фантазии.В соли содержатся 100% натуральные компоненты, обладающие возбуждающим эффектом, соль ароматизирует, окрашивает воду в восхитительный насыщенный цвет, под направленной струей воды образует пену. Ароматизированная соль для ванны с лепестками и афродизиаками (вербена) 200 г.  Ароматизированная соль для ванны с лепестками и афродизиаками (вербена) 200 г. Модель: shtuchki-690792. Косметика, препараты. Смазки, косметика &gt; Расслабляющая ванна. Цвет: зеленый. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -4483,21 +4415,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>латекс</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr"/>
+          <t>200 г</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 г</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -4523,7 +4455,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>1 презерватив</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4543,28 +4475,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Уходовые средства эротив</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стимулирующий презерватив с усиками </t>
+          <t>Ароматизированная соль для ванны с</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-13584-1299</t>
+          <t>id-22542-1299</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4580,12 +4512,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13584/13584_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22542/22542_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22542/22542_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22542/22542_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22542/22542_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22542/22542_2_650.jpg</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками  МЕЧ САМУРАЯ (1 шт).  Стимулирующий презерватив с усиками  МЕЧ САМУРАЯ (1 шт). Модель: sitabella-1264-12. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Соль для ванн Экзотические фрукты - новая фактурная соль, которая сделает прием ванны незабываемым. Соль наполнит все вокруг чарующим ароматом, а также окутает кожу бережной заботой и непревзойденным уходом. Лепестки цветов настроят на романтический лад. Созданная атмосфера обострит сексуальное желание и пробудит эротические фантазии.В соли содержатся 100% натуральные компоненты, обладающие возбуждающим эффектом, соль ароматизирует, окрашивает воду в восхитительный насыщенный цвет, под направленной струей воды образует пену. Ароматизированная соль для ванны с лепестками и афродизиаками (экзотические фрукты) 200 г.  Ароматизированная соль для ванны с лепестками и афродизиаками (экзотические фрукты) 200 г. Модель: shtuchki-690793. Косметика, препараты. Смазки, косметика &gt; Расслабляющая ванна. Цвет: оранжевый. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -4603,21 +4535,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>латекс</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr"/>
+          <t>200 г</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 г</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -4643,7 +4575,7 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>1 презерватив</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
@@ -4663,28 +4595,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Стимулирующий презерватив с эластичными</t>
+          <t>Натуральное твердое масло для массажа с</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-16965-1299</t>
+          <t>id-21962-1299</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4700,12 +4632,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16965/16965_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21962/21962_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21962/21962_2_650.jpg</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования.Стимулирующий презерватив с эластичными усиками ВОИН МАСАИ (1 шт).  Стимулирующий презерватив с эластичными усиками ВОИН МАСАИ (1 шт). Модель: sitabella-1266-12. Презервативы. Презервативы &gt; С шариками и усиками. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Массажная плитка, также имеющая название твёрдый крем. С виду больше похожа на вкуснопахнущее аппетитное печенье, но стоит ей прикоснуться к коже  она начинает медленно таять как M&amp;Ms, только не во рту, а в руках. Плитка состоит из твёрдых и жидких масел, обогащена витаминами ее можно использовать для эротического массажа или как уход за кожей.Плитка экономична в использовании.Наибольший эффект ухода достигается при использовании на влажную кожу!.Натуральное твердое масло для массажа с ароматом сочной дыни (20 г).  Натуральное твердое масло для массажа с ароматом сочной дыни (20 г). Модель: shtuchki-690794. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -4723,21 +4655,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>натуральный латекс</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr"/>
+          <t>20 г</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -4763,7 +4695,7 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>1 презерватив</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -4783,28 +4715,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Стимулирующий презерватив с усиками</t>
+          <t>Натуральное твердое масло для массажа с</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-6400-1299</t>
+          <t>id-21954-1299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4820,12 +4752,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/6400/6400_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21954/21954_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21954/21954_2_650.jpg</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками ЯРОСТЬ НОРМАННА (1 шт).  Стимулирующий презерватив с усиками ЯРОСТЬ НОРМАННА (1 шт). Модель: sitabella-1267. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Есть массажные масла, массажные свечи, а есть массажные плитки. С виду они больше похожи на вкуснопахнущее аппетитное печенье, но стоит им прикоснуться к коже  они начинают медленно таять как M&amp;Ms, только не во рту, а в руках. Эффект просто потрясающий! Попробуйте и ваше сердце растает от нежности вместе с этими плитками.Плитка экономична в использовании.Наибольший эффект ухода достигается при использовании на влажную кожу!.Натуральное твердое масло для массажа с ароматом капучино (20 г).  Натуральное твердое масло для массажа с ароматом капучино (20 г). Модель: shtuchki-690796. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4843,21 +4775,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>латекс</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr"/>
+          <t>20 г</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -4883,7 +4815,7 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>1 презрватив</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -4903,28 +4835,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Стимулирующий презерватив Sitabella с</t>
+          <t>Натуральное твердое масло для массажа с</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-2427-1299</t>
+          <t>id-21961-1299</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -4940,12 +4872,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2427/2427_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21961/21961_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21961/21961_2_650.jpg</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ситабелла - один высококачественный презерватив с накопителем из гипоаллергенного латекса с ободком и тремя длинными двойными усиками и любрикант на силиконовой основе. Стимулирующий презерватив Sitabella с усиками ТАЙФУН (1 шт).  Стимулирующий презерватив Sitabella с усиками ТАЙФУН (1 шт). Модель: sitabella-1279. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Есть массажные масла, массажные свечи, а есть массажные плитки. С виду они больше похожи на вкуснопахнущее аппетитное печенье, но стоит им прикоснуться к коже  они начинают медленно таять как M&amp;Ms, только не во рту, а в руках. Эффект просто потрясающий! Попробуйте, и ваше сердце растает от нежности вместе с этими плитками.Плитка экономична в использовании.Наибольший эффект ухода достигается при использовании на влажную кожу!.Натуральное твердое масло для массажа с ароматом восточных пряностей (20 г).  Натуральное твердое масло для массажа с ароматом восточных пряностей (20 г). Модель: shtuchki-690797. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -4963,21 +4895,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>латекс</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr"/>
+          <t>20 г</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>20 г</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -5023,28 +4955,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Насадки на член</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Стимулирующий ароматизированный</t>
+          <t>Реалистичная насадка для удлинения</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-13427-1299</t>
+          <t>id-27822-1299</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -5060,12 +4992,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13427/13427_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27822/27822_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27822/27822_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27822/27822_3_650.jpg</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий ароматизированный презерватив с усиками СЕКРЕТ АМАРЕТТО (1 шт).  Стимулирующий ароматизированный презерватив с усиками СЕКРЕТ АМАРЕТТО (1 шт). Модель: sitabella-1283. Презервативы. Презервативы &gt; С шариками и усиками. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Удлиняющая насадка с ярко выраженной головкой и венками для сумасшедших оргазмов партнерши! Насадка надевает на пенис и имитирует огромный член. Сделана насадка из реалистичного материала, максимально напоминающего кожу человека. Реалистичная насадка для удлинения члена (19 см).  Реалистичная насадка для удлинения члена (19 см). Модель: shtuchki-690903. Секс-игрушки. Насадки и кольца &gt; Удлиняющие и расширяющие насадки. Насадки и кольца &gt; Без вибрации. Цвет: телесный. Материал: SoftSkin (вторая кожа). Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -5075,17 +5007,17 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>натуральный латекс</t>
+          <t>SoftSkin (вторая кожа)</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -5102,9 +5034,15 @@
       </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
+      <c r="Y38" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>19</v>
+      </c>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
@@ -5143,28 +5081,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Стимулирующий ароматизированный</t>
+          <t>Массажная свеча ШОКОЛАДНАЯ ПОМАДКА 25</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-13428-1299</t>
+          <t>id-27396-1299</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -5180,12 +5118,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13428/13428_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27396/27396_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27396/27396_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27396/27396_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27396/27396_4_650.jpg</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий ароматизированный презерватив с усиками Ванильная орхидея (1 шт).  Стимулирующий ароматизированный презерватив с усиками Ванильная орхидея (1 шт). Модель: sitabella-1284. Презервативы. Презервативы &gt; С шариками и усиками. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Верхние ноты - масло, сахар.Сердце аромата - крем, шоколад.Базовые ноты - ваниль, грецкие орехи.Нотки тёплого, изысканного шоколада, которые нежно обволакивают сливками, ванилью и орешками! Уютный аромат, который обязательно согреет любимых. Массажная свеча ШОКОЛАДНАЯ ПОМАДКА (25 г).  Массажная свеча ШОКОЛАДНАЯ ПОМАДКА (25 г). Модель: shtuchki-697011. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Аксессуары для игр &gt; Наборы и аксессуары. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -5203,21 +5141,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>натуральный латекс</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr"/>
+          <t>25 г</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>25 г</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -5263,28 +5201,28 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Стимулирующий классический презерватив</t>
+          <t>Массажная свеча СВЕЖЕСВАРЕННЫЙ КОФЕ 25</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-2422-1299</t>
+          <t>id-27398-1299</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -5300,12 +5238,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2422/2422_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27398/27398_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27398/27398_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27398/27398_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27398/27398_4_650.jpg</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Презерватив Sitabella-Классика с эластичными шариками - высококачественный презерватив из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Способствует усилению возбуждения. Это универсальный презерватив, который сочетает в себе высокую эластичность и максимальную безопасность. Предназначен только для одноразового использования!.Стимулирующий классический презерватив Sitabella с шариками (1 шт.).  Стимулирующий классический презерватив Sitabella с шариками (1 шт.). Модель: sitabella-1400. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Верхние ноты - кофе.Сердце аромата - сахар.Базовые ноты - сливки, кофе.Сонное утро, ты спускаешь свои босые ноги на прохладный пол и неспешно идёшь варить свой любимый ароматнейший кофе! Ты вдыхаешь этот терпкий аромат и понимаешь - твоё идеальное утро начинается именно так!.Массажная свеча СВЕЖЕСВАРЕННЫЙ КОФЕ (25 г).  Массажная свеча СВЕЖЕСВАРЕННЫЙ КОФЕ (25 г). Модель: shtuchki-697015. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Аксессуары для игр &gt; Наборы и аксессуары. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -5323,21 +5261,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>латекс</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr"/>
+          <t>25 г</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>25 г</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -5383,28 +5321,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Стимулирующий презерватив с</t>
+          <t>Массажная свеча ХЛОПОК И ИРИС (25 г)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-2421-1299</t>
+          <t>id-27397-1299</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -5420,12 +5358,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2421/2421_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27397/27397_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27397/27397_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27397/27397_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27397/27397_5_650.jpg</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Презерватив Sitabella-Продлевающий эффект с эластичными шариками - высококачественный презерватив из гипоаллергенного латекса, с накопителем, в смазке с продлевающим эффектом, увеличивающей длительность полового акта и обладающей смягчающим действием на кожу и слизистые оболочки. Это универсальный презерватив, который сочетает в себе высокую эластичность и максимальную безопасность. Предназначен только для одноразового использования!.Стимулирующий презерватив с продлевающим эффектом и шариками Sitabella (1 шт).  Стимулирующий презерватив с продлевающим эффектом и шариками Sitabella (1 шт). Модель: sitabella-1402. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Верхние ноты - пудра, озон.Сердце аромата - цветки хлопка, ландыш.Базовые ноты - фиалка, белый мускус.Дуновение легкого, горного, свежего воздуха. Твои локоны развиваются на ветру. . ощущение полной свободы. . Ты вдыхаешь этот свежий аромат с воздушными нотками озона и пудры и ощущаешь этот невероятный оттенок ириса, тюлбпанов и цветков хлопка, ты в состоянии тотального счастья!.Массажная свеча ХЛОПОК И ИРИС (25 г).  Массажная свеча ХЛОПОК И ИРИС (25 г). Модель: shtuchki-697020. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Аксессуары для игр &gt; Наборы и аксессуары. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -5443,21 +5381,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>латекс</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr"/>
+          <t>25 г</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>25 г</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -5503,28 +5441,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Стимулирующий презерватив Sitabella с</t>
+          <t>Кофе любви молотый ЖЕЛАНИЕ (29 г)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-2415-1299</t>
+          <t>id-23750-1299</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5540,12 +5478,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/2415/2415_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23750/23750_1_650.jpg</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования. Стимулирующий презерватив Sitabella с усиками с ароматом клубники (1 шт).  Стимулирующий презерватив Sitabella с усиками с ароматом клубники (1 шт). Модель: sitabella-1403. Презервативы. Презервативы &gt; С шариками и усиками. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">О том, что Кофе - это напиток, который даёт заряд бодрости и помогает проснуться, знают все. Но кофе бренда Штучки-Дрючки, помогает не только в этом, он действует как сильный афродизиак: раскрепощает и усиливает желание, а входящая в состав продукта гуарана эффективно тонизирует и восстанавливает силы организма.Состав: арабика 50%, робуста 50%, гуарана. Кофе любви молотый ЖЕЛАНИЕ (29 г).  Кофе любви молотый ЖЕЛАНИЕ (29 г). Модель: shtuchki-699937. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5563,21 +5501,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>латекс</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr"/>
+          <t>29 г</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>29 г</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -5623,28 +5561,28 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Возбуждающие средства</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Стимулирующий презерватив с усиками</t>
+          <t>Кофе любви молотый ВОЗБУЖДЕНИЕ (29 г)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-21606-1299</t>
+          <t>id-23749-1299</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5660,12 +5598,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21606/21606_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23749/23749_1_650.jpg</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками НОЧНАЯ КОРРИДА (1 шт).  Стимулирующий презерватив с усиками НОЧНАЯ КОРРИДА (1 шт). Модель: sitabella-1406. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">О том, что Кофе - это напиток, который даёт заряд бодрости и помогает проснуться, знают все. Но кофе бренда Штучки-Дрючки, помогает не только в этом, он действует как сильный афродизиак: раскрепощает и усиливает желание, а входящая в состав продукта муира пуама, эффективно снимает излишнее напряжение, помогает расслабиться и получать удовольствие от эротических игр.Состав: арабика 50%, робуста 50%, муира пуама. Кофе любви молотый ВОЗБУЖДЕНИЕ (29 г).  Кофе любви молотый ВОЗБУЖДЕНИЕ (29 г). Модель: shtuchki-699938. Косметика, препараты. Препараты и возбудители &gt; Возбуждающие средства для женщин. Препараты и возбудители &gt; Возбуждающие средства для мужчин. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5683,21 +5621,21 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>натуральный латекс</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr"/>
+          <t>29 г</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>29 г</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -5723,7 +5661,7 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>1 шт</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -5743,13 +5681,13 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5759,12 +5697,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Стимулирующий презерватив с эластичными</t>
+          <t>Ролевая игра в стиле БДСМ Накажи Меня</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-19530-1299</t>
+          <t>id-22653-1299</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -5780,12 +5718,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19530/19530_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22653/22653_3_650.jpg</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с эластичными усиками Классика чувств (1 шт).  Стимулирующий презерватив с эластичными усиками Классика чувств (1 шт). Модель: sitabella-1412bx. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс, силиконовая смазка. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Мини-версия игры Накажи меня нежно - то, что нужно, если ты давно поглядываешь в сторону БДСМ, но стесняешься. Если хочется добавить огня в секс, но не хватет идей, а все твои фантазии сводятся к костюму супергероя или кошечки. Внутри коробки ты найдешь карточки со сценариями, которые помогут тебе определиться с ролью и не бояться экспериментов, а также тебя ждет небольшой подарок. Ролевая игра в стиле БДСМ Накажи Меня Нежно.  Ролевая игра в стиле БДСМ Накажи Меня Нежно. Модель: shtuchki-699943. Фанты. БДСМ товары и фетиш &gt; Аксессуары. Аксессуары для игр &gt; Эротические игры. Эротические сувениры &gt; Игры для взрослых. Материал: эластичный TPE. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5805,7 +5743,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>латекс, силиконовая смазка</t>
+          <t>эластичный TPE</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -5820,17 +5758,33 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
+      <c r="W44" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X44" t="n">
+        <v>6.93</v>
+      </c>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
+      <c r="AB44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>9.9</v>
+      </c>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>универсальный (растягивается)</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>универсальный (растягивается)</t>
+        </is>
+      </c>
       <c r="AH44" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5843,7 +5797,7 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>1 шт</t>
+          <t>карточки со сценариями для него, карточки со сценариями для нее, эрекционное кольцо</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
@@ -5863,28 +5817,28 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>ШТУЧКИ ДРЮЧКИ</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Стимулирующий презерватив с усиками</t>
+          <t>Шоколадный мини-пенис со вкусом</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-20434-1299</t>
+          <t>id-24804-1299</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -5900,12 +5854,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20434/20434_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24804/24804_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24804/24804_2_650.jpg</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками ЖГУЧИЙ МАЧО (1 шт).  Стимулирующий презерватив с усиками ЖГУЧИЙ МАЧО (1 шт). Модель: sitabella-2001. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">.Шоколадный мини-пенис со вкусом апельсина.  Шоколадный мини-пенис со вкусом апельсина. Модель: shtuchki-699968. Приколы. Эротические сувениры &gt; Сувениры. Цвет: коричневый. Материал: молочный шоколад. Батареек нет в комплекте. Бренд: ШТУЧКИ ДРЮЧКИ. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -5925,7 +5879,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>латекс</t>
+          <t>молочный шоколад</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -5940,11 +5894,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
+      <c r="W45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3.025</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>8</v>
+      </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
@@ -5956,14 +5920,24 @@
           <t xml:space="preserve">. </t>
         </is>
       </c>
-      <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr"/>
-      <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="inlineStr"/>
+      <c r="AI45" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>19</v>
+      </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>1 презерватив</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -5983,13 +5957,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Наручники эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -5999,24 +5973,16 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Черные широкие манжеты из натуральной</t>
+          <t>Массажное масло Excitation Импульс.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-16242-1299</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-15883-1299</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>99999</v>
@@ -6028,44 +5994,44 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16242/16242_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15883/15883_1_650.jpg</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изготавливаются из натуральной кожи с велюровой подкладой. При изготовлении использована фурнитура с никелевым покрытием. Между собой имею неразъёмное соединение. Не нарушают кровообращение, надёжно фиксируют запястья. Расстегнуть самостоятельно практически невозможно. Размер универсальный. Черные широкие манжеты из натуральной кожи.  Черные широкие манжеты из натуральной кожи. Модель: sitabella-3055-1. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Массажное масло Shunga Excitation Massage Oil с ароматом Апельсина.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками. Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки.Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Массажное масло Excitation Импульс. Апельсин (250 мл).  Массажное масло Excitation Импульс. Апельсин (250 мл). Модель: shunga-1003sg. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>натуральная кожа, металл</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr"/>
+          <t>250 мл</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>250 мл</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -6111,13 +6077,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -6127,24 +6093,16 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Кожаные оковы на ноги с цепью</t>
+          <t>Съедобный массажный крем для тела</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-12798-1299</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-16579-1299</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>99999</v>
@@ -6156,44 +6114,44 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12798/12798_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16579/16579_1_650.jpg</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оковы. Изготавливаются из натуральной кожи с велюровой подкладкой. При изготовлении использована фурнитура с никелевым покрытием. Между слоем основы и подкладкой проложена мягкая прокладка. Соединяются между собой цепочкой длиной 35 см с двумя карабинами на концах. Не нарушают кровообращение, надёжно фиксируются на щиколотках с помощью двух ремешков. Размер универсальный. Кожаные оковы на ноги с цепью.  Кожаные оковы на ноги с цепью. Модель: sitabella-3070-1. БДСМ. БДСМ товары и фетиш &gt; Кандалы, фиксаторы на ноги. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Эта линейка кремов создана Shunga Erotic art специально для оральных удовольствий.Помимо великолепных чувственных ароматов, крема этой линейки имеют отличный вкус, в буквальном смысле этого слова, крема съедобны!Крема изготавливаются только из натуральных компонентов.Оральный секс, с использованием этого продукта, принесёт ещё большее, ни с чем несравнимое удовольствие!Крем шелковистой текстуры, который даже во время интенсивной близости, сохраняет на коже восхитительный вкусЭтот маслянистый массажный крем обеспечивает нежное скольжение между телами, поднимая сексуальную энергию до самых вершин.- Легко и долго скользит- Не оставляет жирных следов- Съедобен- Оставляет на коже чувство свежести- Восхитительный вкус- Гладкий шелковистый- Состоит только их натуральных ингредиентов.Съедобный массажный крем для тела Massage Cream с ароматом МАЛИНЫ (200 мл).  Съедобный массажный крем для тела Massage Cream с ароматом МАЛИНЫ (200 мл). Модель: shunga-1010. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>натуральная кожа, металл</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -6239,13 +6197,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -6255,24 +6213,16 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Черная кожаная маска кошка</t>
+          <t>Масло массажное для тела Shunga</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-20042-1299</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-20510-1299</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
         <v>99999</v>
@@ -6284,44 +6234,44 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20042/20042_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20510/20510_1_650.jpg</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изготовлена из натуральной кожи с велюровой подкладой. Используется никелированная фурнитура. Черная кожаная маска кошка.  Черная кожаная маска кошка. Модель: sitabella-3087-1. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Массажное масло Shunga Kissable Massage Oil с ароматом Азиатские нотки - это аромат, который Eau Zone Oils and Fragrances искал много лет. Смесь азиатских фруктов, которые выпускают специальный аромат. Вы больше нигде не найдете. Это как наш собственный рецепт.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками.Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки. Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Масло массажное для тела Shunga Irresistible Азиатские нотки (250 мл).  Масло массажное для тела Shunga Irresistible Азиатские нотки (250 мл). Модель: shunga-10184. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>натуральная кожа, металл</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr"/>
+          <t>250 мл</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>250 мл</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -6367,13 +6317,13 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -6383,24 +6333,16 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Красная кожаная маска кошка</t>
+          <t>Съедобный массажный крем для тела</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-20043-1299</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-16580-1299</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>99999</v>
@@ -6412,44 +6354,44 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20043/20043_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16580/16580_1_650.jpg</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изготовлена из натуральной кожи с велюровой подкладой. Используется никелированная фурнитура. Красная кожаная маска кошка.  Красная кожаная маска кошка. Модель: sitabella-3087-2. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: красный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Эта линейка кремов создана Shunga Erotic art специально для оральных удовольствий.Помимо великолепных чувственных ароматов, крема этой линейки имеют отличный вкус, в буквальном смысле этого слова, крема съедобны!Крема изготавливаются только из натуральных компонентов.Оральный секс, с использованием этого продукта, принесёт ещё большее, ни с чем несравнимое удовольствие!Крем шелковистой текстуры, который даже во время интенсивной близости, сохраняет на коже восхитительный вкусЭтот маслянистый массажный крем обеспечивает нежное скольжение между телами, поднимая сексуальную энергию до самых вершин.- Легко и долго скользит- Не оставляет жирных следов- Съедобен- Оставляет на коже чувство свежести- Восхитительный вкус- Гладкий шелковистый- Состоит только их натуральных ингредиентов.Съедобный массажный крем для тела Massage Cream (шоколад) 200 мл.  Съедобный массажный крем для тела Massage Cream (шоколад) 200 мл. Модель: shunga-1096. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>натуральная кожа, металл</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -6495,13 +6437,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Кляпы эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -6511,24 +6453,16 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Кляп с красным ремнем из натуральной</t>
+          <t>Натуральное возбуждающее массажное</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-19695-1299</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-9464-1299</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>99999</v>
@@ -6540,44 +6474,44 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19695/19695_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/9464/9464_1_650.jpg</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ремешок изготовлен из натуральной кожи красного цвета. Никелированная пряжка. Шар изготовлен из ПВХ. Кляп с красным ремнем из натуральной кожи.  Кляп с красным ремнем из натуральной кожи. Модель: sitabella-3091. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черный с красным. Материал: ПВХ, натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Массажное масло Shunga EUPHORIA Massage Oil.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками. Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки.Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Натуральное возбуждающее массажное масло EUPHORIA (250 мл).  Натуральное возбуждающее массажное масло EUPHORIA (250 мл). Модель: shunga-1104. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>ПВХ, натуральная кожа, металл</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr"/>
+          <t>250 мл</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>250 мл</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -6623,13 +6557,13 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Кляпы эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -6639,24 +6573,16 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Открытый кляп-кольцо из черной</t>
+          <t>Натуральное съедобное массажное масло</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-12791-1299</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-15881-1299</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>99999</v>
@@ -6668,44 +6594,44 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12791/12791_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15881/15881_1_650.jpg</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ремешок изготовлен из натуральной кожи. Пряжка и кольцо (диаметром 45-50 мм) никелированные. Размер универсальный. Открытый кляп-кольцо из черной натуральной кожи.  Открытый кляп-кольцо из черной натуральной кожи. Модель: sitabella-3092-1. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Чувственное удовольствие прикосновения и невероятно волнующий аромат Пьянящего шоколада накаляют вашу близость с этим сочным маслом Shunga Kissable Massage Oil, которое скользит по коже, как шелк. - Смесь сертифицированных органических растительных масел,- Натуральная добавка шоколад,- Натуральное и съедобное.Усильте удовольствие и ощущения эрогенных зон вашего партнера. Кроме того, оно абсолютно безопасно, благодаря натуральным компонентам, входящим в его состав!Применение: Нанести необходимое количество на кожу или половые органы и втирать массажными движениями. Полностью отсутствует химический процесс, используется исключительно в процессе роста растения, а не в процессе переработки. Примечание: Иногда появление масла может сопровождаться прозрачным или размытым эффектом. Это связано с естественным процессом, который зависит от атмосферных условий во время роста растений. Благодаря ингредиентам, входящим в состав, масло на 100% съедобно. Натуральное съедобное массажное масло Пьянящий шоколад 250 мл.  Натуральное съедобное массажное масло Пьянящий шоколад 250 мл. Модель: shunga-1109sg. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>натуральная кожа, металл</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr"/>
+          <t>250 мл</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>250 мл</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -6751,13 +6677,13 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Кляпы эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -6767,24 +6693,16 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Красный кожаный кляп X-Desire</t>
+          <t>Съедобный массажный крем для тела</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-21442-1299</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-16581-1299</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>99999</v>
@@ -6796,44 +6714,44 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21442/21442_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16581/16581_1_650.jpg</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кляп из натуральной кожи на ремешках регулируемого размера. При изготовлении использована фурнитура с никелевым покрытием. Красный кожаный кляп X-Desire.  Красный кожаный кляп X-Desire. Модель: sitabella-3093-2. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: красный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Эта линейка кремов создана Shunga Erotic art специально для оральных удовольствий.Помимо великолепных чувственных ароматов, крема этой линейки имеют отличный вкус, в буквальном смысле этого слова, крема съедобны!Крема изготавливаются только из натуральных компонентов.Оральный секс, с использованием этого продукта, принесёт ещё большее, ни с чем несравнимое удовольствие!Крем шелковистой текстуры, который даже во время интенсивной близости, сохраняет на коже восхитительный вкусЭтот маслянистый массажный крем обеспечивает нежное скольжение между телами, поднимая сексуальную энергию до самых вершин.- Легко и долго скользит- Не оставляет жирных следов- Съедобен- Оставляет на коже чувство свежести- Восхитительный вкус- Гладкий шелковистый- Состоит только их натуральных ингредиентов.Съедобный массажный крем для тела Massage Cream (груша и зеленый чай) 200 мл.  Съедобный массажный крем для тела Massage Cream (груша и зеленый чай) 200 мл. Модель: shunga-1119. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>натуральная кожа, металл</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -6879,13 +6797,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Кляпы эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -6895,24 +6813,16 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Кляп из плетеной натуральной кожи</t>
+          <t>Съедобное натуральное массажное масло</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-17107-1299</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-20507-1299</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>99999</v>
@@ -6924,44 +6834,44 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17107/17107_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17107/17107_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20507/20507_2_650.jpg</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кляп обтянут лентами из натуральной кожи. Ремешок также выполнен из натуральной кожи. Кляп из плетеной натуральной кожи.  Кляп из плетеной натуральной кожи. Модель: sitabella-3094-1. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Чувственное удовольствие прикосновения и невероятно волнующий аромат Кленового сиропа накаляют вашу близость с этим сочным маслом Shunga Kissable Massage Oil, которое скользит по коже, как шелк. 100% сертифицированные органические ингредиенты100% натуральные масла холодного отжимаНежирныйНе забивает порыНе содержит минерального или животного маслаВлейте небольшое количество в ладонь и протрите руки, чтобы разогреть масло до температуры тела. При желании вы можете нагреть масло в горячей воде,чтобы касания были еще жарче. Съедобное натуральное массажное масло Shunga ORGANIKA Maple Delight (кленовое наслаждение, 240 мл).  Съедобное натуральное массажное масло Shunga ORGANIKA Maple Delight (кленовое наслаждение, 240 мл). Модель: shunga-11204. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>натуральная кожа, металл</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr"/>
+          <t>240 мл</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>240 мл</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -7007,13 +6917,13 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -7023,24 +6933,16 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ошейник с шипами на поводке</t>
+          <t>Возбуждающее массажное масло Shunga</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-4571-1299</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-24900-1299</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>99999</v>
@@ -7052,44 +6954,44 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/4571/4571_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4571/4571_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24900/24900_1_650.jpg</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изготовлен из натуральной кожи с велюровой подкладкой. При изготовлении использована никелированная фурнитура. Ширина ошейника 20 мм, длина шипов 25 мм. Размер универсальный, регулируется при помощи кнопок. Один из основных атрибутов BDSM. Ошейник с шипами на поводке.  Ошейник с шипами на поводке. Модель: sitabella-3103-1. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Массажное масло Shunga Erotic Massage Oil с ароматом Кокосовое волнение.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками.Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки. Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Возбуждающее массажное масло Shunga ADORABLE с ароматом кокоса (240 мл).  Возбуждающее массажное масло Shunga ADORABLE с ароматом кокоса (240 мл). Модель: shunga-1210. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>натуральная кожа, металл</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr"/>
+          <t>240 мл</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>240 мл</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -7115,7 +7017,7 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>ошейник, цепь-поводок</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -7135,13 +7037,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -7151,24 +7053,16 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Черный кожаный ошейник с цепью-поводком</t>
+          <t>Натуральное возбуждающее массажное</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-20044-1299</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-24901-1299</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>99999</v>
@@ -7180,44 +7074,44 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20044/20044_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20044/20044_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24901/24901_1_650.jpg</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Черный ошейник из натуральной кожи с металлическим украшением с отстегивающимся поводком в виде цепи. Черный кожаный ошейник с цепью-поводком.  Черный кожаный ошейник с цепью-поводком. Модель: sitabella-3117-1. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный, металл. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Массажное масло Shunga Erotic Massage Oil с ароматом Моной.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками. Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки.Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Натуральное возбуждающее массажное масло Shunga SERENITY с ароматом моной (240 мл).  Натуральное возбуждающее массажное масло Shunga SERENITY с ароматом моной (240 мл). Модель: shunga-1213. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>натуральная кожа, металл</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr"/>
+          <t>240 мл</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>240 мл</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -7263,40 +7157,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Кожаное боди харнес с креплением для</t>
+          <t>Съедобное натуральное массажное масло</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-12786-1299</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-15882-1299</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>99999</v>
@@ -7308,44 +7194,44 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12786/12786_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15882/15882_2_650.jpg</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изготовлена из натуральной кожи. При изготовлении использована никелированная фурнитура. Ширина ремешков 20 мм. Кожаное боди харнес с креплением для фаллоса.  Кожаное боди харнес с креплением для фаллоса. Модель: sitabella-3130-1. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: черный. Материал: натуральная кожа, искусственная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Чувственное удовольствие прикосновения и невероятно волнующий аромат Миндальной сладости накаляют вашу близость с этим сочным маслом Shunga Kissable Massage Oil, которое скользит по коже, как шелк. - Смесь сертифицированных органических растительных масел,- Натуральная добавка Миндаль,- Натуральное и съедобное.Усильте удовольствие и ощущения эрогенных зон вашего партнера. Кроме того, оно абсолютно безопасно, благодаря натуральным компонентам, входящим в его состав!Применение: Нанести необходимое количество на кожу или половые органы и втирать массажными движениями. Полностью отсутствует химический процесс, используется исключительно в процессе роста растения, а не в процессе переработки. Примечание: Иногда появление масла может сопровождаться прозрачным или размытым эффектом. Это связано с естественным процессом, который зависит от атмосферных условий во время роста растений. Благодаря ингредиентам, входящим в состав, масло на 100% съедобно. Съедобное натуральное массажное масло Shunga ORGANIKA Almond Sweetness (миндальная сладость, 240 мл).  Съедобное натуральное массажное масло Shunga ORGANIKA Almond Sweetness (миндальная сладость, 240 мл). Модель: shunga-1312sg. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>натуральная кожа, искусственная кожа, металл</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr"/>
+          <t>240 мл</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>240 мл</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -7371,7 +7257,7 @@
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>боди, штырек для крепления фаллоса-насадки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
@@ -7391,40 +7277,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Универсальные страпон-трусики для</t>
+          <t>Возбуждающее масло для массажа Shunga</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-12780-1299</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-19950-1299</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>99999</v>
@@ -7436,44 +7314,44 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12780/12780_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12780/12780_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12780/12780_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19950/19950_1_650.jpg</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Страпон-трусики изготовлены из натуральной кожи. При производстве используется никелированная фурнитура. Размер регулируется ремешками, которые крепятся на бёдрах (от 42 до 52 размера). В комплект входит съёмный пластиковый плаг для насадок, съёмный фаллоимитатор, а также съёмная анальная пробка. Подходит для использования, как мужчиной, так и женщиной. Универсальные страпон-трусики для тройного проникновения Vac-U-Lock фантазия.  Универсальные страпон-трусики для тройного проникновения Vac-U-Lock фантазия. Модель: sitabella-3152-1. Секс-игрушки. Страпоны и фаллопротезы &gt; Трусики и насадки. Страпоны и фаллопротезы &gt; Для двойного и тройного проникновения. Цвет: черный с красным. Материал: натуральный латекс, натуральная кожа. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Массажное масло Shunga Kissable Massage Oil с ароматом Яблока.    100% натуральные масла холодного отжима    Витамин Е (антиоксидант)    Без жирных остатков    Не забивает поры    Нет минерального или животного маслаМягкость и шелковистость этого масла с приятным скользящим эффектом на коже вызывает ощущение полного восторга. Сексуальное желание нарастает, и вы готовы к любви. Получите взаимное удовольствие от чувственного эротического массажа с использованием нашей эксклюзивной смеси масел холодного отжима, тщательно отобранных за свои стимулирующие и придающие энергию свойства.Масло легко скользит по коже, не оставляя жирных ощущений, в то время как различные экзотические ароматы поднимут ваши чувства до вершин возбуждения. . Идеально подходит для того, чтобы насладиться расслабляющим массажем или сделать его, совместив с обволакивающими обольстительными ласками. Это на 100 % натуральное масло с упоительными ароматами, легко скользит по коже, не оставляя жирной пленки.Запах массажному маслу придают эфирные масла и отдушки, что в отличие от большей части другой продукции SHUNGA, ароматизированной вкусовыми добавками, делает его НЕСЪЕДОБНЫМ. Возбуждающее масло для массажа Shunga Passion с ароматом яблока (250 мл).  Возбуждающее масло для массажа Shunga Passion с ароматом яблока (250 мл). Модель: shunga-1404. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>натуральный латекс, натуральная кожа</t>
-        </is>
-      </c>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr"/>
+          <t>250 мл</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>250 мл</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -7499,7 +7377,7 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>страпон-трусики, штырек, вагинальный фаллос, анальная пробка</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -7519,40 +7397,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Красный страпон-трусики для тройного</t>
+          <t>Свеча-массажное масло Aphrodisia</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-27362-1299</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-13915-1299</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
         <v>99999</v>
@@ -7564,44 +7434,44 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27362/27362_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13915/13915_1_650.jpg</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изготовлены из натуральной кожи. При производстве используется никелированная фурнитура. Размер регулируется ремешками, которые крепятся на бёдрах (от 42 до 50 размера). В комплект входит съёмный пластиковый плаг для насадок (длина 68 мм), съёмный фаллоимитатор (длина 80 мм, диаметр 35 мм), а так  же съёмная анальная пробка (длина 85 мм, диаметр 22 мм). Подходит для использования, как мужчиной, так и женщиной. Красный страпон-трусики для тройного проникновения.  Красный страпон-трусики для тройного проникновения. Модель: sitabella-3152-2. Секс-игрушки. Страпоны и фаллопротезы &gt; Трусики и насадки. Страпоны и фаллопротезы &gt; Для двойного и тройного проникновения. Цвет: красный с черным. Материал: натуральная кожа, металл, латекс, силикон, пластик. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Создайте атмосферу романтического прикосновения. Зажгите свечу, и наполните комнату возбуждающим запахом афродизиаков. Погасите пламя, затем нанесите образовавшееся теплое (но не горячее!) масло на тело массажными движениями и ощущение блаженства вам обеспечено.Два в одном: ароматизированная свеча и массажное масло. Изготовлено из 100% натуральных масел, При горении свечи образуется теплое массажное масло, не обжигающее кожу, Делает кожу мягкой и шелковистой, Великолепный смягчитель, Длительность горения свечи  до 40 часов, Нежные и тонкие ароматы, обволакивающие тело и комнату.Эта свеча из соевого масла не содержит парафина, а значит, не содержит никаких токсичных веществ. Соевое, кокосовое и миндальное масла смягчают и ухаживают за кожей, не закупоривают поры и подходят для любого типа кожи. Свеча-массажное масло Aphrodisia (аромат лепестков розы) 170 мл.  Свеча-массажное масло Aphrodisia (аромат лепестков розы) 170 мл. Модель: shunga-274500. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>натуральная кожа, металл, латекс, силикон, пластик</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr"/>
+          <t>170 *40 г</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>170 *40</t>
+        </is>
+      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>170 *40 г</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -7627,7 +7497,7 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>страпон-трусики, вагинальный плаг, анальная пробка, штырек для насадки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
@@ -7647,40 +7517,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Кожаные мужские стринги с отверстием</t>
+          <t>Съедобный массажный крем для тела</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-12787-1299</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>46-56</t>
-        </is>
-      </c>
+          <t>id-16111-1299</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>99999</v>
@@ -7692,44 +7554,44 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12787/12787_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16111/16111_1_650.jpg</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мужские трусики изготовлены из натуральной кожи. При производстве использована никелированная фурнитура. Размер регулируется ремешками. В центре отверстие для фаллоса. Кожаные мужские стринги с отверстием для фаллоса.  Кожаные мужские стринги с отверстием для фаллоса. Модель: sitabella-3154-1. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для мужчин. Эротическое белье для мужчин &gt; Трусы, стринги, шорты. Цвет: черный. Материал: искусственная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Эта линейка кремов создана Shunga Erotic art специально для оральных удовольствий.Помимо великолепных чувственных ароматов, крема этой линейки имеют отличный вкус, в буквальном смысле этого слова, крема съедобны!Крема изготавливаются только из натуральных компонентов.Оральный секс, с использованием этого продукта, принесёт ещё большее, ни с чем несравнимое удовольствие!Крем шелковистой текстуры, который даже во время интенсивной близости, сохраняет на коже восхитительный вкусЭтот маслянистый массажный крем обеспечивает нежное скольжение между телами, поднимая сексуальную энергию до самых вершин.- Легко и долго скользит- Не оставляет жирных следов- Съедобен- Оставляет на коже чувство свежести- Восхитительный вкус- Гладкий шелковистый- Состоит только их натуральных ингредиентов.Съедобный массажный крем для тела Massage Cream (клубника с шампанским) 200 мл.  Съедобный массажный крем для тела Massage Cream (клубника с шампанским) 200 мл. Модель: shunga-4108. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>искусственная кожа, металл</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -7775,40 +7637,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Кожаный ошейник с красным бантом</t>
+          <t>Съедобный массажный крем для тела</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-22501-1299</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-16112-1299</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>99999</v>
@@ -7820,44 +7674,44 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22501/22501_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16112/16112_1_650.jpg</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ошейник BDSM  это атрибут покорности и полного доверия секс-партнёру. А предложив ошейник и получив согласие его надеть, приобретаете не только власть, но и огромную ответственность за другого. Какой бы ни был ошейник простой или вычурный, главное, это смысл, с которым Вы его преподносите партнёру.Простой и лаконичный ошейник чокер от Ситабелла, изготовлен из натуральной высококачественной кожи. Плотно прилегая к шее, узкой черной полосой, он элегантно украсит Вашу шею, сделав её ещё более сексуальной и притягательной. Украшение данного изделия является красный объемный бантик из лаковой красной кожи. Зафиксировать чокер на шее и отрегулировать по размеру можно при помощи кнопок, которые имеют никелевое покрытие. Кожаный ошейник с красным бантом Sitabella.  Кожаный ошейник с красным бантом Sitabella. Модель: sitabella-3164-1. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный с красным. Материал: натуральная кожа. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Эта линейка кремов создана Shunga Erotic art специально для оральных удовольствий.Помимо великолепных чувственных ароматов, крема этой линейки имеют отличный вкус, в буквальном смысле этого слова, крема съедобны!Крема изготавливаются только из натуральных компонентов.Оральный секс, с использованием этого продукта, принесёт ещё большее, ни с чем несравнимое удовольствие!Крем шелковистой текстуры, который даже во время интенсивной близости, сохраняет на коже восхитительный вкусЭтот маслянистый массажный крем обеспечивает нежное скольжение между телами, поднимая сексуальную энергию до самых вершин.- Легко и долго скользит- Не оставляет жирных следов- Съедобен- Оставляет на коже чувство свежести- Восхитительный вкус- Гладкий шелковистый- Состоит только их натуральных ингредиентов.Съедобный массажный крем для тела Massage Cream (миндальная сладость) 200 мл.  Съедобный массажный крем для тела Massage Cream (миндальная сладость) 200 мл. Модель: shunga-4112. Косметика, препараты. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>натуральная кожа</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -7903,13 +7757,13 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -7919,24 +7773,16 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Кожаная маска с серебряной вставкой</t>
+          <t>Подарочный набор Geisha's Secret</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-22109-1299</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-19538-1299</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>99999</v>
@@ -7948,44 +7794,44 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22109/22109_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19538/19538_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19538/19538_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19538/19538_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19538/19538_4_650.jpg</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чтобы достичь незабываемой эротической кульминации, необходимо уделить немало внимания предварительным ласкам, которые усилят сексуальное возбуждение и позволят испытать неистовое наслаждение. Использование дополнительных девайсов в предварительных сексуальных играх, придаёт им особый шарм. Кожаная маска с серебряной вставкой.  Кожаная маска с серебряной вставкой. Модель: sitabella-3182-16. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный с серебряным. Материал: натуральная кожа, эко кожа. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">В набор входит:    Эротическое массажное масло Зеленый чай-10мл    Масло с афродизиаками Зеленый чай-10мл    Массажная свеча ZENITUDE-30мл    Лубрикант TOKO ORGANICA-10vk    Возбуждающий гель для влюбленных LOTUS NOIR- 7мл.Подарочный набор Geisha's Secret ОРГАНИКА Экзотический зеленый чай (5 предметов).  Подарочный набор Geisha's Secret ОРГАНИКА Экзотический зеленый чай (5 предметов). Модель: shunga-82112. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Массажные масла, cвечи, гели. Эротические сувениры &gt; Сувениры. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>натуральная кожа, эко кожа</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr"/>
+          <t>3*10 , 30 , 7 мл</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>3*10 , 30 , 7</t>
+        </is>
+      </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>3*10 , 30 , 7 мл</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -8011,7 +7857,7 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>массажное масло 10 мл, разогревающее масло 10 мл, массажная свеча 30 мл, лубрикант на водной основе 10 мл, возбуждающий гель для влюбленных LOTUS NOIR 7 мл</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -8031,40 +7877,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Массажные средства эротик</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Кожаная черная маска Зайка с узором</t>
+          <t>Массажное масло Desire Ванильный фетиш</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-22353-1299</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-20405-1299</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>99999</v>
@@ -8076,17 +7914,17 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22353/22353_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20405/20405_1_650.jpg</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Появилось желание разнообразить привычные сексуальные отношения и не знаете с чего начать? Потрясающая эффектная маска Кролик от Ситабелла позволит перевоплотиться в нежное игривое существо, которое впишется в множество сексуальных ролевых сценариев. Сексуальная и изящная маска изготовлена из высококачественной натуральной ременной кожи, это придаёт изделию каркасный роскошный вид. Маска легко надевается и имеет универсальный размер за счёт ремешка-резинки, который надёжно и комфортно фиксирует аксессуар на голове. Большой кокетливый разрез под глаза сделает Ваш взгляд томным и страстным, излучающим безграничную сексуальную энергию. Металлические декоративные элементы в сочетании с натуральной чёрной кожей придаёт изделию фетишности. Одевая маску Кролик Вы меняете не только свой внешний облик, делая его сексуальней для партнёра, но и чувствуете собственные эмоциональные изменения, настраиваясь на раскрепощённое эротичное настроение, ведь это уже не совсем Вы и позволить себе можно гораздо больше!.Кожаная черная маска Зайка с узором.  Кожаная черная маска Зайка с узором. Модель: sitabella-3186-1g. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">.Массажное масло Desire Ванильный фетиш 60 мл DEMO.  Массажное масло Desire Ванильный фетиш 60 мл DEMO. Модель: shunga-demo0013. Косметика, препараты. Насадки и кольца. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -8099,21 +7937,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>натуральная кожа, металл</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr"/>
+          <t>60 мл</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>60 мл</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -8139,7 +7977,7 @@
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>маска зайки, деревянная вешалка для маcки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
@@ -8159,40 +7997,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Сувениры эротик</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Кожаная маска кошки с золотистым</t>
+          <t>Гель для восточного массажа Erotic</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-22114-1299</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-8674-1299</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>99999</v>
@@ -8204,44 +8034,44 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22114/22114_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/8674/8674_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/8674/8674_1_650.jpg</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Маска кошки (Harness Cat Mask) из коричневой и бежевой натуральной кожи с миндалевидными прорезями для глаз, украшенная металлическими заклёпками и цепочкой золотистого цвета, а также изящными рисунками на щеках и ушках. Изделие предназначено для эротических ролевых игр и практик БДСМ.Для максимального комфорта маска имеет бархатистую велюровую подкладку, обеспечивающую приятные тактильные ощущения при соприкосновении с кожей лица. Цвет велюра определяется производителем и может отличаться от цвета на фото.Фиксирующая резинка с пряжкой позволяет легко регулировать размер изделия.Применение:Маска используется с целью скрыть лицо и.или создать определенный образ для обострения чувств и яркости восприятия. Кожаная маска кошки с золотистым украшением Harness Cat Mask.  Кожаная маска кошки с золотистым украшением Harness Cat Mask. Модель: sitabella-3189-8g. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: коричневый. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Original body Glide SHUNGA Erotic Massage Gel Гель для эротического массажа телом по телу При смешивании получается почти 4 л геля В комплекте водонепроницаемая простыня Подробные инструкции на передней панели коробки, позволят вам испытать занимательное и чувственное эротическое приключение Восточный массаж телом по телу  это чрезвычайно эротическая и занимательная игра, когда обнаженные тела почти в полной невесомости скользят друг о друга. Нанесенный в большом количестве на обнаженные тела гель создает пьянящий и возбуждающий эффект. Текстура кожи становится возбуждающим средством сама по себе, и превращает касания в ласки, которые выводят за пределы воображения самых сумасшедших желаний.Идеально подходит для пар, которые стремятся добавить экзотику и развлечение в свою сексуальную жизнь. Подробная инструкция на РУССКОМ ЯЗЫКЕ в комплекте. Гель для восточного массажа Erotic Massage Gel (экзотические фрукты).  Гель для восточного массажа Erotic Massage Gel (экзотические фрукты). Модель: shunga-lh2801. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Эротические сувениры &gt; Сувениры. Аксессуары для игр &gt; Наборы и аксессуары. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>натуральная кожа, металл</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr"/>
+          <t>2 * 250 мл</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>2 * 250</t>
+        </is>
+      </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>2 * 250 мл</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -8267,7 +8097,7 @@
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>две баночки геля, золотое непромокающее простыня</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
@@ -8287,28 +8117,28 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Стимулирующий презерватив с усиками</t>
+          <t>Съедобная пудра для тела со вкусом</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-4447-1299</t>
+          <t>id-8669-1299</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -8324,44 +8154,44 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/4447/4447_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/8669/8669_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/8669/8669_1_650.jpg</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ситабелла - один высококачественный презерватив с накопителем из гипоаллергенного латекса со стимулирующими усиками в обильной смазке на силиконовой основе. Стимулирующий презерватив с усиками УРАГАН (1 шт).  Стимулирующий презерватив с усиками УРАГАН (1 шт). Модель: sitabella-320. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Ароматизированная съедобная пудра для тела с ароматом и вкусом экзотических фруктов.  Превосходные ароматы Подсушивающие свойства  В комплекте кисточка из натурального пуха Не содержит сахара Не содержит глютенаПревратите вашего партнера в восхитительное лакомство, нанеся съедобную пудру на все эрогенные зоны, пощекоча пуховой кисточкой (в комплекте) и приступите к десерту. Обладает также осушающими свойствами (модифицированный крахмал), которые очень ценятся в жаркое время. Может наноситься под грудью или подмышками, чтобы отталкивать влагу и уменьшить потовыделение, или между ног, чтобы избежать раздражения из-за трения. Может также использоваться для массажа без масла. Съедобная пудра для тела со вкусом экзотических фруктов Sweet Snow.  Съедобная пудра для тела со вкусом экзотических фруктов Sweet Snow. Модель: shunga-li1705. Косметика, препараты. Смазки, косметика &gt; Косметика. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: белый. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>латекс</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr"/>
+          <t>228 г</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>228 г</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -8387,7 +8217,7 @@
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>пудра, перьевая палочка для нанесения пудры на тело</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -8413,22 +8243,22 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Удлиняющая пенис насадка Extender</t>
+          <t>Съедобная пудра для тела со вкусом</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-13729-1299</t>
+          <t>id-8668-1299</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -8444,44 +8274,44 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13729/13729_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13729/13729_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/8668/8668_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/8668/8668_1_650.jpg</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Насадка-удлинитель предназначена для восполнения достижения гармонии партнерами в интимных отношениях и увеличения яркости сексуальных впечатлений. Удлиняющая пенис насадка Extender.  Удлиняющая пенис насадка Extender. Модель: sitabella-3215. Секс-игрушки. Насадки и кольца &gt; Удлиняющие и расширяющие насадки. Насадки и кольца &gt; Без вибрации. Цвет: телесный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Ароматизированная съедобная пудра для тела с ароматом и вкусом ВИШНИ.  Превосходные ароматы Подсушивающие свойства  В комплекте кисточка из натурального пуха Не содержит сахара Не содержит глютенаПревратите вашего партнера в восхитительное лакомство, нанеся съедобную пудру на все эрогенные зоны, пощекоча пуховой кисточкой (в комплекте) и приступите к десерту. Обладает также осушающими свойствами (модифицированный крахмал), которые очень ценятся в жаркое время. Может наноситься под грудью или подмышками, чтобы отталкивать влагу и уменьшить потовыделение, или между ног, чтобы избежать раздражения из-за трения. Может также использоваться для массажа без масла. Съедобная пудра для тела со вкусом сочной вишни Sweet Snow.  Съедобная пудра для тела со вкусом сочной вишни Sweet Snow. Модель: shunga-lk2308. Косметика, препараты. Смазки, косметика &gt; Косметика. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Цвет: белый. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>латекс</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr"/>
+          <t>228 г</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>228 г</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -8493,12 +8323,8 @@
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="n">
-        <v>3.685</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>3.35</v>
-      </c>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
       <c r="AH65" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8511,7 +8337,7 @@
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>пудра, перьевая палочка для нанесения пудры на тело</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
@@ -8531,28 +8357,28 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Вагинальные тренажеры</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SHUNGA</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Удлиняющая и стимулирующая насадка на</t>
+          <t>Волшебная ванна Love Bath (фиолетовая)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-13728-1299</t>
+          <t>id-12296-1299</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -8568,44 +8394,44 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13728/13728_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13728/13728_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12296/12296_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12296/12296_1_650.jpg</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Насадка-удлинитель со стимулирующими усиками предназначена для восполнения достижения гармонии партнерами в интимных отношениях и увеличения яркости сексуальных впечатлений. Удлиняющая и стимулирующая насадка на пенис Extender.  Удлиняющая и стимулирующая насадка на пенис Extender. Модель: sitabella-3217. Секс-игрушки. Насадки и кольца &gt; Удлиняющие и расширяющие насадки. Насадки и кольца &gt; Без вибрации. Насадки и кольца &gt; Стимулирующие влагалище. Цвет: телесный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Благодаря данному продукту, ванная комната трансформируется в райский уголок. Вода в ванне меняет свой цвет на фиолетовый и превращается в роскошное зернистое желе, ароматизируя воздух. Густоту желе можно регулировать добавлением порошка №1 (увеличение плотности) или №2 (уменьшение плотности). Гель способствует расслаблению, делает кожу гладкой и шелковистой. Волшебная ванна Love Bath (фиолетовая).  Волшебная ванна Love Bath (фиолетовая). Модель: shunga-nc0408. Косметика, препараты. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Смазки, косметика &gt; Расслабляющая ванна. Элитная продукция. Цвет: фиолетовый. Батареек нет в комплекте. Бренд: SHUNGA. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Канада</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>латекс</t>
-        </is>
-      </c>
+          <t>Экстра класс</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr"/>
+          <t>650 г</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>650 г</t>
         </is>
       </c>
       <c r="W66" t="inlineStr"/>
@@ -8617,12 +8443,8 @@
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr"/>
       <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="n">
-        <v>3.685</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>3.35</v>
-      </c>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
       <c r="AH66" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8635,7 +8457,7 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve">один пакетик гелеобразующего порошка, один пакетик растворяющего порошка </t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
@@ -8655,13 +8477,13 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Комплекты БДСМ</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SINJOYS</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -8671,24 +8493,16 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Чокер на шею с надписью Kiss me</t>
+          <t>Перезаряжаемый вибратор Sinjoys CAT</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-27871-1299</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-20525-1299</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
         <v>99999</v>
@@ -8700,17 +8514,17 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27871/27871_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20525/20525_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20525/20525_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20525/20525_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20525/20525_3_650.jpg</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чокер изготовлен из натуральной кожи и дополнен вставкой под металл с надписью  Kiss me. Регулируется при помощи кнопок. Общая длина 41 см.Браслет приобретается отдельно. Чокер на шею с надписью Kiss me.  Чокер на шею с надписью Kiss me. Модель: sitabella-3353km. БДСМ. БДСМ товары и фетиш &gt; Аксессуары. Аксессуары, украшения для тела &gt; Аксессуары. Цвет: черный, серебристый. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Позволить завести себе маленького ушастого друга может каждая девушка. Особенно, когда он такой милый, мягкий и нежный. Шаловливой вибрацией Coco будет стимулировать самые чувственные места девушки. Настроение кошечки отражается в 7 вариантах. Если захотите, он может и зарычать, и помурлыкать, только сообщите ему свое желание нежным нажатием кнопки. Не забывайте использовать смазку на водной основе и обрабатывать игрушку средством для ухода! И тогда у вас будет много самых фанатических моментов! Массажер обладает функцией Сhild care  если его найдут дети, ни о чем не догадаются. Легко использовать как обычный вибромассажер для лица и шеи. Выполнен из нежнейшего силикона. Займет достойное место среди бьюти-аксессуаров и станет интересным и приятным подарком!.Перезаряжаемый вибратор Sinjoys CAT Coco (7 режимов).  Перезаряжаемый вибратор Sinjoys CAT Coco (7 режимов). Модель: sinjoys-sc03b. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибромассажеры. Цвет: розовый, золотистый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: SINJOYS. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -8725,7 +8539,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -8742,15 +8556,25 @@
       </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
+      <c r="Y67" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>21</v>
+      </c>
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="inlineStr"/>
-      <c r="AG67" t="inlineStr"/>
+      <c r="AF67" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>3.5</v>
+      </c>
       <c r="AH67" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8763,7 +8587,7 @@
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>чокер</t>
+          <t>вибратор, зарядный usb-кабель</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
@@ -8783,40 +8607,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Шлепалки эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SITABELLA</t>
+          <t>SINJOYS</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Стек с мехом Sitabella</t>
+          <t>Перезаряжаемый вибратор с клиторальным</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-27911-1299</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>50-52</t>
-        </is>
-      </c>
+          <t>id-20524-1299</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
         <v>99999</v>
@@ -8828,17 +8644,17 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27911/27911_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27911/27911_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20524/20524_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20524/20524_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20524/20524_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20524/20524_4_650.jpg</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стек для нежных прикосновений. Мех является не только фетиш-атрибутом, но и может служить дополнением к образу Госпожи в ролевых играх. Общая длина 55-57 см. Натуральный мех 15-18 см. Металлическая рукоять 14 см, ремешок из натуральной кожи. Стек с мехом Sitabella.  Стек с мехом Sitabella. Модель: sitabella-3363-1. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный, серый/песочный. Материал: металл, натуральный мех. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Позволить завести себе маленького ушастого друга может каждая девушка. Особенно, когда он такой милый, мягкий и нежный. Шаловливой вибрацией Vivi будет стимулировать самые чувственные места девушки. Настроение кошечки отражается в 7 вариантах. Если захотите, он может и зарычать, и помурлыкать, только сообщите ему свое желание нежным нажатием кнопки. Не забывайте использовать смазку на водной основе и обрабатывать игрушку средством для ухода! И тогда у вас будет много самых фанатических моментов! Нежный клиторальный отросток заботливо передает вибрацию на самую чувствительную область. Массажер обладает функцией Сhild care  если его найдут дети, ни о чем не догадаются. Легко использовать как обычный вибромассажер для лица и шеи. Выполнен из нежнейшего силикона. Займет достойное место среди бьюти-аксессуаров и станет интересным и приятным подарком!.Перезаряжаемый вибратор с клиторальным стимулятором Sinjoys CAT Vivi (7 режимов).  Перезаряжаемый вибратор с клиторальным стимулятором Sinjoys CAT Vivi (7 режимов). Модель: sinjoys-sc04b. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Вибромассажеры. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый, золотистый. Материал: высококачественный силикон с бархатистой поверхностью, пластик. Батареек нет в комплекте. Бренд: SINJOYS. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -8853,7 +8669,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>металл, натуральный мех</t>
+          <t>высококачественный силикон с бархатистой поверхностью, пластик</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -8870,15 +8686,25 @@
       </c>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
+      <c r="Y68" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>21</v>
+      </c>
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr"/>
       <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="inlineStr"/>
-      <c r="AG68" t="inlineStr"/>
+      <c r="AF68" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>3.7</v>
+      </c>
       <c r="AH68" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8891,7 +8717,7 @@
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>вибратор, зарядный usb-кабель</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
@@ -8911,7 +8737,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Зажимы для сосков</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -8927,22 +8753,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Кожаный чокер с двумя кольцами</t>
+          <t>Регулируемые зажимы на соски с</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-26818-1299</t>
+          <t>id-26816-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -8956,12 +8782,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26818/26818_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26816/26816_1_650.jpg</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чокер изготовлен из натуральной кожи. Регулируется при помощи кнопок. Кожаный чокер с двумя кольцами.  Кожаный чокер с двумя кольцами. Модель: sitabella-3395-1. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный с серебристым. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Изящные аксессуары для стимуляции сосков и усиления сексуального возбуждения. На концах зажимов имеются специальные эластичные накладки, препятствующие сильному сдавливанию и травмированию сосков. Подвески в виде ажурных украшений на цепочке дают небольшой эффект утяжеления. На каждом изделии предусмотрен регулировочный винт, позволяющий контролировать силу сдавливания сосков. Интимные аксессуары могут использоваться соло или для парных любовных игр. Изделия просты в применении. Не требуют специального ухода. Регулируемые зажимы на соски с украшением.  Регулируемые зажимы на соски с украшением. Модель: sitabella-026. БДСМ. Аксессуары, украшения для тела &gt; Бижутерия для груди. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: серебряный. Материал: металл, ПВХ. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -8981,7 +8807,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>металл, ПВХ</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -9039,7 +8865,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -9050,29 +8876,21 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Маска Wolf с шипами</t>
+          <t>Стимулирующий презерватив с усиками</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-28086-1299</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-6399-1299</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
         <v>99999</v>
@@ -9084,12 +8902,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/28086/28086_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6399/6399_2_650.jpg</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брутальная объемная маска WOLF - это незаменимый аксессуар для ценителей властных БДСМ игр, тематических вечеринок и фотосессий. Изготовлена маска из натуральной толстой кожи черного цвета с применением никелированной фурнитуры. Размер маски универсальный, благодаря резинке и пряжке-регулятору. Маска Wolf с шипами.  Маска Wolf с шипами. Модель: sitabella-3416-1. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками ВОЖДЬ КРАСНОКОЖИХ (1 шт).  Стимулирующий презерватив с усиками ВОЖДЬ КРАСНОКОЖИХ (1 шт). Модель: sitabella-1260. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -9099,17 +8917,17 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -9147,7 +8965,7 @@
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>1 презерватив</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
@@ -9167,7 +8985,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -9178,29 +8996,21 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Кожаная маска волка WOLF</t>
+          <t>Стимулирующий презерватив с усиками</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-26810-1299</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-13583-1299</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>99999</v>
@@ -9212,12 +9022,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26810/26810_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26810/26810_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13583/13583_1_650.jpg</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Брутальная объемная маска WOLF - это незаменимый аксессуар для ценителей властных БДСМ игр, тематических вечеринок и фотосессий. Изготовлена маска из натуральной толстой кожи серого цвета с применением никелированной фурнитуры. Размер маски универсальный, благодаря резинке и пряжке-регулятору. Кожаная маска волка WOLF.  Кожаная маска волка WOLF. Модель: sitabella-3416-6. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: серый. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками КРАСНЫЙ МОЛОДЕЦ (1 шт).  Стимулирующий презерватив с усиками КРАСНЫЙ МОЛОДЕЦ (1 шт). Модель: sitabella-1262-12. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -9227,17 +9037,17 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -9275,7 +9085,7 @@
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>1 презерватив</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
@@ -9295,7 +9105,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -9306,17 +9116,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Сувенир-подвеска Маска Кошки</t>
+          <t xml:space="preserve">Стимулирующий презерватив с усиками </t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-23705-1299</t>
+          <t>id-13584-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -9332,12 +9142,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23705/23705_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13584/13584_1_650.jpg</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оригинальный и забавный сувенир-подвеска от Sitabella  это миниатюрное изделие в форме маски Кошечки. Подвеска изготовлена из натуральной кожи и украшена клепками. Необычная маска BDSM может служить автомобильной подвеской, украшением для сумки, а так же приятным презентом для Ваших друзей и знакомых. Сувенир-подвеска Маска Кошки.  Сувенир-подвеска Маска Кошки. Модель: sitabella-4069. Фанты. Эротические сувениры &gt; Сувениры. Цвет: черный с золотистым. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками  МЕЧ САМУРАЯ (1 шт).  Стимулирующий презерватив с усиками  МЕЧ САМУРАЯ (1 шт). Модель: sitabella-1264-12. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -9357,7 +9167,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>натуральная кожа, металл</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -9372,21 +9182,13 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W72" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X72" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>8.029999999999999</v>
-      </c>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr"/>
@@ -9403,7 +9205,7 @@
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>1 презерватив</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
@@ -9423,7 +9225,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Шлепалки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -9434,29 +9236,21 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Плеть ГЛАМУР из натуральной кожи со</t>
+          <t>Стимулирующий презерватив с эластичными</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-23701-1299</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-16965-1299</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
         <v>99999</v>
@@ -9468,12 +9262,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23701/23701_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16965/16965_1_650.jpg</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Плеть Гламур полностью изготовлена из натуральной велюровой кожи. Рукоять украшена стразами. Для удобного использования на торце ручки имеется ремешок. Плеть ГЛАМУР из натуральной кожи со стразами.  Плеть ГЛАМУР из натуральной кожи со стразами. Модель: sitabella-4215-1в. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный. Материал: натуральная кожа, натуральная замша. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования.Стимулирующий презерватив с эластичными усиками ВОИН МАСАИ (1 шт).  Стимулирующий презерватив с эластичными усиками ВОИН МАСАИ (1 шт). Модель: sitabella-1266-12. Презервативы. Презервативы &gt; С шариками и усиками. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -9483,17 +9277,17 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>натуральная кожа, натуральная замша</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -9531,7 +9325,7 @@
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>1 презерватив</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
@@ -9551,7 +9345,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Шлепалки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -9562,29 +9356,21 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Розовый стек Sitabella</t>
+          <t>Стимулирующий презерватив с усиками</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-13121-1299</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>50-52</t>
-        </is>
-      </c>
+          <t>id-6400-1299</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>99999</v>
@@ -9596,12 +9382,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13121/13121_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/6400/6400_2_650.jpg</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стек cостоит из деревянной рукояти и хлыста из гибкой полимерной основы, оплетённых искусственной кожей. На кончике хлыста имеется окончание в виде шлепка. Розовый стек Sitabella.  Розовый стек Sitabella. Модель: sitabella-5019-4. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: розовый. Материал: искусственная кожа. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками ЯРОСТЬ НОРМАННА (1 шт).  Стимулирующий презерватив с усиками ЯРОСТЬ НОРМАННА (1 шт). Модель: sitabella-1267. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -9611,17 +9397,17 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>искусственная кожа</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -9659,7 +9445,7 @@
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>1 презрватив</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
@@ -9679,7 +9465,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -9690,29 +9476,21 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Золотистая утяжка на пенис</t>
+          <t>Стимулирующий презерватив Sitabella с</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-12788-1299</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-2427-1299</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
         <v>99999</v>
@@ -9724,12 +9502,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12788/12788_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2427/2427_1_650.jpg</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Утяжка из искусcтвенной кожи. Регулируемый размер с помощью кнопок. Золотистая утяжка на пенис.  Золотистая утяжка на пенис. Модель: sitabella-5020-7. БДСМ. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. БДСМ товары и фетиш &gt; Аксессуары. Цвет: золотистый. Материал: искуственная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Ситабелла - один высококачественный презерватив с накопителем из гипоаллергенного латекса с ободком и тремя длинными двойными усиками и любрикант на силиконовой основе. Стимулирующий презерватив Sitabella с усиками ТАЙФУН (1 шт).  Стимулирующий презерватив Sitabella с усиками ТАЙФУН (1 шт). Модель: sitabella-1279. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -9749,7 +9527,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>искуственная кожа, металл</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -9807,7 +9585,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -9818,17 +9596,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Розовый ошейник с мехом и на поводке</t>
+          <t>Стимулирующий ароматизированный</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-12796-1299</t>
+          <t>id-13427-1299</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -9844,12 +9622,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12796/12796_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13427/13427_1_650.jpg</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изготовлен из искусственной кожи. С внутренней стороны подкладка из мягкого меха. При изготовлении использована фурнитура с никелевым покрытием. Металлическая цепочка (поводок), с карабином на конце, поможет вам с лёгкостью управлять своим партнёром. Размер универсальный. Розовый ошейник с мехом и на поводке.  Розовый ошейник с мехом и на поводке. Модель: sitabella-5024-4. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: розовый. Материал: искусственная кожа, искусственный мех, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий ароматизированный презерватив с усиками СЕКРЕТ АМАРЕТТО (1 шт).  Стимулирующий ароматизированный презерватив с усиками СЕКРЕТ АМАРЕТТО (1 шт). Модель: sitabella-1283. Презервативы. Презервативы &gt; С шариками и усиками. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -9869,7 +9647,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>искусственная кожа, искусственный мех, металл</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -9907,7 +9685,7 @@
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>ошейник, поводок</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
@@ -9927,7 +9705,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -9938,17 +9716,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Золотистый ошейник с мехом и</t>
+          <t>Стимулирующий ароматизированный</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-12800-1299</t>
+          <t>id-13428-1299</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -9964,12 +9742,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12800/12800_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13428/13428_1_650.jpg</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Изготовлен из искусственной кожи. С внутренней стороны подклад из мягкого меха. При изготовлении использована фурнитура с никелевым покрытием. Металлическая цепочка (поводок), с карабином на конце, поможет вам с лёгкостью управлять своим партнёром. Золотистый ошейник с мехом и цепью-поводком.  Золотистый ошейник с мехом и цепью-поводком. Модель: sitabella-5024-7. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: золотистый. Материал: искусственная кожа, искусственный мех, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий ароматизированный презерватив с усиками Ванильная орхидея (1 шт).  Стимулирующий ароматизированный презерватив с усиками Ванильная орхидея (1 шт). Модель: sitabella-1284. Презервативы. Презервативы &gt; С шариками и усиками. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -9989,7 +9767,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>искусственная кожа, искусственный мех, металл</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -10027,7 +9805,7 @@
       <c r="AM77" t="inlineStr"/>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>ошейник, поводок</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
@@ -10047,7 +9825,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Шлепалки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -10058,29 +9836,21 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Мини-плеть черная</t>
+          <t>Стимулирующий классический презерватив</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-4573-1299</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-2422-1299</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
         <v>99999</v>
@@ -10092,12 +9862,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/4573/4573_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4573/4573_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4573/4573_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2422/2422_1_650.jpg</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Плеть мини изготовлена из натурального латекса, имеет 10-12 хвостов длиной 25-30 см. Хвосты имеют вид лент шириной 7 мм. Ручка металлическая, хромированная. Мини-плеть черная.  Мини-плеть черная. Модель: sitabella-6020-1bxsit. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Цвет: черный с серебряным. Материал: металл, латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Презерватив Sitabella-Классика с эластичными шариками - высококачественный презерватив из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Способствует усилению возбуждения. Это универсальный презерватив, который сочетает в себе высокую эластичность и максимальную безопасность. Предназначен только для одноразового использования!.Стимулирующий классический презерватив Sitabella с шариками (1 шт.).  Стимулирующий классический презерватив Sitabella с шариками (1 шт.). Модель: sitabella-1400. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -10107,17 +9877,17 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>металл, латекс</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -10175,7 +9945,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -10186,29 +9956,21 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Чёрно-красный латексный фаллос-плетка</t>
+          <t>Стимулирующий презерватив с</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-18023-1299</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-2421-1299</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>99999</v>
@@ -10220,12 +9982,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18023/18023_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2421/2421_1_650.jpg</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Плеть мини Ракета многохвостая изготовлена из натурального латекса, имеет 20 хвостов длиной 40-45 см, хвосты имеют вид лент шириной 7 мм. Рукоять в виде фаллоса. Чёрно-красный латексный фаллос-плетка Mini Rocket.  Чёрно-красный латексный фаллос-плетка Mini Rocket. Модель: sitabella-6023-12. БДСМ. Анальные стимуляторы и пробки &gt; Без вибрации. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: черный, красный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Презерватив Sitabella-Продлевающий эффект с эластичными шариками - высококачественный презерватив из гипоаллергенного латекса, с накопителем, в смазке с продлевающим эффектом, увеличивающей длительность полового акта и обладающей смягчающим действием на кожу и слизистые оболочки. Это универсальный презерватив, который сочетает в себе высокую эластичность и максимальную безопасность. Предназначен только для одноразового использования!.Стимулирующий презерватив с продлевающим эффектом и шариками Sitabella (1 шт).  Стимулирующий презерватив с продлевающим эффектом и шариками Sitabella (1 шт). Модель: sitabella-1402. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -10303,7 +10065,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -10314,29 +10076,21 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Чёрный латексный фаллос-плетка Mini</t>
+          <t>Стимулирующий презерватив Sitabella с</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-17104-1299</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-2415-1299</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
         <v>99999</v>
@@ -10348,12 +10102,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17104/17104_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17104/17104_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/2415/2415_1_650.jpg</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Плеть мини Ракета многохвостая изготовлена из натурального латекса, имеет 20 хвостов длиной 40-45 см, хвосты имеют вид лент шириной 7 мм. Рукоять в виде фаллоса. Чёрный латексный фаллос-плетка Mini Rocket.  Чёрный латексный фаллос-плетка Mini Rocket. Модель: sitabella-6023-1. БДСМ. Анальные стимуляторы и пробки &gt; Без вибрации. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: черный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования. Стимулирующий презерватив Sitabella с усиками с ароматом клубники (1 шт).  Стимулирующий презерватив Sitabella с усиками с ароматом клубники (1 шт). Модель: sitabella-1403. Презервативы. Презервативы &gt; С шариками и усиками. Презервативы &gt; Ароматизированные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -10431,7 +10185,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -10442,29 +10196,21 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Черная маска с регулирующейся лентой</t>
+          <t>Стимулирующий презерватив с усиками</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-16245-1299</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-21606-1299</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
         <v>99999</v>
@@ -10476,12 +10222,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16245/16245_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21606/21606_1_650.jpg</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Использование маски позволит вам внести в свою сексуальную жизнь разнообразие и насладиться сексом в стиле БДСМ. Маска обладает широкими прорезями для глаз, а также отверстием для рта и носа. Не понижает слышимость. Черная маска с регулирующейся лентой.  Черная маска с регулирующейся лентой. Модель: sitabella-6052-1. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: пластик. Батареек нет в комплекте. Бренд: SITABELLA. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками НОЧНАЯ КОРРИДА (1 шт).  Стимулирующий презерватив с усиками НОЧНАЯ КОРРИДА (1 шт). Модель: sitabella-1406. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -10501,7 +10247,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>пластик</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -10539,7 +10285,7 @@
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>1 шт</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
@@ -10559,7 +10305,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Шлепалки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -10570,46 +10316,38 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Бита черная из натурального латекса в</t>
+          <t>Стимулирующий презерватив с эластичными</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-12781-1299</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>50-52</t>
-        </is>
-      </c>
+          <t>id-19530-1299</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>99999</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Бита черная из натурального латекса в виде фаллоса</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12781/12781_12781_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19530/19530_1_650.jpg</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бита имеет твердую основу с мягкой прокладкой, обтянутая натуральным латексом. Очень легкая. Один конец оформлен в виде дубинки диаметром, другой в виде фаллоимитатора. Бита черная из натурального латекса в виде фаллоса.  Бита черная из натурального латекса в виде фаллоса. Модель: sitabella-6071-1. БДСМ. БДСМ товары и фетиш &gt; Плетки, стеки, шлепалки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; Гиганты и фистинг. Цвет: черный. натуральный латексБренд: SITABELLA. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с эластичными усиками Классика чувств (1 шт).  Стимулирующий презерватив с эластичными усиками Классика чувств (1 шт). Модель: sitabella-1412bx. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс, силиконовая смазка. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -10627,7 +10365,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>латекс, силиконовая смазка</t>
+        </is>
+      </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
@@ -10663,7 +10405,7 @@
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> длина рукоятки 13 см, диаметр 2,7-3,5 см</t>
+          <t>1 шт</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
@@ -10683,40 +10425,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Красное боди с доступом Amelia XХL</t>
+          <t>Стимулирующий презерватив с усиками</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-26287-1299</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>46-48</t>
-        </is>
-      </c>
+          <t>id-20434-1299</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>99999</v>
@@ -10728,32 +10462,32 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26287/26287_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26287/26287_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20434/20434_2_650.jpg</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди с открытым доступом, на жестких косточках, бретели регулируются. Боди выполнено из тонкой нежной сетки, спереди по центру вставка из кружева в форме песочных часов, линия талии украшена атласной лентой с бантом, что придает фигуре стройность силуэта и подчеркивает талию. Спина открытая. Застежка на спине позволяет модели идеально сидеть на фигуре. Красное боди с доступом Amelia XХL.  Красное боди с доступом Amelia XХL. Модель: slc-185739xxlr. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Белье большого размера. Цвет: красный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Высококачественный презерватив-насадка из гипоаллергенного латекса, с накопителем, в обильной силиконовой смазке. Продукт сочетает в себе защитные функции презерватива и стимулирующий эффект насадки. Предназначен только для одноразового использования!.Стимулирующий презерватив с усиками ЖГУЧИЙ МАЧО (1 шт).  Стимулирующий презерватив с усиками ЖГУЧИЙ МАЧО (1 шт). Модель: sitabella-2001. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
@@ -10791,7 +10525,7 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>1 презерватив</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -10811,38 +10545,38 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Наручники эротик</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Комплект Marella бюстгальтер, стринги</t>
+          <t>Черные широкие манжеты из натуральной</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-26284-1299</t>
+          <t>id-16242-1299</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>54-56</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -10856,32 +10590,32 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26284/26284_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16242/16242_1_650.jpg</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Комплект Marella (бюстгальтер, стринги и пояс для чулок) XXXL.  Комплект Marella (бюстгальтер, стринги и пояс для чулок) XXXL. Модель: slc-1903110xxxlb. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Изготавливаются из натуральной кожи с велюровой подкладой. При изготовлении использована фурнитура с никелевым покрытием. Между собой имею неразъёмное соединение. Не нарушают кровообращение, надёжно фиксируют запястья. Расстегнуть самостоятельно практически невозможно. Размер универсальный. Черные широкие манжеты из натуральной кожи.  Черные широкие манжеты из натуральной кожи. Модель: sitabella-3055-1. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>90% полиамид, 10% эластан</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
@@ -10919,7 +10653,7 @@
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>бюстгальтер, стринги и пояс для чулок</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -10939,13 +10673,13 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Аксессуары для игрушек эротик</t>
+          <t>Фиксаторы эротик</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SMARTBUY</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -10955,16 +10689,24 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Набор из 2-х батареек SMARTBUY ULTRA</t>
+          <t>Кожаные оковы на ноги с цепью</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-18763-1299</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+          <t>id-12798-1299</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>99999</v>
@@ -10976,17 +10718,17 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18763/18763_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12798/12798_1_650.jpg</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Набор из 2-х батареек SMARTBUY ULTRA Alkaline  (тип AAA).  Набор из 2-х батареек SMARTBUY ULTRA Alkaline  (тип AAA). Модель: smurtbuy-ultra2AAA. Секс-игрушки. Батарейки &gt; AAA, 1,5 V (мизинчиковые). Батареек нет в комплекте. Бренд: SMARTBUY. </t>
+          <t xml:space="preserve">Оковы. Изготавливаются из натуральной кожи с велюровой подкладкой. При изготовлении использована фурнитура с никелевым покрытием. Между слоем основы и подкладкой проложена мягкая прокладка. Соединяются между собой цепочкой длиной 35 см с двумя карабинами на концах. Не нарушают кровообращение, надёжно фиксируются на щиколотках с помощью двух ремешков. Размер универсальный. Кожаные оковы на ноги с цепью.  Кожаные оковы на ноги с цепью. Модель: sitabella-3070-1. БДСМ. БДСМ товары и фетиш &gt; Кандалы, фиксаторы на ноги. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -10999,7 +10741,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>натуральная кожа, металл</t>
+        </is>
+      </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
@@ -11035,7 +10781,7 @@
       <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>2 батарейки в упаковке</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -11055,32 +10801,40 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SNAIL VIBE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Перезаряжаемый вибратор с подвижным</t>
+          <t>Черная кожаная маска кошка</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-22323-1299</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+          <t>id-20042-1299</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>99999</v>
@@ -11092,17 +10846,17 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22323/22323_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22323/22323_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22323/22323_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22323/22323_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22323/22323_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22323/22323_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22323/22323_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20042/20042_1_650.jpg</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вибромассажер Snail Vibes  универсальный мультискоростной инновационный аккумуляторный вибратор для одновременной двойной стимуляции, созданный из гипоаллергенного материала. Главным преимуществом стимулятора является возможность беспрерывной клиторальной стимуляции при одновременном поступательном вагинальном воздействии. Особенностью этого стимулятора является возможность смещать клиторальный отросток вдоль всей длины вагинальной части. Snail по праву можно назвать первым вибратором по-настоящему двойного действия.Snail разработан с учетом анатомических особенностей. Два мощных мотора с отдельным управлением имеют 5 режимов вибрации и 5 скоростей для каждого из них, что обеспечивает более 600 комбинаций стимуляции. Клиторальный отросток Snail Vibes может достигать настолько интенсивной вибрации, как легендарный Magic Wand.Применение:Стержень вибратора подходит как для коротких, так и для глубоких толчков, удовлетворяя индивидуальные предпочтения каждого, в то время как стимулятор клитора имеет более широкую область воздействия, чем традиционные игрушки кролики. Snail обеспечивает постоянный контакт вибратора и клитора во время использования игрушки.Управление осуществляется с помощью четырех встроенных в основание кнопок. Чтобы включить или выключить один из отростков, необходимо нажать и в течение трех секунд удерживать отвечающую за него кнопку с изображением волны.Вибромассажер заряжается через USB и может быть подключен практически в любом месте, просто подсоедините идущий в комплекте шнур к совместимому порту компьютера или USB-адаптера (приобретается отдельно), а противоположный конец к разъему у основания. Полная зарядка занимает 2 часа, ее достаточно для беспрерывной работы в течение 1 часа.Хранение:Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Перезаряжаемый вибратор с подвижным клиторальным стимулятором Snail Vibe (5 реж., 5 скор.).  Перезаряжаемый вибратор с подвижным клиторальным стимулятором Snail Vibe (5 реж., 5 скор.). Модель: snailvibe-snail. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Хай-тек вибраторы. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый. Материал: высококачественный силикон с бархатистой поверхностью. Батареек нет в комплекте. Бренд: SNAIL VIBE. </t>
+          <t xml:space="preserve">Изготовлена из натуральной кожи с велюровой подкладой. Используется никелированная фурнитура. Черная кожаная маска кошка.  Черная кожаная маска кошка. Модель: sitabella-3087-1. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Великобритания</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -11117,7 +10871,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S86" t="inlineStr"/>
@@ -11134,29 +10888,15 @@
       </c>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>24</v>
-      </c>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
       <c r="AC86" t="inlineStr"/>
-      <c r="AD86" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>3.1</v>
-      </c>
+      <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="inlineStr"/>
+      <c r="AG86" t="inlineStr"/>
       <c r="AH86" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11169,7 +10909,7 @@
       <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>вибратор, зарядное USB-устройство</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
@@ -11189,38 +10929,38 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Боди с юбочкой медсестры SM</t>
+          <t>Красная кожаная маска кошка</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-14685-1299</t>
+          <t>id-20043-1299</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -11234,17 +10974,17 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/14685/14685_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14685/14685_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20043/20043_1_650.jpg</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Боди с юбочкой медсестры SM.  Боди с юбочкой медсестры SM. Модель: softline-173116smb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, красный. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Изготовлена из натуральной кожи с велюровой подкладой. Используется никелированная фурнитура. Красная кожаная маска кошка.  Красная кожаная маска кошка. Модель: sitabella-3087-2. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: красный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -11257,7 +10997,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>натуральная кожа, металл</t>
+        </is>
+      </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
@@ -11293,7 +11037,7 @@
       <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
@@ -11313,28 +11057,28 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Кляпы эротик</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Черное боди медсестры с разрезами ML</t>
+          <t>Кляп с красным ремнем из натуральной</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-14802-1299</t>
+          <t>id-19695-1299</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -11358,32 +11102,32 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/14802/14802_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19695/19695_1_650.jpg</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черное боди медсестры с разрезами ML.  Черное боди медсестры с разрезами ML. Модель: softline-1731mlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с красным. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Ремешок изготовлен из натуральной кожи красного цвета. Никелированная пряжка. Шар изготовлен из ПВХ. Кляп с красным ремнем из натуральной кожи.  Кляп с красным ремнем из натуральной кожи. Модель: sitabella-3091. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черный с красным. Материал: ПВХ, натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>ПВХ, натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
@@ -11441,28 +11185,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Кляпы эротик</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Черное боди с открытой грудью SM</t>
+          <t>Открытый кляп-кольцо из черной</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-12900-1299</t>
+          <t>id-12791-1299</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -11486,32 +11230,32 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12900/12900_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12900/12900_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12791/12791_1_650.jpg</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черное боди с открытой грудью SM.  Черное боди с открытой грудью SM. Модель: softline-180416smb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Ремешок изготовлен из натуральной кожи. Пряжка и кольцо (диаметром 45-50 мм) никелированные. Размер универсальный. Открытый кляп-кольцо из черной натуральной кожи.  Открытый кляп-кольцо из черной натуральной кожи. Модель: sitabella-3092-1. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черный с серебряным. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S89" t="inlineStr"/>
@@ -11569,38 +11313,38 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Кляпы эротик</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Черное боди с открытой грудью ML</t>
+          <t>Кляп из плетеной натуральной кожи</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-12901-1299</t>
+          <t>id-17107-1299</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -11614,32 +11358,32 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12901/12901_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12901/12901_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17107/17107_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17107/17107_2_650.jpg</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черное боди с открытой грудью ML.  Черное боди с открытой грудью ML. Модель: softline-180417mlb. Секс-игрушки. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Кляп обтянут лентами из натуральной кожи. Ремешок также выполнен из натуральной кожи. Кляп из плетеной натуральной кожи.  Кляп из плетеной натуральной кожи. Модель: sitabella-3094-1. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
@@ -11697,38 +11441,38 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Краcное боди с открытой грудью и</t>
+          <t>Ошейник с шипами на поводке</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-12500-1299</t>
+          <t>id-4571-1299</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -11742,30 +11486,34 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12500/12500_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12500/12500_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4571/4571_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4571/4571_1_650.jpg</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди выполнено из ажурного материала, имеет открытые чашечки на которые нежно спускается полупрозрачная оборка. Между грудей маленький нарядный бантик со стразинкой. Боди сзади на завязках. На трусики с разрезом нежно спускается полупрозрачная оборка. Краcное боди с открытой грудью и разрезом в интимном месте Orsola SM.  Краcное боди с открытой грудью и разрезом в интимном месте Orsola SM. Модель: softline-180436smr. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: красный. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Изготовлен из натуральной кожи с велюровой подкладкой. При изготовлении использована никелированная фурнитура. Ширина ошейника 20 мм, длина шипов 25 мм. Размер универсальный, регулируется при помощи кнопок. Один из основных атрибутов BDSM. Ошейник с шипами на поводке.  Ошейник с шипами на поводке. Модель: sitabella-3103-1. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R91" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>натуральная кожа, металл</t>
+        </is>
+      </c>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr">
         <is>
@@ -11801,7 +11549,7 @@
       <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>ошейник, цепь-поводок</t>
         </is>
       </c>
       <c r="AO91" t="inlineStr">
@@ -11821,38 +11569,38 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Черный пеньюар с кружевом и перчатками</t>
+          <t>Черный кожаный ошейник с цепью-поводком</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-14707-1299</t>
+          <t>id-20044-1299</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>48-52</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -11866,17 +11614,17 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/14707/14707_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14707/14707_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20044/20044_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20044/20044_2_650.jpg</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черный пеньюар с кружевом и перчатками XL.  Черный пеньюар с кружевом и перчатками XL. Модель: softline-1817xlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 97% полиэстер, 3% эластан. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Черный ошейник из натуральной кожи с металлическим украшением с отстегивающимся поводком в виде цепи. Черный кожаный ошейник с цепью-поводком.  Черный кожаный ошейник с цепью-поводком. Модель: sitabella-3117-1. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный, металл. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -11891,7 +11639,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>97% полиэстер, 3% эластан</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S92" t="inlineStr"/>
@@ -11929,7 +11677,7 @@
       <c r="AM92" t="inlineStr"/>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>пеньюар, перчатки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
@@ -11949,13 +11697,13 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Трусы эротик</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -11965,22 +11713,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Черный пеньюар с кружевом и перчатками</t>
+          <t>Кожаное боди харнес с креплением для</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-14569-1299</t>
+          <t>id-12786-1299</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>54-56</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -11994,32 +11742,32 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/14569/14569_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14569/14569_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12786/12786_1_650.jpg</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черный пеньюар с кружевом и перчатками XXXL.  Черный пеньюар с кружевом и перчатками XXXL. Модель: softline-1817xxxlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 97% полиэстер, 3% эластан. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Изготовлена из натуральной кожи. При изготовлении использована никелированная фурнитура. Ширина ремешков 20 мм. Кожаное боди харнес с креплением для фаллоса.  Кожаное боди харнес с креплением для фаллоса. Модель: sitabella-3130-1. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Страпоны и фаллопротезы &gt; Трусики и насадки. Цвет: черный. Материал: натуральная кожа, искусственная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>97% полиэстер, 3% эластан</t>
+          <t>натуральная кожа, искусственная кожа, металл</t>
         </is>
       </c>
       <c r="S93" t="inlineStr"/>
@@ -12057,7 +11805,7 @@
       <c r="AM93" t="inlineStr"/>
       <c r="AN93" t="inlineStr">
         <is>
-          <t>пеньюар, перчатки</t>
+          <t>боди, штырек для крепления фаллоса-насадки</t>
         </is>
       </c>
       <c r="AO93" t="inlineStr">
@@ -12077,28 +11825,28 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Розовые стринги с черным кружевом</t>
+          <t>Универсальные страпон-трусики для</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-10685-1299</t>
+          <t>id-12780-1299</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -12122,30 +11870,34 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10685/10685_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12780/12780_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12780/12780_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12780/12780_3_650.jpg</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Розовые стринги с черным кружевом.  Розовые стринги с черным кружевом. Модель: softline-200240slp. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный с розовым. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Страпон-трусики изготовлены из натуральной кожи. При производстве используется никелированная фурнитура. Размер регулируется ремешками, которые крепятся на бёдрах (от 42 до 52 размера). В комплект входит съёмный пластиковый плаг для насадок, съёмный фаллоимитатор, а также съёмная анальная пробка. Подходит для использования, как мужчиной, так и женщиной. Универсальные страпон-трусики для тройного проникновения Vac-U-Lock фантазия.  Универсальные страпон-трусики для тройного проникновения Vac-U-Lock фантазия. Модель: sitabella-3152-1. Секс-игрушки. Страпоны и фаллопротезы &gt; Трусики и насадки. Страпоны и фаллопротезы &gt; Для двойного и тройного проникновения. Цвет: черный с красным. Материал: натуральный латекс, натуральная кожа. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>натуральный латекс, натуральная кожа</t>
+        </is>
+      </c>
       <c r="S94" t="inlineStr"/>
       <c r="T94" t="inlineStr">
         <is>
@@ -12181,7 +11933,7 @@
       <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>страпон-трусики, штырек, вагинальный фаллос, анальная пробка</t>
         </is>
       </c>
       <c r="AO94" t="inlineStr">
@@ -12201,38 +11953,38 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Страпоны</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ажурные стринги на завязках</t>
+          <t>Красный страпон-трусики для тройного</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-15960-1299</t>
+          <t>id-27362-1299</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -12246,17 +11998,17 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/15960/15960_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/15960/15960_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27362/27362_2_650.jpg</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Ажурные стринги на завязках.  Ажурные стринги на завязках. Модель: softline-225010slb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Изготовлены из натуральной кожи. При производстве используется никелированная фурнитура. Размер регулируется ремешками, которые крепятся на бёдрах (от 42 до 50 размера). В комплект входит съёмный пластиковый плаг для насадок (длина 68 мм), съёмный фаллоимитатор (длина 80 мм, диаметр 35 мм), а так  же съёмная анальная пробка (длина 85 мм, диаметр 22 мм). Подходит для использования, как мужчиной, так и женщиной. Красный страпон-трусики для тройного проникновения.  Красный страпон-трусики для тройного проникновения. Модель: sitabella-3152-2. Секс-игрушки. Страпоны и фаллопротезы &gt; Трусики и насадки. Страпоны и фаллопротезы &gt; Для двойного и тройного проникновения. Цвет: красный с черным. Материал: натуральная кожа, металл, латекс, силикон, пластик. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -12269,7 +12021,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr"/>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>натуральная кожа, металл, латекс, силикон, пластик</t>
+        </is>
+      </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr">
         <is>
@@ -12305,7 +12061,7 @@
       <c r="AM95" t="inlineStr"/>
       <c r="AN95" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>страпон-трусики, вагинальный плаг, анальная пробка, штырек для насадки</t>
         </is>
       </c>
       <c r="AO95" t="inlineStr">
@@ -12331,32 +12087,32 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Черные кружевные стринги с разрезом</t>
+          <t>Кожаные мужские стринги с отверстием</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-10683-1299</t>
+          <t>id-12787-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-56</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -12370,30 +12126,34 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10683/10683_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12787/12787_1_650.jpg</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черные кружевные стринги с разрезом.  Черные кружевные стринги с разрезом. Модель: softline-226510slb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Мужские трусики изготовлены из натуральной кожи. При производстве использована никелированная фурнитура. Размер регулируется ремешками. В центре отверстие для фаллоса. Кожаные мужские стринги с отверстием для фаллоса.  Кожаные мужские стринги с отверстием для фаллоса. Модель: sitabella-3154-1. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для мужчин. Эротическое белье для мужчин &gt; Трусы, стринги, шорты. Цвет: черный. Материал: искусственная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>искусственная кожа, металл</t>
+        </is>
+      </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
@@ -12449,28 +12209,28 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Белые кружевные стринги с разрезом</t>
+          <t>Кожаная маска с серебряной вставкой</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-12130-1299</t>
+          <t>id-22109-1299</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -12494,30 +12254,34 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12130/12130_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22109/22109_1_650.jpg</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Белые кружевные стринги с разрезом.  Белые кружевные стринги с разрезом. Модель: softline-226520slw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: белый. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Чтобы достичь незабываемой эротической кульминации, необходимо уделить немало внимания предварительным ласкам, которые усилят сексуальное возбуждение и позволят испытать неистовое наслаждение. Использование дополнительных девайсов в предварительных сексуальных играх, придаёт им особый шарм. Кожаная маска с серебряной вставкой.  Кожаная маска с серебряной вставкой. Модель: sitabella-3182-16. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный с серебряным. Материал: натуральная кожа, эко кожа. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R97" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>натуральная кожа, эко кожа</t>
+        </is>
+      </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr">
         <is>
@@ -12573,13 +12337,13 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -12589,22 +12353,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Стринги черные с разрезом</t>
+          <t>Кожаная черная маска Зайка с узором</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-5823-1299</t>
+          <t>id-22353-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -12618,17 +12382,17 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/5823/5823_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22353/22353_1_650.jpg</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Стринги черные с разрезом.  Стринги черные с разрезом. Модель: softline-227010slb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Появилось желание разнообразить привычные сексуальные отношения и не знаете с чего начать? Потрясающая эффектная маска Кролик от Ситабелла позволит перевоплотиться в нежное игривое существо, которое впишется в множество сексуальных ролевых сценариев. Сексуальная и изящная маска изготовлена из высококачественной натуральной ременной кожи, это придаёт изделию каркасный роскошный вид. Маска легко надевается и имеет универсальный размер за счёт ремешка-резинки, который надёжно и комфортно фиксирует аксессуар на голове. Большой кокетливый разрез под глаза сделает Ваш взгляд томным и страстным, излучающим безграничную сексуальную энергию. Металлические декоративные элементы в сочетании с натуральной чёрной кожей придаёт изделию фетишности. Одевая маску Кролик Вы меняете не только свой внешний облик, делая его сексуальней для партнёра, но и чувствуете собственные эмоциональные изменения, настраиваясь на раскрепощённое эротичное настроение, ведь это уже не совсем Вы и позволить себе можно гораздо больше!.Кожаная черная маска Зайка с узором.  Кожаная черная маска Зайка с узором. Модель: sitabella-3186-1g. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -12641,7 +12405,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr"/>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>натуральная кожа, металл</t>
+        </is>
+      </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr">
         <is>
@@ -12677,7 +12445,7 @@
       <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>маска зайки, деревянная вешалка для маcки</t>
         </is>
       </c>
       <c r="AO98" t="inlineStr">
@@ -12697,13 +12465,13 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -12713,12 +12481,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Красные женские стринги с интимным</t>
+          <t>Кожаная маска кошки с золотистым</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-19470-1299</t>
+          <t>id-22114-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -12742,17 +12510,17 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19470/19470_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22114/22114_1_650.jpg</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Красные женские стринги с интимным доступом SL.  Красные женские стринги с интимным доступом SL. Модель: softline-227030slr. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: красный. Материал: 89% полиамид, 11% эластан. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Маска кошки (Harness Cat Mask) из коричневой и бежевой натуральной кожи с миндалевидными прорезями для глаз, украшенная металлическими заклёпками и цепочкой золотистого цвета, а также изящными рисунками на щеках и ушках. Изделие предназначено для эротических ролевых игр и практик БДСМ.Для максимального комфорта маска имеет бархатистую велюровую подкладку, обеспечивающую приятные тактильные ощущения при соприкосновении с кожей лица. Цвет велюра определяется производителем и может отличаться от цвета на фото.Фиксирующая резинка с пряжкой позволяет легко регулировать размер изделия.Применение:Маска используется с целью скрыть лицо и.или создать определенный образ для обострения чувств и яркости восприятия. Кожаная маска кошки с золотистым украшением Harness Cat Mask.  Кожаная маска кошки с золотистым украшением Harness Cat Mask. Модель: sitabella-3189-8g. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: коричневый. Материал: натуральная кожа, металл. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -12767,7 +12535,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>89% полиамид, 11% эластан</t>
+          <t>натуральная кожа, металл</t>
         </is>
       </c>
       <c r="S99" t="inlineStr"/>
@@ -12825,40 +12593,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Черные стринги кружевные с разрезом</t>
+          <t>Стимулирующий презерватив с усиками</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-5810-1299</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-4447-1299</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>99999</v>
@@ -12870,32 +12630,32 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/5810/5810_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4447/4447_2_650.jpg</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черные стринги кружевные с разрезом.  Черные стринги кружевные с разрезом. Модель: softline-227210slb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 89% полиамид, 11% эластан. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Ситабелла - один высококачественный презерватив с накопителем из гипоаллергенного латекса со стимулирующими усиками в обильной смазке на силиконовой основе. Стимулирующий презерватив с усиками УРАГАН (1 шт).  Стимулирующий презерватив с усиками УРАГАН (1 шт). Модель: sitabella-320. Презервативы. Презервативы &gt; С шариками и усиками. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>89% полиамид, 11% эластан</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S100" t="inlineStr"/>
@@ -12953,40 +12713,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SOFT LINE</t>
+          <t>SITABELLA</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Белые стринги с разрезом и кружевом</t>
+          <t>Удлиняющая пенис насадка Extender</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-12134-1299</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-13729-1299</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>99999</v>
@@ -12998,30 +12750,34 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12134/12134_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13729/13729_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13729/13729_1_650.jpg</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Белые стринги с разрезом и кружевом.  Белые стринги с разрезом и кружевом. Модель: softline-227720slw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый с черным. Батареек нет в комплекте. Бренд: SOFT LINE. </t>
+          <t xml:space="preserve">Насадка-удлинитель предназначена для восполнения достижения гармонии партнерами в интимных отношениях и увеличения яркости сексуальных впечатлений. Удлиняющая пенис насадка Extender.  Удлиняющая пенис насадка Extender. Модель: sitabella-3215. Секс-игрушки. Насадки и кольца &gt; Удлиняющие и расширяющие насадки. Насадки и кольца &gt; Без вибрации. Цвет: телесный. Материал: латекс. Батареек нет в комплекте. Бренд: SITABELLA. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R101" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>латекс</t>
+        </is>
+      </c>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr">
         <is>
@@ -13043,8 +12799,12 @@
       <c r="AC101" t="inlineStr"/>
       <c r="AD101" t="inlineStr"/>
       <c r="AE101" t="inlineStr"/>
-      <c r="AF101" t="inlineStr"/>
-      <c r="AG101" t="inlineStr"/>
+      <c r="AF101" t="n">
+        <v>3.685</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>3.35</v>
+      </c>
       <c r="AH101" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
